--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE7D7933-1131-40C7-B35F-6F29E4923130}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177AD1CC-896B-4A27-8A68-BBBDB015610D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5850" yWindow="5190" windowWidth="24000" windowHeight="14090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulated Events" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="161">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -726,30 +726,306 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Package event code: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ( 26 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>25H2</t>
+  </si>
+  <si>
+    <t>5l1</t>
+  </si>
+  <si>
+    <t>20in1</t>
+  </si>
+  <si>
+    <t>v04pxsdn</t>
+  </si>
+  <si>
+    <t>下载后请验证下载</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Please verify the download after downloading</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>25H2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>22H2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = multilingual, the prefix indicates a known version language is monolingual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 多语，前缀是已知版本区域是指单语</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 11，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>arm64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>x64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>x86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 架构</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">集成了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个已知语言，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">已知映像版本有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随机生成的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位字符</t>
+    </r>
+  </si>
+  <si>
+    <t>1 月</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发行时间 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
@@ -761,58 +1037,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, S = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>quarter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ), this system is packaged by Yi's Solutions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>v1.1.5.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> autopilot ( Usage plan: Additional edition ), go to learn or customize the package: </t>
+      <t xml:space="preserve"> 年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrated with </t>
     </r>
     <r>
       <rPr>
@@ -821,7 +1051,26 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>https://fengyi.tel/solutions</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> known languages, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>arm64</t>
     </r>
     <r>
       <rPr>
@@ -838,98 +1087,96 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>https://github.com/ilikeyi/solutions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>封装事件代号：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（ 26 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
+      <t>x64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>x86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> known image versions, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Randomly generated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-character string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Release date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
       <t>2026</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年、S = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>季度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>第 1 季度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ），此系统由 Yi's Solutions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>v1.1.5.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 自动驾驶封装（使用方案：附加版），前往学习或自定义封装：</t>
-    </r>
+  </si>
+  <si>
+    <t>.ISO .ASC</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -937,15 +1184,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>https://fengyi.tel/solutions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，</t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
     </r>
     <r>
       <rPr>
@@ -954,41 +1201,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>https://github.com/ilikeyi/solutions</t>
-    </r>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>Yi</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>25H2</t>
-  </si>
-  <si>
-    <t>5l1</t>
-  </si>
-  <si>
-    <t>20in1</t>
-  </si>
-  <si>
-    <t>v04pxsdn</t>
-  </si>
-  <si>
-    <t>下载后请验证下载</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Please verify the download after downloading</t>
+      <t xml:space="preserve"> SHA-256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 字串</t>
+    </r>
   </si>
   <si>
     <r>
@@ -998,15 +1220,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 11, </t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-bit </t>
     </r>
     <r>
       <rPr>
@@ -1015,15 +1237,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 10</t>
+      <t>SHA-256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> string</t>
     </r>
   </si>
   <si>
@@ -1034,15 +1256,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>25H2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO file; </t>
     </r>
     <r>
       <rPr>
@@ -1051,10 +1273,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>22H2</t>
-    </r>
-  </si>
-  <si>
+      <t>.ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1062,15 +1290,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = multilingual, the prefix indicates a known version language is monolingual</t>
+      <t>https://fengyi.tel/pgp</t>
     </r>
   </si>
   <si>
@@ -1081,18 +1301,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 多语，前缀是已知版本区域是指单语</t>
-    </r>
-  </si>
-  <si>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO 文件；</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1100,15 +1318,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 11，</t>
+      <t>.ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
     </r>
     <r>
       <rPr>
@@ -1117,464 +1335,8 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arm64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 架构</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">集成了 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 个已知语言，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">已知映像版本有 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 个，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">随机生成的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位字符</t>
-    </r>
-  </si>
-  <si>
-    <t>1 月</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发行时间 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integrated with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known languages, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arm64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known image versions, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Randomly generated </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>-character string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Release date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2026</t>
-    </r>
-  </si>
-  <si>
-    <t>.ISO .ASC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SHA-256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 字串</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHA-256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO file; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
       <t>https://fengyi.tel/pgp</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO 文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/pgp</t>
-    </r>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>Healthy</t>
   </si>
   <si>
     <r>
@@ -2132,36 +1894,6 @@
     </r>
   </si>
   <si>
-    <t>mul_Yi_Windows_11_25H2_x64_38l1_2in1_acv8rfr0_jan_2026_1AE457C4D90A1A35D77760155C87544ADEA59A862EE1A9948CF8BFCB799122BE.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_38l1_2in1_5oxpoo1v_jan_2026_FA31C1F9BBEF66BC3735D30F4ECFA0A1D1D066F751401A7ECA6DA225D0C77377.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_5l1_20in1_1bglaq1u_jan_2026_0D732D73879CA09294E89CA3822EBADD576F115E9D9005789683B61C04E230F6.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_3l1_20in1_y6fx4z7q_jan_2026_837CB4908B850998063B9EC2A53F1FF8182371AEB55FDF5D8FF16CC8C187493D.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_3l1_20in1_hmu9j031_jan_2026_56024F6EBC74587A475AEE02EB864B6E0C507B65F7F99AEF36D6E64A5A8B91D0.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_z0gp0tns_jan_2026_AE246F1634CF137C2F6C2216651A44C000E66F30AA0D8D25AA7B2AFA60330E6F.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_lhbih52r_jan_2026_3038F16B6C5E93F62A0A9DF2BA709A54305EDDCB1DD7DB80BE8E255F2031431D.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_5pv6avi3_jan_2026_98AD27B24AEB74DE6ECD7181133ED030B011102FFFF7D8F4F8A9C63023BAEC03.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_mrth9mpi_jan_2026_EE1D259A33AB7BEB63B5CA3E9643D5BDD17D2AF52EBE7BEC376E4EDAEFEEC9C6.iso</t>
-  </si>
-  <si>
     <t>jan</t>
   </si>
   <si>
@@ -2242,65 +1974,14 @@
     </r>
   </si>
   <si>
-    <t>描述
-[ 操作系统版本 | 版本号 ]</t>
-  </si>
-  <si>
-    <t>ISO
-[ 文件名 | SHA-256 "后缀 64 位字串" ]</t>
-  </si>
-  <si>
-    <t>包含
-[ 类别 | 名称 | 版本 ]</t>
-  </si>
-  <si>
     <t>Description
 [ Operating System Version | Version Number ]</t>
   </si>
   <si>
-    <t>ISO
-[ File name | SHA-256 "Suffix: 64-bit string" ]</t>
-  </si>
-  <si>
-    <t>Includes
-[ Category | Name | Version ]</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
-    <t>26S1</t>
-  </si>
-  <si>
     <t>事件</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ISO file naming rules: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ISO 文件名命名规则：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-    </r>
   </si>
   <si>
     <t>PGP 
@@ -2317,9 +1998,6 @@
     <t>After downloading the template file Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:</t>
   </si>
   <si>
-    <t>mul_Yi_Windows_11_26H1_x64_2l1_16in1_1dima21h_feb_2026_D53BC517D52DDD866EFBEAD01353957FC829CC4D6817EB79BF6BCF4B984A0581.iso</t>
-  </si>
-  <si>
     <t>Microsoft Windows 11 26H1 28000.1575</t>
   </si>
   <si>
@@ -2388,10 +2066,438 @@
     <t>Microsoft Windows 11 25H2 26200.7840</t>
   </si>
   <si>
-    <t>mul_Yi_Windows_11_26H1_x64_3l1_16in1_x86qep9s_feb_2026_9A5B33A7C1A6F81E2766AD249FB42ECAF9BA06C56813E64761F79CA81A48A32C.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_26H1_x64_2l1_16in1_ibad2xze_feb_2026_B9226D2A706E8A856616421B74682DE7AA5A204608401B977A056CDF2B301578.iso</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">26S1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Yi's Solutions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v2.8.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">26S1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Yi's Solutions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1.1.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Event: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">26S1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Yi's Solutions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v2.8.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Event: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">26S1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Yi's Solutions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1.1.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>封装事件代号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>26S1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（ 26 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 年、S = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>第 1 季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ），此系统由 Yi's Solutions 自动驾驶封装（使用方案：附加版），前往学习或自定义封装：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/ilikeyi/solutions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Package event code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>26S1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( 26 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, S = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ), this system is packaged by Yi's Solutions autopilot ( Usage plan: Additional edition ), go to learn or customize the package: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/ilikeyi/solutions</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO file naming rules: mul_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+  </si>
+  <si>
+    <t>ISO 文件名命名规则：mul_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+  </si>
+  <si>
+    <t>28000.1575_mul_Windows_11_26H1_x64_5l1_16in1_mh6h7m1r_feb_2026_75D32702B8B76281667763384112974BE28A3B6CB6B1178EF697D144BCF57292.iso</t>
+  </si>
+  <si>
+    <t>28000.1575_mul_Windows_11_26H1_x64_3l1_16in1_x86qep9s_feb_2026_9A5B33A7C1A6F81E2766AD249FB42ECAF9BA06C56813E64761F79CA81A48A32C.iso</t>
+  </si>
+  <si>
+    <t>28000.1575_mul_Windows_11_26H1_x64_2l1_16in1_ibad2xze_feb_2026_B9226D2A706E8A856616421B74682DE7AA5A204608401B977A056CDF2B301578.iso</t>
+  </si>
+  <si>
+    <t>28000.1575_mul_Windows_11_26H1_x64_2l1_16in1_1dima21h_feb_2026_D53BC517D52DDD866EFBEAD01353957FC829CC4D6817EB79BF6BCF4B984A0581.iso</t>
+  </si>
+  <si>
+    <t>26200.7840_mul_Windows_11_25H2_x64_2l1_20in1_h5rt3fw9_feb_2026_BC0894E8AFB8C1982FFDB6BB2FEE5CE13E8DBE50F3106CC62033079E476D4A9C.iso</t>
+  </si>
+  <si>
+    <t>26200.7840_mul_Windows_11_25H2_x64_2l1_20in1_qnw8hs9x_feb_2026_9F2B9B659B0ABF3B4A33ECB1D74C2AF4A9E21AFCE7EA1CD0B391D9B5B28C3AC4.iso</t>
+  </si>
+  <si>
+    <t>19045.6456_mul_Windows_10_22h2_x64_2l1_20in1_mrth9mpi_jan_2026_EE1D259A33AB7BEB63B5CA3E9643D5BDD17D2AF52EBE7BEC376E4EDAEFEEC9C6.iso</t>
+  </si>
+  <si>
+    <t>19045.6456_mul_Windows_10_22h2_x64_2l1_20in1_lhbih52r_jan_2026_3038F16B6C5E93F62A0A9DF2BA709A54305EDDCB1DD7DB80BE8E255F2031431D.iso</t>
+  </si>
+  <si>
+    <t>19045.6456_mul_Windows_10_22h2_x64_3l1_20in1_hmu9j031_jan_2026_56024F6EBC74587A475AEE02EB864B6E0C507B65F7F99AEF36D6E64A5A8B91D0.iso</t>
+  </si>
+  <si>
+    <t>19045.6456_mul_Windows_10_22h2_x64_5l1_20in1_1bglaq1u_jan_2026_0D732D73879CA09294E89CA3822EBADD576F115E9D9005789683B61C04E230F6.iso</t>
+  </si>
+  <si>
+    <t>19045.6456_mul_Windows_10_22h2_x64_38l1_2in1_5oxpoo1v_jan_2026_FA31C1F9BBEF66BC3735D30F4ECFA0A1D1D066F751401A7ECA6DA225D0C77377.iso</t>
+  </si>
+  <si>
+    <t>26200.7840_mul_Windows_11_25H2_x64_3l1_20in1_p6hfe1po_feb_2026_394E1D8D51B600D342CA6E9E92626D1963412F15336DC9E98032151F410B90E0.iso</t>
+  </si>
+  <si>
+    <t>描述 [ 操作系统版本 | 版本号 ]</t>
+  </si>
+  <si>
+    <t>ISO [ 文件名 | SHA-256 "后缀 64 位字串" ]</t>
+  </si>
+  <si>
+    <t>包含 [ 类别 | 名称 | 版本 ]</t>
+  </si>
+  <si>
+    <t>ISO [ File name | SHA-256 "Suffix: 64-bit string" ]</t>
+  </si>
+  <si>
+    <t>Includes [ Category | Name | Version ]</t>
+  </si>
+  <si>
+    <t>26H1 通知</t>
+  </si>
+  <si>
+    <t>更多信息请参阅微软关于此版本的官方公告。</t>
+  </si>
+  <si>
+    <t>26H1 版本仅适用于部分基于高通骁龙处理器的设备。虽然提供了 x64 ISO 镜像，但我们不建议安装，因为您可能会遇到软件兼容性问题、功能受限以及无法升级到 26H2 版本等情况。对于基于 x64 的 PC，我们建议您安装 25H2 版本。</t>
+  </si>
+  <si>
+    <t>Version 26H1 is only available for select devices powered by Qualcomm Snapdragon processors. While an x64 ISO image is available, we do not recommend installing it due to potential software compatibility issues, limited functionality, and inability to upgrade to version 26H2. For x64-based PCs, we recommend installing version 25H2.</t>
+  </si>
+  <si>
+    <t>26H1 Notification</t>
+  </si>
+  <si>
+    <t>For more information, please refer to Microsoft's official announcement regarding this release.</t>
+  </si>
+  <si>
+    <t>映像
+健康状态</t>
+  </si>
+  <si>
+    <t>Image  health State</t>
+  </si>
+  <si>
+    <t>26200.7840_mul_Windows_11_25H2_x64_5l1_20in1_6zxqe046_feb_2026_FD03C6A941AE205910130D5B4355DCCC8AC5D37100182A570BA2931492198655.iso</t>
+  </si>
+  <si>
+    <t>28000.1575_mul_Windows_11_26H1_x64_38l1_2in1_s60eq1c1_feb_2026_8C433E233F59EF841C8E5E0D454AAE89AC2ED3AD45695F5AB79AE9236608BDEA.iso</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2509,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,6 +2733,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -2833,7 +2952,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3083,14 +3202,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3221,18 +3333,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3252,6 +3384,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3732,15 +3868,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4953533</xdr:colOff>
+      <xdr:colOff>4698999</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>330733</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5562066</xdr:colOff>
+      <xdr:colOff>5156199</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>939266</xdr:rowOff>
+      <xdr:rowOff>647699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3768,8 +3904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8407933" y="457733"/>
-          <a:ext cx="608533" cy="608533"/>
+          <a:off x="8153399" y="317499"/>
+          <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3781,9 +3917,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5667374</xdr:colOff>
+      <xdr:colOff>5280024</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>511175</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1552575" cy="280205"/>
     <xdr:sp macro="" textlink="">
@@ -3799,7 +3935,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9121774" y="638175"/>
+          <a:off x="8734424" y="441325"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3852,15 +3988,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4953000</xdr:colOff>
+      <xdr:colOff>4698466</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:rowOff>189966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5561533</xdr:colOff>
+      <xdr:colOff>5155666</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>938733</xdr:rowOff>
+      <xdr:rowOff>647166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3888,8 +4024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8407400" y="457200"/>
-          <a:ext cx="608533" cy="608533"/>
+          <a:off x="8152866" y="316966"/>
+          <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3901,9 +4037,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5664200</xdr:colOff>
+      <xdr:colOff>5283200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1552575" cy="280205"/>
     <xdr:sp macro="" textlink="">
@@ -3919,7 +4055,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9118600" y="641350"/>
+          <a:off x="8737600" y="444500"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3980,6 +4116,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4158,11 +4298,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO106"/>
+  <dimension ref="A1:BO110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -4171,8 +4311,9 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
@@ -4189,62 +4330,62 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4256,24 +4397,24 @@
         <v>63</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="118"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="116"/>
     </row>
     <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
@@ -4283,8 +4424,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -4306,20 +4447,22 @@
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="122" t="s">
-        <v>136</v>
+      <c r="H8" s="120" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4334,63 +4477,61 @@
     </row>
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
-      <c r="D9" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="101">
+        <v>1</v>
+      </c>
+      <c r="G9" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="H9" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="101">
+        <v>1</v>
+      </c>
+      <c r="K9" s="101">
+        <v>1</v>
+      </c>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="103">
-        <v>1</v>
-      </c>
-      <c r="G10" s="103" t="s">
+      <c r="E10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="103">
-        <v>1</v>
-      </c>
-      <c r="K10" s="103">
-        <v>1</v>
-      </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103">
+      <c r="H10" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4408,13 +4549,13 @@
       <c r="A12" s="45"/>
       <c r="B12" s="19"/>
       <c r="D12" s="46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -4440,20 +4581,22 @@
       <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="122" t="s">
-        <v>136</v>
+      <c r="H14" s="120" t="s">
+        <v>128</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -4470,64 +4613,64 @@
     <row r="15" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="101">
+        <v>1</v>
+      </c>
+      <c r="G15" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="H15" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="101">
+        <v>1</v>
+      </c>
+      <c r="K15" s="101">
+        <v>1</v>
+      </c>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101">
         <v>1</v>
       </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="103">
-        <v>1</v>
-      </c>
-      <c r="G16" s="103" t="s">
+      <c r="E16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="103">
-        <v>1</v>
-      </c>
-      <c r="K16" s="103">
-        <v>1</v>
-      </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103">
+      <c r="H16" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4544,13 +4687,13 @@
     <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="D18" s="47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4574,10 +4717,10 @@
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="D20" s="14" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4585,11 +4728,11 @@
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="122" t="s">
-        <v>136</v>
+      <c r="H20" s="120" t="s">
+        <v>128</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -4604,63 +4747,63 @@
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="20"/>
-      <c r="D21" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="101">
+        <v>1</v>
+      </c>
+      <c r="G21" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="H21" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="101">
+        <v>1</v>
+      </c>
+      <c r="K21" s="101">
+        <v>1</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20"/>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="103">
-        <v>1</v>
-      </c>
-      <c r="G22" s="103" t="s">
+      <c r="E22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="103">
-        <v>1</v>
-      </c>
-      <c r="K22" s="103">
-        <v>1</v>
-      </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103">
+      <c r="H22" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4678,13 +4821,13 @@
       <c r="A24" s="45"/>
       <c r="B24" s="21"/>
       <c r="D24" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -4709,13 +4852,13 @@
     <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="D26" s="48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4739,10 +4882,10 @@
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21"/>
       <c r="D28" s="14" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -4750,11 +4893,11 @@
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="122" t="s">
-        <v>136</v>
+      <c r="H28" s="120" t="s">
+        <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -4769,63 +4912,63 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21"/>
-      <c r="D29" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="D29" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="101">
+        <v>1</v>
+      </c>
+      <c r="G29" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="H29" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="101">
+        <v>1</v>
+      </c>
+      <c r="K29" s="101">
+        <v>1</v>
+      </c>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="103">
-        <v>1</v>
-      </c>
-      <c r="G30" s="103" t="s">
+      <c r="E30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="103">
-        <v>1</v>
-      </c>
-      <c r="K30" s="103">
-        <v>1</v>
-      </c>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103">
+      <c r="H30" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>1</v>
       </c>
       <c r="O30" s="45"/>
@@ -4843,13 +4986,13 @@
     <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="D32" s="48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4874,10 +5017,10 @@
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="23"/>
       <c r="D34" s="14" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -4885,11 +5028,11 @@
       <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="122" t="s">
-        <v>136</v>
+      <c r="H34" s="120" t="s">
+        <v>128</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -4904,64 +5047,64 @@
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="23"/>
-      <c r="D35" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="101">
+        <v>1</v>
+      </c>
+      <c r="G35" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="J35" s="101">
+        <v>1</v>
+      </c>
+      <c r="K35" s="101">
+        <v>1</v>
+      </c>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="45"/>
       <c r="B36" s="23"/>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="103">
-        <v>1</v>
-      </c>
-      <c r="G36" s="103" t="s">
+      <c r="E36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" s="103">
-        <v>1</v>
-      </c>
-      <c r="K36" s="103">
-        <v>1</v>
-      </c>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103">
+      <c r="H36" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4979,20 +5122,20 @@
         <v>6</v>
       </c>
       <c r="F38" s="38"/>
-      <c r="G38" s="129" t="s">
+      <c r="G38" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129" t="s">
+      <c r="H38" s="133"/>
+      <c r="I38" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
       <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="120"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42" t="s">
         <v>24</v>
@@ -5001,33 +5144,33 @@
         <v>1</v>
       </c>
       <c r="F39" s="39"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="130" t="s">
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="96"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="94"/>
     </row>
     <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="121"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="106"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="104"/>
     </row>
     <row r="41" spans="1:15" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="41"/>
@@ -5039,10 +5182,10 @@
         <v>27</v>
       </c>
       <c r="F41" s="39"/>
-      <c r="G41" s="128" t="s">
+      <c r="G41" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="128"/>
+      <c r="H41" s="132"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
       <c r="K41" s="43"/>
@@ -5070,8 +5213,8 @@
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="59"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
       <c r="L43" s="59"/>
@@ -5080,8 +5223,8 @@
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="110" t="s">
-        <v>143</v>
+      <c r="D44" s="108" t="s">
+        <v>121</v>
       </c>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
@@ -5151,14 +5294,14 @@
       <c r="D49" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="2"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
     </row>
     <row r="50" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="57"/>
@@ -5215,207 +5358,207 @@
       <c r="M53" s="42"/>
     </row>
     <row r="54" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="87"/>
-      <c r="D54" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
+      <c r="B54" s="85"/>
+      <c r="D54" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
     </row>
     <row r="55" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="87"/>
-      <c r="D55" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="D55" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="83"/>
     </row>
     <row r="56" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="87"/>
-      <c r="D56" s="86" t="s">
+      <c r="B56" s="85"/>
+      <c r="D56" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="83"/>
+    </row>
+    <row r="57" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="85"/>
+      <c r="D57" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="85" t="s">
+      <c r="E57" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F56" s="85"/>
-    </row>
-    <row r="57" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="87"/>
-      <c r="D57" s="90" t="s">
+      <c r="F57" s="83"/>
+      <c r="G57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+    </row>
+    <row r="58" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="85"/>
+      <c r="D58" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="83"/>
+    </row>
+    <row r="59" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="85"/>
+      <c r="D59" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="83"/>
+    </row>
+    <row r="60" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="85"/>
+      <c r="D60" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-    </row>
-    <row r="58" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="87"/>
-      <c r="D58" s="90" t="s">
+      <c r="E60" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="83"/>
+    </row>
+    <row r="61" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="85"/>
+      <c r="D61" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="85"/>
-    </row>
-    <row r="59" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="87"/>
-      <c r="D59" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="85" t="s">
+      <c r="E61" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="83"/>
+    </row>
+    <row r="62" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="85"/>
+      <c r="D62" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="85"/>
-    </row>
-    <row r="60" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="87"/>
-      <c r="D60" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="85"/>
-    </row>
-    <row r="61" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="87"/>
-      <c r="D61" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="85" t="s">
+      <c r="F62" s="83"/>
+    </row>
+    <row r="63" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="85"/>
+      <c r="D63" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="83">
+        <v>1</v>
+      </c>
+      <c r="F63" s="83"/>
+    </row>
+    <row r="64" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="85"/>
+      <c r="D64" s="88">
+        <v>2026</v>
+      </c>
+      <c r="E64" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="85"/>
-    </row>
-    <row r="62" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="87"/>
-      <c r="D62" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="85" t="s">
+      <c r="F64" s="83"/>
+    </row>
+    <row r="65" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="78"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="87"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="78"/>
+      <c r="AA65" s="78"/>
+      <c r="AB65" s="78"/>
+      <c r="AC65" s="78"/>
+      <c r="AD65" s="78"/>
+      <c r="AE65" s="78"/>
+      <c r="AF65" s="78"/>
+      <c r="AG65" s="78"/>
+      <c r="AH65" s="78"/>
+      <c r="AI65" s="78"/>
+      <c r="AJ65" s="78"/>
+      <c r="AK65" s="78"/>
+      <c r="AL65" s="78"/>
+      <c r="AM65" s="78"/>
+      <c r="AN65" s="78"/>
+      <c r="AO65" s="78"/>
+      <c r="AP65" s="78"/>
+      <c r="AQ65" s="78"/>
+      <c r="AR65" s="78"/>
+      <c r="AS65" s="78"/>
+      <c r="AT65" s="78"/>
+      <c r="AU65" s="78"/>
+      <c r="AV65" s="78"/>
+      <c r="AW65" s="78"/>
+      <c r="AX65" s="78"/>
+      <c r="AY65" s="78"/>
+      <c r="AZ65" s="78"/>
+      <c r="BA65" s="78"/>
+      <c r="BB65" s="78"/>
+      <c r="BC65" s="78"/>
+      <c r="BD65" s="78"/>
+      <c r="BE65" s="78"/>
+      <c r="BF65" s="78"/>
+      <c r="BG65" s="78"/>
+      <c r="BH65" s="78"/>
+      <c r="BI65" s="78"/>
+      <c r="BJ65" s="78"/>
+      <c r="BK65" s="78"/>
+      <c r="BL65" s="78"/>
+      <c r="BM65" s="78"/>
+    </row>
+    <row r="66" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="85"/>
+      <c r="D66" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="85"/>
-    </row>
-    <row r="63" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="87"/>
-      <c r="D63" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="85">
-        <v>1</v>
-      </c>
-      <c r="F63" s="85"/>
-    </row>
-    <row r="64" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="87"/>
-      <c r="D64" s="90">
-        <v>2026</v>
-      </c>
-      <c r="E64" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="85"/>
-    </row>
-    <row r="65" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="79"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="89"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="79"/>
-      <c r="R65" s="79"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="79"/>
-      <c r="U65" s="79"/>
-      <c r="V65" s="79"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="79"/>
-      <c r="Y65" s="79"/>
-      <c r="Z65" s="79"/>
-      <c r="AA65" s="79"/>
-      <c r="AB65" s="79"/>
-      <c r="AC65" s="79"/>
-      <c r="AD65" s="79"/>
-      <c r="AE65" s="79"/>
-      <c r="AF65" s="79"/>
-      <c r="AG65" s="79"/>
-      <c r="AH65" s="79"/>
-      <c r="AI65" s="79"/>
-      <c r="AJ65" s="79"/>
-      <c r="AK65" s="79"/>
-      <c r="AL65" s="79"/>
-      <c r="AM65" s="79"/>
-      <c r="AN65" s="79"/>
-      <c r="AO65" s="79"/>
-      <c r="AP65" s="79"/>
-      <c r="AQ65" s="79"/>
-      <c r="AR65" s="79"/>
-      <c r="AS65" s="79"/>
-      <c r="AT65" s="79"/>
-      <c r="AU65" s="79"/>
-      <c r="AV65" s="79"/>
-      <c r="AW65" s="79"/>
-      <c r="AX65" s="79"/>
-      <c r="AY65" s="79"/>
-      <c r="AZ65" s="79"/>
-      <c r="BA65" s="79"/>
-      <c r="BB65" s="79"/>
-      <c r="BC65" s="79"/>
-      <c r="BD65" s="79"/>
-      <c r="BE65" s="79"/>
-      <c r="BF65" s="79"/>
-      <c r="BG65" s="79"/>
-      <c r="BH65" s="79"/>
-      <c r="BI65" s="79"/>
-      <c r="BJ65" s="79"/>
-      <c r="BK65" s="79"/>
-      <c r="BL65" s="79"/>
-      <c r="BM65" s="79"/>
-    </row>
-    <row r="66" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="87"/>
-      <c r="D66" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="93"/>
-    </row>
-    <row r="67" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="E66" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="91"/>
+    </row>
+    <row r="67" spans="1:65" s="78" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="57"/>
       <c r="C68" s="42"/>
@@ -5425,8 +5568,8 @@
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
       <c r="G68" s="59"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
       <c r="J68" s="59"/>
       <c r="K68" s="59"/>
       <c r="L68" s="59"/>
@@ -5589,8 +5732,8 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -5613,229 +5756,231 @@
       <c r="M80" s="13"/>
     </row>
     <row r="81" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="76"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="76"/>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="76"/>
-      <c r="Z81" s="76"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="76"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="76"/>
-      <c r="AH81" s="76"/>
-      <c r="AI81" s="76"/>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="76"/>
-      <c r="AL81" s="76"/>
-      <c r="AM81" s="76"/>
-      <c r="AN81" s="76"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="76"/>
-      <c r="AQ81" s="76"/>
-      <c r="AR81" s="76"/>
-      <c r="AS81" s="76"/>
-      <c r="AT81" s="76"/>
-      <c r="AU81" s="76"/>
-      <c r="AV81" s="76"/>
-      <c r="AW81" s="76"/>
-      <c r="AX81" s="76"/>
-      <c r="AY81" s="76"/>
-      <c r="AZ81" s="76"/>
-      <c r="BA81" s="76"/>
-      <c r="BB81" s="76"/>
-      <c r="BC81" s="76"/>
-      <c r="BD81" s="76"/>
-      <c r="BE81" s="76"/>
-      <c r="BF81" s="76"/>
-      <c r="BG81" s="76"/>
-      <c r="BH81" s="76"/>
-      <c r="BI81" s="76"/>
-      <c r="BJ81" s="76"/>
-      <c r="BK81" s="76"/>
-      <c r="BL81" s="76"/>
-      <c r="BM81" s="76"/>
-    </row>
-    <row r="82" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="76"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="76"/>
-      <c r="S82" s="76"/>
-      <c r="T82" s="76"/>
-      <c r="U82" s="76"/>
-      <c r="V82" s="76"/>
-      <c r="W82" s="76"/>
-      <c r="X82" s="76"/>
-      <c r="Y82" s="76"/>
-      <c r="Z82" s="76"/>
-      <c r="AA82" s="76"/>
-      <c r="AB82" s="76"/>
-      <c r="AC82" s="76"/>
-      <c r="AD82" s="76"/>
-      <c r="AE82" s="76"/>
-      <c r="AF82" s="76"/>
-      <c r="AG82" s="76"/>
-      <c r="AH82" s="76"/>
-      <c r="AI82" s="76"/>
-      <c r="AJ82" s="76"/>
-      <c r="AK82" s="76"/>
-      <c r="AL82" s="76"/>
-      <c r="AM82" s="76"/>
-      <c r="AN82" s="76"/>
-      <c r="AO82" s="76"/>
-      <c r="AP82" s="76"/>
-      <c r="AQ82" s="76"/>
-      <c r="AR82" s="76"/>
-      <c r="AS82" s="76"/>
-      <c r="AT82" s="76"/>
-      <c r="AU82" s="76"/>
-      <c r="AV82" s="76"/>
-      <c r="AW82" s="76"/>
-      <c r="AX82" s="76"/>
-      <c r="AY82" s="76"/>
-      <c r="AZ82" s="76"/>
-      <c r="BA82" s="76"/>
-      <c r="BB82" s="76"/>
-      <c r="BC82" s="76"/>
-      <c r="BD82" s="76"/>
-      <c r="BE82" s="76"/>
-      <c r="BF82" s="76"/>
-      <c r="BG82" s="76"/>
-      <c r="BH82" s="76"/>
-      <c r="BI82" s="76"/>
-      <c r="BJ82" s="76"/>
-      <c r="BK82" s="76"/>
-      <c r="BL82" s="76"/>
-      <c r="BM82" s="76"/>
-    </row>
-    <row r="83" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="24"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="1:65" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="24"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="136"/>
+      <c r="L82" s="136"/>
+      <c r="M82" s="136"/>
+    </row>
+    <row r="83" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="24"/>
       <c r="C83" s="42"/>
-      <c r="D83" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-    </row>
-    <row r="84" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D83" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="24"/>
       <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="42"/>
       <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="M84" s="42"/>
-    </row>
-    <row r="86" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="76"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="76"/>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="76"/>
+      <c r="S85" s="76"/>
+      <c r="T85" s="76"/>
+      <c r="U85" s="76"/>
+      <c r="V85" s="76"/>
+      <c r="W85" s="76"/>
+      <c r="X85" s="76"/>
+      <c r="Y85" s="76"/>
+      <c r="Z85" s="76"/>
+      <c r="AA85" s="76"/>
+      <c r="AB85" s="76"/>
+      <c r="AC85" s="76"/>
+      <c r="AD85" s="76"/>
+      <c r="AE85" s="76"/>
+      <c r="AF85" s="76"/>
+      <c r="AG85" s="76"/>
+      <c r="AH85" s="76"/>
+      <c r="AI85" s="76"/>
+      <c r="AJ85" s="76"/>
+      <c r="AK85" s="76"/>
+      <c r="AL85" s="76"/>
+      <c r="AM85" s="76"/>
+      <c r="AN85" s="76"/>
+      <c r="AO85" s="76"/>
+      <c r="AP85" s="76"/>
+      <c r="AQ85" s="76"/>
+      <c r="AR85" s="76"/>
+      <c r="AS85" s="76"/>
+      <c r="AT85" s="76"/>
+      <c r="AU85" s="76"/>
+      <c r="AV85" s="76"/>
+      <c r="AW85" s="76"/>
+      <c r="AX85" s="76"/>
+      <c r="AY85" s="76"/>
+      <c r="AZ85" s="76"/>
+      <c r="BA85" s="76"/>
+      <c r="BB85" s="76"/>
+      <c r="BC85" s="76"/>
+      <c r="BD85" s="76"/>
+      <c r="BE85" s="76"/>
+      <c r="BF85" s="76"/>
+      <c r="BG85" s="76"/>
+      <c r="BH85" s="76"/>
+      <c r="BI85" s="76"/>
+      <c r="BJ85" s="76"/>
+      <c r="BK85" s="76"/>
+      <c r="BL85" s="76"/>
+      <c r="BM85" s="76"/>
+    </row>
+    <row r="86" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+      <c r="O86" s="76"/>
+      <c r="P86" s="76"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="76"/>
+      <c r="S86" s="76"/>
+      <c r="T86" s="76"/>
+      <c r="U86" s="76"/>
+      <c r="V86" s="76"/>
+      <c r="W86" s="76"/>
+      <c r="X86" s="76"/>
+      <c r="Y86" s="76"/>
+      <c r="Z86" s="76"/>
+      <c r="AA86" s="76"/>
+      <c r="AB86" s="76"/>
+      <c r="AC86" s="76"/>
+      <c r="AD86" s="76"/>
+      <c r="AE86" s="76"/>
+      <c r="AF86" s="76"/>
+      <c r="AG86" s="76"/>
+      <c r="AH86" s="76"/>
+      <c r="AI86" s="76"/>
+      <c r="AJ86" s="76"/>
+      <c r="AK86" s="76"/>
+      <c r="AL86" s="76"/>
+      <c r="AM86" s="76"/>
+      <c r="AN86" s="76"/>
+      <c r="AO86" s="76"/>
+      <c r="AP86" s="76"/>
+      <c r="AQ86" s="76"/>
+      <c r="AR86" s="76"/>
+      <c r="AS86" s="76"/>
+      <c r="AT86" s="76"/>
+      <c r="AU86" s="76"/>
+      <c r="AV86" s="76"/>
+      <c r="AW86" s="76"/>
+      <c r="AX86" s="76"/>
+      <c r="AY86" s="76"/>
+      <c r="AZ86" s="76"/>
+      <c r="BA86" s="76"/>
+      <c r="BB86" s="76"/>
+      <c r="BC86" s="76"/>
+      <c r="BD86" s="76"/>
+      <c r="BE86" s="76"/>
+      <c r="BF86" s="76"/>
+      <c r="BG86" s="76"/>
+      <c r="BH86" s="76"/>
+      <c r="BI86" s="76"/>
+      <c r="BJ86" s="76"/>
+      <c r="BK86" s="76"/>
+      <c r="BL86" s="76"/>
+      <c r="BM86" s="76"/>
+    </row>
+    <row r="87" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="24"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
+      <c r="J87" s="131"/>
+      <c r="K87" s="131"/>
+      <c r="L87" s="131"/>
+      <c r="M87" s="131"/>
+    </row>
+    <row r="88" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="M88" s="42"/>
     </row>
     <row r="90" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
@@ -6092,12 +6237,72 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
+    <row r="107" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D87:M87"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:L38"/>
@@ -6105,6 +6310,7 @@
     <mergeCell ref="I40:L40"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D82:M82"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F10 F14:F16 F20:F22 F28:F30 F34:F36">
     <cfRule type="iconSet" priority="7">
@@ -6194,19 +6400,21 @@
     <hyperlink ref="D72" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
     <hyperlink ref="D77" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
     <hyperlink ref="D44" r:id="rId10" display="After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
-    <hyperlink ref="D83:K83" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
+    <hyperlink ref="D87:K87" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
     <hyperlink ref="E66" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
+    <hyperlink ref="D83" r:id="rId13" xr:uid="{671D7273-4D11-4DB1-879B-F45E2A4C4321}"/>
+    <hyperlink ref="D82:K82" r:id="rId14" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{36C4110C-F336-47A6-9C41-14D818ECB54A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="52" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6216,11 +6424,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO84"/>
+  <dimension ref="A1:BO88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -6229,8 +6437,9 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
@@ -6247,62 +6456,62 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>99</v>
+        <v>147</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>157</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6314,24 +6523,24 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="118"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="116"/>
       <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -6343,8 +6552,8 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -6371,7 +6580,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="10">
@@ -6380,11 +6589,11 @@
       <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="124" t="s">
-        <v>136</v>
+      <c r="H8" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6402,32 +6611,30 @@
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99">
+        <v>1</v>
+      </c>
+      <c r="G9" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10">
+      <c r="I9" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="99">
+        <v>1</v>
+      </c>
+      <c r="K9" s="99">
+        <v>1</v>
+      </c>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99">
         <v>1</v>
       </c>
       <c r="N9" s="10"/>
@@ -6436,32 +6643,32 @@
     <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="101">
-        <v>1</v>
-      </c>
-      <c r="G10" s="101" t="s">
+      <c r="D10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="101">
-        <v>1</v>
-      </c>
-      <c r="K10" s="101">
-        <v>1</v>
-      </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101">
+      <c r="H10" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
         <v>1</v>
       </c>
       <c r="N10" s="10"/>
@@ -6481,13 +6688,13 @@
       <c r="B12" s="30"/>
       <c r="C12" s="10"/>
       <c r="D12" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -6514,20 +6721,22 @@
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="124" t="s">
-        <v>136</v>
+      <c r="H14" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -6545,32 +6754,32 @@
     <row r="15" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="30"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="D15" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="99">
+        <v>1</v>
+      </c>
+      <c r="G15" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10">
+      <c r="I15" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="99">
+        <v>1</v>
+      </c>
+      <c r="K15" s="99">
+        <v>1</v>
+      </c>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99">
         <v>1</v>
       </c>
       <c r="N15" s="10"/>
@@ -6579,32 +6788,32 @@
     <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="101">
-        <v>1</v>
-      </c>
-      <c r="G16" s="101" t="s">
+      <c r="D16" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="101">
-        <v>1</v>
-      </c>
-      <c r="K16" s="101">
-        <v>1</v>
-      </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101">
+      <c r="H16" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
         <v>1</v>
       </c>
       <c r="N16" s="10"/>
@@ -6624,13 +6833,13 @@
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -6657,10 +6866,10 @@
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="D20" s="28" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -6668,11 +6877,11 @@
       <c r="G20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="124" t="s">
-        <v>136</v>
+      <c r="H20" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J20" s="10">
         <v>1</v>
@@ -6690,32 +6899,32 @@
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="D21" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="99">
+        <v>1</v>
+      </c>
+      <c r="G21" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10">
+      <c r="I21" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="99">
+        <v>1</v>
+      </c>
+      <c r="K21" s="99">
+        <v>1</v>
+      </c>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99">
         <v>1</v>
       </c>
       <c r="N21" s="10"/>
@@ -6724,32 +6933,32 @@
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="31"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="101">
-        <v>1</v>
-      </c>
-      <c r="G22" s="101" t="s">
+      <c r="D22" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="101">
-        <v>1</v>
-      </c>
-      <c r="K22" s="101">
-        <v>1</v>
-      </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101">
+      <c r="H22" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
         <v>1</v>
       </c>
       <c r="N22" s="10"/>
@@ -6774,13 +6983,13 @@
       <c r="B24" s="32"/>
       <c r="C24" s="10"/>
       <c r="D24" s="46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6809,13 +7018,13 @@
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -6843,10 +7052,10 @@
       <c r="B28" s="32"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -6854,11 +7063,11 @@
       <c r="G28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="124" t="s">
-        <v>136</v>
+      <c r="H28" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -6876,32 +7085,32 @@
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="D29" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="99">
+        <v>1</v>
+      </c>
+      <c r="G29" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10">
+      <c r="I29" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="99">
+        <v>1</v>
+      </c>
+      <c r="K29" s="99">
+        <v>1</v>
+      </c>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99">
         <v>1</v>
       </c>
       <c r="N29" s="10"/>
@@ -6910,32 +7119,32 @@
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="101">
-        <v>1</v>
-      </c>
-      <c r="G30" s="101" t="s">
+      <c r="D30" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="101">
-        <v>1</v>
-      </c>
-      <c r="K30" s="101">
-        <v>1</v>
-      </c>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101">
+      <c r="H30" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
         <v>1</v>
       </c>
       <c r="N30" s="10"/>
@@ -6955,13 +7164,13 @@
       <c r="B32" s="34"/>
       <c r="C32" s="10"/>
       <c r="D32" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
@@ -6989,10 +7198,10 @@
       <c r="B34" s="34"/>
       <c r="C34" s="10"/>
       <c r="D34" s="28" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
@@ -7000,11 +7209,11 @@
       <c r="G34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="124" t="s">
-        <v>136</v>
+      <c r="H34" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J34" s="10">
         <v>1</v>
@@ -7022,32 +7231,32 @@
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="D35" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="99">
+        <v>1</v>
+      </c>
+      <c r="G35" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10">
+      <c r="I35" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="99">
+        <v>1</v>
+      </c>
+      <c r="K35" s="99">
+        <v>1</v>
+      </c>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99">
         <v>1</v>
       </c>
       <c r="N35" s="10"/>
@@ -7056,32 +7265,32 @@
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="101">
-        <v>1</v>
-      </c>
-      <c r="G36" s="101" t="s">
+      <c r="D36" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="101">
-        <v>1</v>
-      </c>
-      <c r="K36" s="101">
-        <v>1</v>
-      </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101">
+      <c r="H36" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10">
         <v>1</v>
       </c>
       <c r="N36" s="10"/>
@@ -7101,21 +7310,21 @@
       </c>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="129" t="s">
+      <c r="G38" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129" t="s">
+      <c r="H38" s="133"/>
+      <c r="I38" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
       <c r="M38" s="44"/>
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="120"/>
+      <c r="B39" s="118"/>
       <c r="D39" s="45" t="s">
         <v>5</v>
       </c>
@@ -7123,33 +7332,33 @@
         <v>1</v>
       </c>
       <c r="F39" s="40"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="134" t="s">
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="97"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="95"/>
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="121"/>
-      <c r="D40" s="107" t="s">
+      <c r="B40" s="119"/>
+      <c r="D40" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="107"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="105"/>
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -7161,10 +7370,10 @@
         <v>27</v>
       </c>
       <c r="F41" s="40"/>
-      <c r="G41" s="136" t="s">
+      <c r="G41" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="136"/>
+      <c r="H41" s="141"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
@@ -7185,11 +7394,11 @@
       <c r="D43" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
       <c r="G43" s="61"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
       <c r="L43" s="61"/>
@@ -7199,11 +7408,11 @@
       <c r="A44" s="42"/>
       <c r="B44" s="57"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
+      <c r="D44" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
     </row>
     <row r="45" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
@@ -7212,8 +7421,8 @@
       <c r="D45" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
     </row>
     <row r="46" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
@@ -7222,8 +7431,8 @@
       <c r="D46" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
     </row>
     <row r="47" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
@@ -7232,16 +7441,16 @@
       <c r="D47" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
     </row>
     <row r="48" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42"/>
       <c r="B48" s="57"/>
       <c r="C48" s="2"/>
       <c r="D48" s="65"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
     </row>
     <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
@@ -7250,8 +7459,8 @@
       <c r="D49" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
     </row>
     <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42"/>
@@ -7284,20 +7493,20 @@
     </row>
     <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
-      <c r="B54" s="87"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
+      <c r="D54" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -7353,15 +7562,15 @@
     </row>
     <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="85"/>
+      <c r="D55" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="83"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -7424,15 +7633,15 @@
     </row>
     <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="85"/>
+      <c r="D56" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="83"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -7495,22 +7704,22 @@
     </row>
     <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
-      <c r="B57" s="87"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="84"/>
+      <c r="D57" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="83"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -7566,15 +7775,15 @@
     </row>
     <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
-      <c r="B58" s="87"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="85"/>
+      <c r="D58" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="83"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -7637,15 +7846,15 @@
     </row>
     <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
-      <c r="B59" s="87"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="85"/>
+      <c r="E59" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="83"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -7708,15 +7917,15 @@
     </row>
     <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="85"/>
+      <c r="D60" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="83"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -7779,15 +7988,15 @@
     </row>
     <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="85"/>
+      <c r="D61" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="83"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7850,15 +8059,15 @@
     </row>
     <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="87"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62" s="85"/>
+      <c r="D62" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="83"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -7921,15 +8130,15 @@
     </row>
     <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
-      <c r="B63" s="87"/>
+      <c r="B63" s="85"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="85"/>
+      <c r="D63" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="83"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -7992,15 +8201,15 @@
     </row>
     <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
-      <c r="B64" s="87"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="90">
+      <c r="D64" s="88">
         <v>2026</v>
       </c>
-      <c r="E64" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="85"/>
+      <c r="E64" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="83"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -8063,15 +8272,15 @@
     </row>
     <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="85"/>
+      <c r="D65" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="83"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -8134,15 +8343,15 @@
     </row>
     <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="85"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" s="93"/>
+      <c r="D66" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="91"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -8280,8 +8489,8 @@
       <c r="E68" s="61"/>
       <c r="F68" s="61"/>
       <c r="G68" s="61"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="115"/>
       <c r="J68" s="61"/>
       <c r="K68" s="61"/>
       <c r="L68" s="61"/>
@@ -8379,8 +8588,8 @@
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
       <c r="J79" s="26"/>
       <c r="K79" s="26"/>
       <c r="L79" s="26"/>
@@ -8402,174 +8611,232 @@
       <c r="M80" s="36"/>
     </row>
     <row r="81" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="76"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="79"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
-      <c r="O81" s="79"/>
-      <c r="P81" s="79"/>
-      <c r="Q81" s="79"/>
-      <c r="R81" s="79"/>
-      <c r="S81" s="79"/>
-      <c r="T81" s="79"/>
-      <c r="U81" s="79"/>
-      <c r="V81" s="79"/>
-      <c r="W81" s="79"/>
-      <c r="X81" s="79"/>
-      <c r="Y81" s="79"/>
-      <c r="Z81" s="79"/>
-      <c r="AA81" s="79"/>
-      <c r="AB81" s="79"/>
-      <c r="AC81" s="79"/>
-      <c r="AD81" s="79"/>
-      <c r="AE81" s="79"/>
-      <c r="AF81" s="79"/>
-      <c r="AG81" s="79"/>
-      <c r="AH81" s="79"/>
-      <c r="AI81" s="79"/>
-      <c r="AJ81" s="79"/>
-      <c r="AK81" s="79"/>
-      <c r="AL81" s="79"/>
-      <c r="AM81" s="79"/>
-      <c r="AN81" s="79"/>
-      <c r="AO81" s="79"/>
-      <c r="AP81" s="79"/>
-      <c r="AQ81" s="79"/>
-      <c r="AR81" s="79"/>
-      <c r="AS81" s="79"/>
-      <c r="AT81" s="79"/>
-      <c r="AU81" s="79"/>
-      <c r="AV81" s="79"/>
-      <c r="AW81" s="79"/>
-      <c r="AX81" s="79"/>
-      <c r="AY81" s="79"/>
-      <c r="AZ81" s="79"/>
-      <c r="BA81" s="79"/>
-      <c r="BB81" s="79"/>
-      <c r="BC81" s="79"/>
-      <c r="BD81" s="79"/>
-      <c r="BE81" s="79"/>
-      <c r="BF81" s="79"/>
-      <c r="BG81" s="79"/>
-      <c r="BH81" s="79"/>
-      <c r="BI81" s="79"/>
-      <c r="BJ81" s="79"/>
-      <c r="BK81" s="79"/>
-      <c r="BL81" s="79"/>
-      <c r="BM81" s="79"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
     </row>
     <row r="82" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="76"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-      <c r="O82" s="79"/>
-      <c r="P82" s="79"/>
-      <c r="Q82" s="79"/>
-      <c r="R82" s="79"/>
-      <c r="S82" s="79"/>
-      <c r="T82" s="79"/>
-      <c r="U82" s="79"/>
-      <c r="V82" s="79"/>
-      <c r="W82" s="79"/>
-      <c r="X82" s="79"/>
-      <c r="Y82" s="79"/>
-      <c r="Z82" s="79"/>
-      <c r="AA82" s="79"/>
-      <c r="AB82" s="79"/>
-      <c r="AC82" s="79"/>
-      <c r="AD82" s="79"/>
-      <c r="AE82" s="79"/>
-      <c r="AF82" s="79"/>
-      <c r="AG82" s="79"/>
-      <c r="AH82" s="79"/>
-      <c r="AI82" s="79"/>
-      <c r="AJ82" s="79"/>
-      <c r="AK82" s="79"/>
-      <c r="AL82" s="79"/>
-      <c r="AM82" s="79"/>
-      <c r="AN82" s="79"/>
-      <c r="AO82" s="79"/>
-      <c r="AP82" s="79"/>
-      <c r="AQ82" s="79"/>
-      <c r="AR82" s="79"/>
-      <c r="AS82" s="79"/>
-      <c r="AT82" s="79"/>
-      <c r="AU82" s="79"/>
-      <c r="AV82" s="79"/>
-      <c r="AW82" s="79"/>
-      <c r="AX82" s="79"/>
-      <c r="AY82" s="79"/>
-      <c r="AZ82" s="79"/>
-      <c r="BA82" s="79"/>
-      <c r="BB82" s="79"/>
-      <c r="BC82" s="79"/>
-      <c r="BD82" s="79"/>
-      <c r="BE82" s="79"/>
-      <c r="BF82" s="79"/>
-      <c r="BG82" s="79"/>
-      <c r="BH82" s="79"/>
-      <c r="BI82" s="79"/>
-      <c r="BJ82" s="79"/>
-      <c r="BK82" s="79"/>
-      <c r="BL82" s="79"/>
-      <c r="BM82" s="79"/>
-    </row>
-    <row r="83" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="42"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+    </row>
+    <row r="83" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42"/>
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="133"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="133"/>
-      <c r="K83" s="133"/>
-      <c r="L83" s="133"/>
-      <c r="M83" s="133"/>
-    </row>
-    <row r="84" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D84" s="42"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="M84" s="42"/>
+      <c r="D83" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+    </row>
+    <row r="84" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="42"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+    </row>
+    <row r="85" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="76"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="78"/>
+      <c r="X85" s="78"/>
+      <c r="Y85" s="78"/>
+      <c r="Z85" s="78"/>
+      <c r="AA85" s="78"/>
+      <c r="AB85" s="78"/>
+      <c r="AC85" s="78"/>
+      <c r="AD85" s="78"/>
+      <c r="AE85" s="78"/>
+      <c r="AF85" s="78"/>
+      <c r="AG85" s="78"/>
+      <c r="AH85" s="78"/>
+      <c r="AI85" s="78"/>
+      <c r="AJ85" s="78"/>
+      <c r="AK85" s="78"/>
+      <c r="AL85" s="78"/>
+      <c r="AM85" s="78"/>
+      <c r="AN85" s="78"/>
+      <c r="AO85" s="78"/>
+      <c r="AP85" s="78"/>
+      <c r="AQ85" s="78"/>
+      <c r="AR85" s="78"/>
+      <c r="AS85" s="78"/>
+      <c r="AT85" s="78"/>
+      <c r="AU85" s="78"/>
+      <c r="AV85" s="78"/>
+      <c r="AW85" s="78"/>
+      <c r="AX85" s="78"/>
+      <c r="AY85" s="78"/>
+      <c r="AZ85" s="78"/>
+      <c r="BA85" s="78"/>
+      <c r="BB85" s="78"/>
+      <c r="BC85" s="78"/>
+      <c r="BD85" s="78"/>
+      <c r="BE85" s="78"/>
+      <c r="BF85" s="78"/>
+      <c r="BG85" s="78"/>
+      <c r="BH85" s="78"/>
+      <c r="BI85" s="78"/>
+      <c r="BJ85" s="78"/>
+      <c r="BK85" s="78"/>
+      <c r="BL85" s="78"/>
+      <c r="BM85" s="78"/>
+    </row>
+    <row r="86" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="78"/>
+      <c r="P86" s="78"/>
+      <c r="Q86" s="78"/>
+      <c r="R86" s="78"/>
+      <c r="S86" s="78"/>
+      <c r="T86" s="78"/>
+      <c r="U86" s="78"/>
+      <c r="V86" s="78"/>
+      <c r="W86" s="78"/>
+      <c r="X86" s="78"/>
+      <c r="Y86" s="78"/>
+      <c r="Z86" s="78"/>
+      <c r="AA86" s="78"/>
+      <c r="AB86" s="78"/>
+      <c r="AC86" s="78"/>
+      <c r="AD86" s="78"/>
+      <c r="AE86" s="78"/>
+      <c r="AF86" s="78"/>
+      <c r="AG86" s="78"/>
+      <c r="AH86" s="78"/>
+      <c r="AI86" s="78"/>
+      <c r="AJ86" s="78"/>
+      <c r="AK86" s="78"/>
+      <c r="AL86" s="78"/>
+      <c r="AM86" s="78"/>
+      <c r="AN86" s="78"/>
+      <c r="AO86" s="78"/>
+      <c r="AP86" s="78"/>
+      <c r="AQ86" s="78"/>
+      <c r="AR86" s="78"/>
+      <c r="AS86" s="78"/>
+      <c r="AT86" s="78"/>
+      <c r="AU86" s="78"/>
+      <c r="AV86" s="78"/>
+      <c r="AW86" s="78"/>
+      <c r="AX86" s="78"/>
+      <c r="AY86" s="78"/>
+      <c r="AZ86" s="78"/>
+      <c r="BA86" s="78"/>
+      <c r="BB86" s="78"/>
+      <c r="BC86" s="78"/>
+      <c r="BD86" s="78"/>
+      <c r="BE86" s="78"/>
+      <c r="BF86" s="78"/>
+      <c r="BG86" s="78"/>
+      <c r="BH86" s="78"/>
+      <c r="BI86" s="78"/>
+      <c r="BJ86" s="78"/>
+      <c r="BK86" s="78"/>
+      <c r="BL86" s="78"/>
+      <c r="BM86" s="78"/>
+    </row>
+    <row r="87" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="42"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="138"/>
+      <c r="F87" s="138"/>
+      <c r="G87" s="138"/>
+      <c r="H87" s="138"/>
+      <c r="I87" s="138"/>
+      <c r="J87" s="138"/>
+      <c r="K87" s="138"/>
+      <c r="L87" s="138"/>
+      <c r="M87" s="138"/>
+    </row>
+    <row r="88" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="42"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="M88" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="9">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D87:M87"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I40:L40"/>
@@ -8642,7 +8909,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16 F20:F22 F28:F30 F34:F36 J20:M22 J34:M36 J28:M30 J14:M16 J8:M10 F8:F10" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
       <formula1>"1,0"</formula1>
     </dataValidation>
@@ -8657,18 +8924,19 @@
     <hyperlink ref="D72" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
     <hyperlink ref="D77" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
     <hyperlink ref="D44" r:id="rId9" display="下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
-    <hyperlink ref="D83:K83" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
+    <hyperlink ref="D87:K87" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
     <hyperlink ref="E66" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
+    <hyperlink ref="D83" r:id="rId12" xr:uid="{ED7CB471-E4E8-4BAE-8291-F3DAB18853FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="52" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10页 &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177AD1CC-896B-4A27-8A68-BBBDB015610D}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479F6DEF-47AB-4CC3-9C1E-B804ADB53FEB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5850" yWindow="5190" windowWidth="24000" windowHeight="14090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulated Events" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="162">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -2498,6 +2498,9 @@
   </si>
   <si>
     <t>28000.1575_mul_Windows_11_26H1_x64_38l1_2in1_s60eq1c1_feb_2026_8C433E233F59EF841C8E5E0D454AAE89AC2ED3AD45695F5AB79AE9236608BDEA.iso</t>
+  </si>
+  <si>
+    <t>26200.7840_mul_Windows_11_25H2_x64_38l1_2in1_qygah694_feb_2026_083EE209C10420BE96A2C6969FDD6A504E514564DE4AF90F8D0DAAB378A76898.iso</t>
   </si>
 </sst>
 </file>
@@ -4302,7 +4305,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -4480,7 +4483,9 @@
       <c r="D9" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="98" t="s">
+        <v>161</v>
+      </c>
       <c r="F9" s="101">
         <v>1</v>
       </c>
@@ -6582,7 +6587,9 @@
       <c r="D8" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
@@ -6614,7 +6621,9 @@
       <c r="D9" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="98" t="s">
+        <v>161</v>
+      </c>
       <c r="F9" s="99">
         <v>1</v>
       </c>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1782" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74EC6B6-DEAC-49F0-952C-D6FCAEE3BFA5}"/>
+  <xr:revisionPtr revIDLastSave="1907" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0B1364-2721-4945-BA0D-0E59BC20536E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="225">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -2645,9 +2645,51 @@
 N</t>
   </si>
   <si>
+    <t>2 项</t>
+  </si>
+  <si>
+    <t>1 项</t>
+  </si>
+  <si>
+    <t>20 项</t>
+  </si>
+  <si>
+    <t>13 项</t>
+  </si>
+  <si>
+    <t>10 项</t>
+  </si>
+  <si>
+    <t>16 项</t>
+  </si>
+  <si>
+    <t>1 item</t>
+  </si>
+  <si>
+    <t>2 item</t>
+  </si>
+  <si>
+    <t>20 item</t>
+  </si>
+  <si>
+    <t>13 item</t>
+  </si>
+  <si>
+    <t>10 item</t>
+  </si>
+  <si>
+    <t>16 item</t>
+  </si>
+  <si>
     <t>11. 专业
-工作站版 
-N</t>
+工作站版 N</t>
+  </si>
+  <si>
+    <t>映像
+内容有</t>
+  </si>
+  <si>
+    <t>The image content includes</t>
   </si>
 </sst>
 </file>
@@ -3540,14 +3582,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6793,7 +6835,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -6807,7 +6849,7 @@
     <tabColor rgb="FF22798E"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CK45"/>
+  <dimension ref="A1:CL45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -6820,18 +6862,30 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="2" customWidth="1"/>
-    <col min="6" max="19" width="11.6328125" style="10" customWidth="1"/>
-    <col min="20" max="25" width="11.6328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="0.81640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="2.6328125" style="42" customWidth="1"/>
-    <col min="28" max="83" width="9.1796875" style="45" hidden="1" customWidth="1"/>
-    <col min="84" max="89" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="90" max="16384" width="9.1796875" style="45" hidden="1"/>
+    <col min="5" max="6" width="11.6328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="10" customWidth="1"/>
+    <col min="13" max="14" width="11.6328125" style="10" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="10.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.6328125" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.6328125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.6328125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="0.81640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="2.6328125" style="42" customWidth="1"/>
+    <col min="29" max="84" width="9.1796875" style="45" hidden="1" customWidth="1"/>
+    <col min="85" max="90" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="91" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:28" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -6845,8 +6899,9 @@
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="130"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
@@ -6855,15 +6910,15 @@
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="112"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="112"/>
-      <c r="J2" s="59"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="45"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="45"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
@@ -6875,8 +6930,9 @@
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
-    </row>
-    <row r="3" spans="1:27" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB2" s="45"/>
+    </row>
+    <row r="3" spans="1:28" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="130"/>
       <c r="C3" s="42"/>
       <c r="D3" s="44"/>
@@ -6902,9 +6958,10 @@
       <c r="X3" s="44"/>
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
-      <c r="AA3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="45"/>
+    </row>
+    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
       <c r="D4" s="37" t="s">
@@ -6913,96 +6970,100 @@
       <c r="E4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="H4" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="134" t="s">
+      <c r="I4" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="J4" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="K4" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="134" t="s">
+      <c r="L4" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="M4" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="134" t="s">
+      <c r="N4" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="134" t="s">
+      <c r="O4" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="134" t="s">
+      <c r="P4" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="Q4" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="134" t="s">
+      <c r="R4" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="134" t="s">
+      <c r="S4" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="S4" s="134" t="s">
+      <c r="T4" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="U4" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="134" t="s">
+      <c r="V4" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="134" t="s">
+      <c r="W4" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="W4" s="134" t="s">
+      <c r="X4" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="Y4" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="Y4" s="134" t="s">
+      <c r="Z4" s="136" t="s">
         <v>190</v>
       </c>
-      <c r="Z4" s="44"/>
-    </row>
-    <row r="5" spans="1:27" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA4" s="44"/>
+    </row>
+    <row r="5" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44"/>
       <c r="C5" s="42"/>
       <c r="D5" s="37"/>
       <c r="E5" s="44"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="44"/>
-    </row>
-    <row r="6" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="44"/>
+    </row>
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
@@ -7011,9 +7072,9 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="110"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="110"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7029,21 +7090,22 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="45"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="45"/>
-    </row>
-    <row r="7" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB6" s="45"/>
+    </row>
+    <row r="7" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
-      <c r="O7" s="45"/>
+      <c r="N7" s="27"/>
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
@@ -7056,8 +7118,9 @@
       <c r="Y7" s="45"/>
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
-    </row>
-    <row r="8" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
       <c r="D8" s="14" t="s">
@@ -7066,7 +7129,9 @@
       <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -7077,23 +7142,24 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="45"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="45"/>
-    </row>
-    <row r="9" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB8" s="45"/>
+    </row>
+    <row r="9" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="42"/>
       <c r="D9" s="100" t="s">
@@ -7102,7 +7168,9 @@
       <c r="E9" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="100" t="s">
+        <v>216</v>
+      </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="101"/>
@@ -7113,10 +7181,10 @@
       <c r="N9" s="101"/>
       <c r="O9" s="101"/>
       <c r="P9" s="101"/>
-      <c r="Q9" s="101">
-        <v>1</v>
-      </c>
-      <c r="R9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101">
+        <v>1</v>
+      </c>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
       <c r="U9" s="101"/>
@@ -7124,17 +7192,20 @@
       <c r="W9" s="101"/>
       <c r="X9" s="101"/>
       <c r="Y9" s="101"/>
-      <c r="Z9" s="45"/>
+      <c r="Z9" s="101"/>
       <c r="AA9" s="45"/>
-    </row>
-    <row r="10" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB9" s="45"/>
+    </row>
+    <row r="10" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -7145,23 +7216,24 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="45"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="45"/>
-    </row>
-    <row r="11" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="42"/>
       <c r="D11" s="100" t="s">
@@ -7170,7 +7242,9 @@
       <c r="E11" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="100" t="s">
+        <v>217</v>
+      </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="101"/>
@@ -7181,37 +7255,38 @@
       <c r="N11" s="101"/>
       <c r="O11" s="101"/>
       <c r="P11" s="101"/>
-      <c r="Q11" s="101">
-        <v>1</v>
-      </c>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101">
-        <v>1</v>
-      </c>
-      <c r="T11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101">
+        <v>1</v>
+      </c>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101">
+        <v>1</v>
+      </c>
       <c r="U11" s="101"/>
       <c r="V11" s="101"/>
       <c r="W11" s="101"/>
       <c r="X11" s="101"/>
       <c r="Y11" s="101"/>
-      <c r="Z11" s="45"/>
+      <c r="Z11" s="101"/>
       <c r="AA11" s="45"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB11" s="45"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12" s="10"/>
       <c r="D12" s="132"/>
       <c r="E12" s="133"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="132"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="132"/>
       <c r="L12" s="132"/>
       <c r="M12" s="132"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="132"/>
       <c r="Q12" s="132"/>
       <c r="R12" s="132"/>
@@ -7222,8 +7297,9 @@
       <c r="W12" s="132"/>
       <c r="X12" s="132"/>
       <c r="Y12" s="132"/>
-    </row>
-    <row r="13" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z12" s="132"/>
+    </row>
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
       <c r="B13" s="19"/>
       <c r="D13" s="46" t="s">
@@ -7232,9 +7308,9 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="110"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="110"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="110"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -7250,24 +7326,25 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="45"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="45"/>
-    </row>
-    <row r="14" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB13" s="45"/>
+    </row>
+    <row r="14" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="45"/>
       <c r="B14" s="30"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="45"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -7280,8 +7357,9 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
-    </row>
-    <row r="15" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB14" s="45"/>
+    </row>
+    <row r="15" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="27"/>
@@ -7291,70 +7369,53 @@
       <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
+      <c r="F15" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4">
         <v>1</v>
       </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4">
         <v>1</v>
       </c>
       <c r="S15" s="4">
         <v>1</v>
       </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
+      <c r="T15" s="4"/>
       <c r="U15" s="4">
         <v>1</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
       </c>
-      <c r="W15" s="4">
-        <v>1</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="45"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="45"/>
-    </row>
-    <row r="16" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB15" s="45"/>
+    </row>
+    <row r="16" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
@@ -7364,56 +7425,59 @@
       <c r="E16" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="101">
-        <v>1</v>
-      </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101">
-        <v>1</v>
-      </c>
+      <c r="F16" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="101">
+        <v>1</v>
+      </c>
+      <c r="H16" s="101"/>
       <c r="I16" s="101">
         <v>1</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101">
-        <v>1</v>
-      </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101">
-        <v>1</v>
-      </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101">
-        <v>1</v>
-      </c>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101">
-        <v>1</v>
-      </c>
+      <c r="J16" s="101">
+        <v>1</v>
+      </c>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101">
+        <v>1</v>
+      </c>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101">
+        <v>1</v>
+      </c>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="101"/>
       <c r="R16" s="101">
         <v>1</v>
       </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101">
-        <v>1</v>
-      </c>
+      <c r="S16" s="101">
+        <v>1</v>
+      </c>
+      <c r="T16" s="101"/>
       <c r="U16" s="101">
         <v>1</v>
       </c>
       <c r="V16" s="101">
         <v>1</v>
       </c>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101">
-        <v>1</v>
-      </c>
+      <c r="W16" s="101">
+        <v>1</v>
+      </c>
+      <c r="X16" s="101"/>
       <c r="Y16" s="101">
         <v>1</v>
       </c>
-      <c r="Z16" s="45"/>
+      <c r="Z16" s="101">
+        <v>1</v>
+      </c>
       <c r="AA16" s="45"/>
-    </row>
-    <row r="17" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB16" s="45"/>
+    </row>
+    <row r="17" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
       <c r="C17" s="27"/>
@@ -7421,8 +7485,8 @@
       <c r="E17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -7481,10 +7545,13 @@
       <c r="Y17" s="4">
         <v>1</v>
       </c>
-      <c r="Z17" s="45"/>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
       <c r="AA17" s="45"/>
-    </row>
-    <row r="18" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB17" s="45"/>
+    </row>
+    <row r="18" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
       <c r="C18" s="27"/>
@@ -7494,8 +7561,8 @@
       <c r="E18" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="101">
-        <v>1</v>
+      <c r="F18" s="100" t="s">
+        <v>218</v>
       </c>
       <c r="G18" s="101">
         <v>1</v>
@@ -7554,20 +7621,24 @@
       <c r="Y18" s="101">
         <v>1</v>
       </c>
-      <c r="Z18" s="45"/>
+      <c r="Z18" s="101">
+        <v>1</v>
+      </c>
       <c r="AA18" s="45"/>
-    </row>
-    <row r="19" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB18" s="45"/>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
       <c r="C19" s="10"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="45"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="45"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="D20" s="47" t="s">
         <v>104</v>
@@ -7575,9 +7646,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="111"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="111"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -7593,10 +7664,11 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="45"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="45"/>
-    </row>
-    <row r="21" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB20" s="45"/>
+    </row>
+    <row r="21" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
       <c r="C21" s="10"/>
       <c r="D21" s="27"/>
@@ -7604,11 +7676,11 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
-      <c r="P21" s="45"/>
+      <c r="O21" s="27"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -7620,8 +7692,9 @@
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
-    </row>
-    <row r="22" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB21" s="45"/>
+    </row>
+    <row r="22" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
@@ -7631,70 +7704,53 @@
       <c r="E22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
+      <c r="F22" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4">
         <v>1</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4">
         <v>1</v>
       </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="4"/>
       <c r="R22" s="4">
         <v>1</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="4">
-        <v>1</v>
-      </c>
+      <c r="T22" s="4"/>
       <c r="U22" s="4">
         <v>1</v>
       </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="4">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="45"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
       <c r="AA22" s="45"/>
-    </row>
-    <row r="23" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB22" s="45"/>
+    </row>
+    <row r="23" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
@@ -7704,56 +7760,59 @@
       <c r="E23" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="101">
-        <v>1</v>
-      </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101">
-        <v>1</v>
-      </c>
+      <c r="F23" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="101">
+        <v>1</v>
+      </c>
+      <c r="H23" s="101"/>
       <c r="I23" s="101">
         <v>1</v>
       </c>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101">
-        <v>1</v>
-      </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101">
-        <v>1</v>
-      </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101">
-        <v>1</v>
-      </c>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101">
-        <v>1</v>
-      </c>
+      <c r="J23" s="101">
+        <v>1</v>
+      </c>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101">
+        <v>1</v>
+      </c>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101">
+        <v>1</v>
+      </c>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="101"/>
       <c r="R23" s="101">
         <v>1</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101">
-        <v>1</v>
-      </c>
+      <c r="S23" s="101">
+        <v>1</v>
+      </c>
+      <c r="T23" s="101"/>
       <c r="U23" s="101">
         <v>1</v>
       </c>
       <c r="V23" s="101">
         <v>1</v>
       </c>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101">
-        <v>1</v>
-      </c>
+      <c r="W23" s="101">
+        <v>1</v>
+      </c>
+      <c r="X23" s="101"/>
       <c r="Y23" s="101">
         <v>1</v>
       </c>
-      <c r="Z23" s="45"/>
+      <c r="Z23" s="101">
+        <v>1</v>
+      </c>
       <c r="AA23" s="45"/>
-    </row>
-    <row r="24" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB23" s="45"/>
+    </row>
+    <row r="24" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="31"/>
       <c r="C24" s="27"/>
@@ -7761,8 +7820,8 @@
       <c r="E24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
+      <c r="F24" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -7821,10 +7880,13 @@
       <c r="Y24" s="4">
         <v>1</v>
       </c>
-      <c r="Z24" s="45"/>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
       <c r="AA24" s="45"/>
-    </row>
-    <row r="25" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB24" s="45"/>
+    </row>
+    <row r="25" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="31"/>
       <c r="C25" s="27"/>
@@ -7834,8 +7896,8 @@
       <c r="E25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="101">
-        <v>1</v>
+      <c r="F25" s="100" t="s">
+        <v>218</v>
       </c>
       <c r="G25" s="101">
         <v>1</v>
@@ -7894,24 +7956,28 @@
       <c r="Y25" s="101">
         <v>1</v>
       </c>
-      <c r="Z25" s="45"/>
+      <c r="Z25" s="101">
+        <v>1</v>
+      </c>
       <c r="AA25" s="45"/>
-    </row>
-    <row r="26" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB25" s="45"/>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="31"/>
       <c r="C26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="7"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="21"/>
       <c r="D27" s="46" t="s">
@@ -7920,9 +7986,9 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="110"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="110"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="110"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -7938,19 +8004,20 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="45"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="45"/>
-    </row>
-    <row r="28" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB27" s="45"/>
+    </row>
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="22"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="42"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -7966,10 +8033,11 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="45"/>
+      <c r="Z28" s="11"/>
       <c r="AA28" s="45"/>
-    </row>
-    <row r="29" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB28" s="45"/>
+    </row>
+    <row r="29" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21"/>
       <c r="D29" s="48" t="s">
         <v>105</v>
@@ -7977,9 +8045,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="111"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="111"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="111"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7995,24 +8063,25 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="45"/>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="45"/>
-    </row>
-    <row r="30" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB29" s="45"/>
+    </row>
+    <row r="30" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="45"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
@@ -8024,8 +8093,9 @@
       <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
-    </row>
-    <row r="31" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB30" s="45"/>
+    </row>
+    <row r="31" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27"/>
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
@@ -8035,50 +8105,53 @@
       <c r="E31" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="101">
-        <v>1</v>
-      </c>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101">
-        <v>1</v>
-      </c>
+      <c r="F31" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="101">
+        <v>1</v>
+      </c>
+      <c r="H31" s="101"/>
       <c r="I31" s="101">
         <v>1</v>
       </c>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101">
-        <v>1</v>
-      </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101">
-        <v>1</v>
-      </c>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101">
-        <v>1</v>
-      </c>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101">
-        <v>1</v>
-      </c>
+      <c r="J31" s="101">
+        <v>1</v>
+      </c>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101">
+        <v>1</v>
+      </c>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101">
+        <v>1</v>
+      </c>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="101"/>
       <c r="R31" s="101">
         <v>1</v>
       </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101">
-        <v>1</v>
-      </c>
+      <c r="S31" s="101">
+        <v>1</v>
+      </c>
+      <c r="T31" s="101"/>
       <c r="U31" s="101">
         <v>1</v>
       </c>
-      <c r="V31" s="101"/>
+      <c r="V31" s="101">
+        <v>1</v>
+      </c>
       <c r="W31" s="101"/>
       <c r="X31" s="101"/>
       <c r="Y31" s="101"/>
-      <c r="Z31" s="45"/>
+      <c r="Z31" s="101"/>
       <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB31" s="45"/>
+    </row>
+    <row r="32" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -8086,8 +8159,8 @@
       <c r="E32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
+      <c r="F32" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -8134,14 +8207,17 @@
       <c r="U32" s="4">
         <v>1</v>
       </c>
-      <c r="V32" s="4"/>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="45"/>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="45"/>
-    </row>
-    <row r="33" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB32" s="45"/>
+    </row>
+    <row r="33" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27"/>
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
@@ -8151,56 +8227,59 @@
       <c r="E33" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="101">
-        <v>1</v>
-      </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101">
-        <v>1</v>
-      </c>
+      <c r="F33" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" s="101">
+        <v>1</v>
+      </c>
+      <c r="H33" s="101"/>
       <c r="I33" s="101">
         <v>1</v>
       </c>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101">
-        <v>1</v>
-      </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101">
-        <v>1</v>
-      </c>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101">
-        <v>1</v>
-      </c>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101">
-        <v>1</v>
-      </c>
+      <c r="J33" s="101">
+        <v>1</v>
+      </c>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101">
+        <v>1</v>
+      </c>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101">
+        <v>1</v>
+      </c>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="101"/>
       <c r="R33" s="101">
         <v>1</v>
       </c>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101">
-        <v>1</v>
-      </c>
+      <c r="S33" s="101">
+        <v>1</v>
+      </c>
+      <c r="T33" s="101"/>
       <c r="U33" s="101">
         <v>1</v>
       </c>
       <c r="V33" s="101">
         <v>1</v>
       </c>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101">
-        <v>1</v>
-      </c>
+      <c r="W33" s="101">
+        <v>1</v>
+      </c>
+      <c r="X33" s="101"/>
       <c r="Y33" s="101">
         <v>1</v>
       </c>
-      <c r="Z33" s="45"/>
+      <c r="Z33" s="101">
+        <v>1</v>
+      </c>
       <c r="AA33" s="45"/>
-    </row>
-    <row r="34" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB33" s="45"/>
+    </row>
+    <row r="34" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="27"/>
       <c r="B34" s="32"/>
       <c r="C34" s="27"/>
@@ -8208,8 +8287,8 @@
       <c r="E34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="4">
-        <v>1</v>
+      <c r="F34" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -8268,10 +8347,13 @@
       <c r="Y34" s="4">
         <v>1</v>
       </c>
-      <c r="Z34" s="45"/>
+      <c r="Z34" s="4">
+        <v>1</v>
+      </c>
       <c r="AA34" s="45"/>
-    </row>
-    <row r="35" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB34" s="45"/>
+    </row>
+    <row r="35" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="27"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -8281,8 +8363,8 @@
       <c r="E35" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="101">
-        <v>1</v>
+      <c r="F35" s="99" t="s">
+        <v>218</v>
       </c>
       <c r="G35" s="101">
         <v>1</v>
@@ -8341,20 +8423,24 @@
       <c r="Y35" s="101">
         <v>1</v>
       </c>
-      <c r="Z35" s="45"/>
+      <c r="Z35" s="101">
+        <v>1</v>
+      </c>
       <c r="AA35" s="45"/>
-    </row>
-    <row r="36" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB35" s="45"/>
+    </row>
+    <row r="36" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="32"/>
       <c r="C36" s="2"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="45"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="8"/>
+      <c r="J36" s="45"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="D37" s="48" t="s">
         <v>106</v>
@@ -8362,9 +8448,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="111"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="111"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="111"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -8380,24 +8466,25 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="45"/>
+      <c r="Z37" s="1"/>
       <c r="AA37" s="45"/>
-    </row>
-    <row r="38" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB37" s="45"/>
+    </row>
+    <row r="38" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="45"/>
       <c r="B38" s="23"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="45"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="2"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
       <c r="R38" s="45"/>
@@ -8410,8 +8497,9 @@
       <c r="Y38" s="45"/>
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
-    </row>
-    <row r="39" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB38" s="45"/>
+    </row>
+    <row r="39" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27"/>
       <c r="B39" s="23"/>
       <c r="C39" s="27"/>
@@ -8421,50 +8509,53 @@
       <c r="E39" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="101">
-        <v>1</v>
-      </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101">
-        <v>1</v>
-      </c>
+      <c r="F39" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="101">
+        <v>1</v>
+      </c>
+      <c r="H39" s="101"/>
       <c r="I39" s="101">
         <v>1</v>
       </c>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101">
-        <v>1</v>
-      </c>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101">
-        <v>1</v>
-      </c>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101">
-        <v>1</v>
-      </c>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101">
-        <v>1</v>
-      </c>
+      <c r="J39" s="101">
+        <v>1</v>
+      </c>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101">
+        <v>1</v>
+      </c>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101">
+        <v>1</v>
+      </c>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="101"/>
       <c r="R39" s="101">
         <v>1</v>
       </c>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101">
-        <v>1</v>
-      </c>
+      <c r="S39" s="101">
+        <v>1</v>
+      </c>
+      <c r="T39" s="101"/>
       <c r="U39" s="101">
         <v>1</v>
       </c>
-      <c r="V39" s="101"/>
+      <c r="V39" s="101">
+        <v>1</v>
+      </c>
       <c r="W39" s="101"/>
       <c r="X39" s="101"/>
       <c r="Y39" s="101"/>
-      <c r="Z39" s="45"/>
+      <c r="Z39" s="101"/>
       <c r="AA39" s="45"/>
-    </row>
-    <row r="40" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB39" s="45"/>
+    </row>
+    <row r="40" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
       <c r="B40" s="23"/>
       <c r="C40" s="27"/>
@@ -8472,8 +8563,8 @@
       <c r="E40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="4">
-        <v>1</v>
+      <c r="F40" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -8520,14 +8611,17 @@
       <c r="U40" s="4">
         <v>1</v>
       </c>
-      <c r="V40" s="4"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="45"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="45"/>
-    </row>
-    <row r="41" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB40" s="45"/>
+    </row>
+    <row r="41" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27"/>
       <c r="B41" s="23"/>
       <c r="C41" s="27"/>
@@ -8537,56 +8631,59 @@
       <c r="E41" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="101">
-        <v>1</v>
-      </c>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101">
-        <v>1</v>
-      </c>
+      <c r="F41" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="101">
+        <v>1</v>
+      </c>
+      <c r="H41" s="101"/>
       <c r="I41" s="101">
         <v>1</v>
       </c>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101">
-        <v>1</v>
-      </c>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101">
-        <v>1</v>
-      </c>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101">
-        <v>1</v>
-      </c>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101">
-        <v>1</v>
-      </c>
+      <c r="J41" s="101">
+        <v>1</v>
+      </c>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101">
+        <v>1</v>
+      </c>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101">
+        <v>1</v>
+      </c>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="101"/>
       <c r="R41" s="101">
         <v>1</v>
       </c>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101">
-        <v>1</v>
-      </c>
+      <c r="S41" s="101">
+        <v>1</v>
+      </c>
+      <c r="T41" s="101"/>
       <c r="U41" s="101">
         <v>1</v>
       </c>
       <c r="V41" s="101">
         <v>1</v>
       </c>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101">
-        <v>1</v>
-      </c>
+      <c r="W41" s="101">
+        <v>1</v>
+      </c>
+      <c r="X41" s="101"/>
       <c r="Y41" s="101">
         <v>1</v>
       </c>
-      <c r="Z41" s="45"/>
+      <c r="Z41" s="101">
+        <v>1</v>
+      </c>
       <c r="AA41" s="45"/>
-    </row>
-    <row r="42" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB41" s="45"/>
+    </row>
+    <row r="42" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
       <c r="B42" s="23"/>
       <c r="C42" s="27"/>
@@ -8594,8 +8691,8 @@
       <c r="E42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
+      <c r="F42" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -8654,10 +8751,13 @@
       <c r="Y42" s="4">
         <v>1</v>
       </c>
-      <c r="Z42" s="45"/>
+      <c r="Z42" s="4">
+        <v>1</v>
+      </c>
       <c r="AA42" s="45"/>
-    </row>
-    <row r="43" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB42" s="45"/>
+    </row>
+    <row r="43" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27"/>
@@ -8667,8 +8767,8 @@
       <c r="E43" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="101">
-        <v>1</v>
+      <c r="F43" s="99" t="s">
+        <v>218</v>
       </c>
       <c r="G43" s="101">
         <v>1</v>
@@ -8727,16 +8827,19 @@
       <c r="Y43" s="101">
         <v>1</v>
       </c>
-      <c r="Z43" s="45"/>
+      <c r="Z43" s="101">
+        <v>1</v>
+      </c>
       <c r="AA43" s="45"/>
-    </row>
-    <row r="44" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB43" s="45"/>
+    </row>
+    <row r="44" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="27"/>
       <c r="B44" s="23"/>
       <c r="C44" s="27"/>
       <c r="D44" s="14"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -8756,15 +8859,15 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="45"/>
+      <c r="Z44" s="4"/>
       <c r="AA44" s="45"/>
-    </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB44" s="45"/>
+    </row>
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="C45" s="42"/>
-      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -8776,18 +8879,19 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="42"/>
+      <c r="T45" s="3"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42"/>
       <c r="W45" s="42"/>
       <c r="X45" s="42"/>
       <c r="Y45" s="42"/>
-      <c r="AA45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AB45" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="F31:Y35 F39:Y44 F15:Y18 F22:Y25 F8:Y11">
+  <conditionalFormatting sqref="G31:Z35 G39:Z44 G15:Z18 G22:Z25 G8:Z11">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8797,13 +8901,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:Y25 F31:Y35 F15:Y18 F39:Y44 F8:Y11" xr:uid="{26278E9C-21A9-4BC5-AB8C-1D03363B5971}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:Z25 G31:Z35 G15:Z18 G39:Z44 G8:Z11" xr:uid="{26278E9C-21A9-4BC5-AB8C-1D03363B5971}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -11559,7 +11663,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"页 &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -11573,7 +11677,7 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CK45"/>
+  <dimension ref="A1:CL45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -11586,18 +11690,30 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="2" customWidth="1"/>
-    <col min="6" max="19" width="11.6328125" style="10" customWidth="1"/>
-    <col min="20" max="25" width="11.6328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="0.81640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="2.6328125" style="42" customWidth="1"/>
-    <col min="28" max="83" width="9.1796875" style="45" hidden="1" customWidth="1"/>
-    <col min="84" max="89" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="90" max="16384" width="9.1796875" style="45" hidden="1"/>
+    <col min="5" max="6" width="11.6328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="10" customWidth="1"/>
+    <col min="13" max="14" width="11.6328125" style="10" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="10.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.6328125" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.6328125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.6328125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="0.81640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="2.6328125" style="42" customWidth="1"/>
+    <col min="29" max="84" width="9.1796875" style="45" hidden="1" customWidth="1"/>
+    <col min="85" max="90" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="91" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:28" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -11611,8 +11727,9 @@
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
@@ -11621,15 +11738,15 @@
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="112"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="112"/>
-      <c r="J2" s="59"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="45"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="45"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
@@ -11641,8 +11758,9 @@
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
-    </row>
-    <row r="3" spans="1:27" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB2" s="45"/>
+    </row>
+    <row r="3" spans="1:28" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
       <c r="B3" s="44"/>
       <c r="C3" s="42"/>
@@ -11668,10 +11786,11 @@
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="45"/>
+    </row>
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
@@ -11680,96 +11799,100 @@
       <c r="E4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="H4" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="134" t="s">
+      <c r="I4" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="J4" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="K4" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="134" t="s">
+      <c r="L4" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="M4" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="M4" s="134" t="s">
+      <c r="N4" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="N4" s="134" t="s">
+      <c r="O4" s="136" t="s">
         <v>209</v>
       </c>
-      <c r="O4" s="134" t="s">
+      <c r="P4" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="134" t="s">
+      <c r="Q4" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="R4" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="R4" s="134" t="s">
+      <c r="S4" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="134" t="s">
+      <c r="T4" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="T4" s="134" t="s">
+      <c r="U4" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="U4" s="134" t="s">
+      <c r="V4" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="134" t="s">
+      <c r="W4" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="W4" s="134" t="s">
+      <c r="X4" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="Y4" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="Y4" s="134" t="s">
+      <c r="Z4" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="Z4" s="44"/>
-    </row>
-    <row r="5" spans="1:27" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA4" s="44"/>
+    </row>
+    <row r="5" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44"/>
       <c r="C5" s="42"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="44"/>
-    </row>
-    <row r="6" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="44"/>
+    </row>
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="42"/>
       <c r="D6" s="50" t="s">
@@ -11778,9 +11901,9 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="114"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="114"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -11796,21 +11919,22 @@
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
       <c r="Y6" s="26"/>
-      <c r="Z6" s="45"/>
+      <c r="Z6" s="26"/>
       <c r="AA6" s="45"/>
-    </row>
-    <row r="7" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB6" s="45"/>
+    </row>
+    <row r="7" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
-      <c r="O7" s="45"/>
+      <c r="N7" s="27"/>
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
@@ -11823,8 +11947,9 @@
       <c r="Y7" s="45"/>
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
-    </row>
-    <row r="8" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
       <c r="D8" s="14" t="s">
@@ -11833,7 +11958,9 @@
       <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -11844,23 +11971,24 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="45"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="45"/>
-    </row>
-    <row r="9" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB8" s="45"/>
+    </row>
+    <row r="9" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="42"/>
       <c r="D9" s="100" t="s">
@@ -11869,7 +11997,9 @@
       <c r="E9" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="100" t="s">
+        <v>211</v>
+      </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="101"/>
@@ -11880,10 +12010,10 @@
       <c r="N9" s="101"/>
       <c r="O9" s="101"/>
       <c r="P9" s="101"/>
-      <c r="Q9" s="101">
-        <v>1</v>
-      </c>
-      <c r="R9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101">
+        <v>1</v>
+      </c>
       <c r="S9" s="101"/>
       <c r="T9" s="101"/>
       <c r="U9" s="101"/>
@@ -11891,17 +12021,20 @@
       <c r="W9" s="101"/>
       <c r="X9" s="101"/>
       <c r="Y9" s="101"/>
-      <c r="Z9" s="45"/>
+      <c r="Z9" s="101"/>
       <c r="AA9" s="45"/>
-    </row>
-    <row r="10" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB9" s="45"/>
+    </row>
+    <row r="10" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -11912,23 +12045,24 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="45"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="45"/>
-    </row>
-    <row r="11" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="42"/>
       <c r="D11" s="100" t="s">
@@ -11937,7 +12071,9 @@
       <c r="E11" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="100" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="101"/>
@@ -11948,33 +12084,35 @@
       <c r="N11" s="101"/>
       <c r="O11" s="101"/>
       <c r="P11" s="101"/>
-      <c r="Q11" s="101">
-        <v>1</v>
-      </c>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101">
-        <v>1</v>
-      </c>
-      <c r="T11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101">
+        <v>1</v>
+      </c>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101">
+        <v>1</v>
+      </c>
       <c r="U11" s="101"/>
       <c r="V11" s="101"/>
       <c r="W11" s="101"/>
       <c r="X11" s="101"/>
       <c r="Y11" s="101"/>
-      <c r="Z11" s="45"/>
+      <c r="Z11" s="101"/>
       <c r="AA11" s="45"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB11" s="45"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="45"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="45"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
       <c r="D13" s="50" t="s">
@@ -11983,9 +12121,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="114"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="114"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="114"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -12001,24 +12139,25 @@
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
-      <c r="Z13" s="45"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="45"/>
-    </row>
-    <row r="14" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB13" s="45"/>
+    </row>
+    <row r="14" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="45"/>
       <c r="B14" s="30"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="45"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -12031,8 +12170,9 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
-    </row>
-    <row r="15" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB14" s="45"/>
+    </row>
+    <row r="15" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="27"/>
@@ -12042,70 +12182,53 @@
       <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
+      <c r="F15" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4">
         <v>1</v>
       </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4">
         <v>1</v>
       </c>
       <c r="S15" s="4">
         <v>1</v>
       </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
+      <c r="T15" s="4"/>
       <c r="U15" s="4">
         <v>1</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
       </c>
-      <c r="W15" s="4">
-        <v>1</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="45"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="45"/>
-    </row>
-    <row r="16" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB15" s="45"/>
+    </row>
+    <row r="16" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
@@ -12115,56 +12238,59 @@
       <c r="E16" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="101">
-        <v>1</v>
-      </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101">
-        <v>1</v>
-      </c>
+      <c r="F16" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="101">
+        <v>1</v>
+      </c>
+      <c r="H16" s="101"/>
       <c r="I16" s="101">
         <v>1</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101">
-        <v>1</v>
-      </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101">
-        <v>1</v>
-      </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101">
-        <v>1</v>
-      </c>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101">
-        <v>1</v>
-      </c>
+      <c r="J16" s="101">
+        <v>1</v>
+      </c>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101">
+        <v>1</v>
+      </c>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101">
+        <v>1</v>
+      </c>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="101"/>
       <c r="R16" s="101">
         <v>1</v>
       </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101">
-        <v>1</v>
-      </c>
+      <c r="S16" s="101">
+        <v>1</v>
+      </c>
+      <c r="T16" s="101"/>
       <c r="U16" s="101">
         <v>1</v>
       </c>
       <c r="V16" s="101">
         <v>1</v>
       </c>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101">
-        <v>1</v>
-      </c>
+      <c r="W16" s="101">
+        <v>1</v>
+      </c>
+      <c r="X16" s="101"/>
       <c r="Y16" s="101">
         <v>1</v>
       </c>
-      <c r="Z16" s="45"/>
+      <c r="Z16" s="101">
+        <v>1</v>
+      </c>
       <c r="AA16" s="45"/>
-    </row>
-    <row r="17" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB16" s="45"/>
+    </row>
+    <row r="17" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
       <c r="C17" s="27"/>
@@ -12172,8 +12298,8 @@
       <c r="E17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -12232,10 +12358,13 @@
       <c r="Y17" s="4">
         <v>1</v>
       </c>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
       <c r="AA17" s="15"/>
-    </row>
-    <row r="18" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
       <c r="C18" s="27"/>
@@ -12245,8 +12374,8 @@
       <c r="E18" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="101">
-        <v>1</v>
+      <c r="F18" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="G18" s="101">
         <v>1</v>
@@ -12305,20 +12434,24 @@
       <c r="Y18" s="101">
         <v>1</v>
       </c>
-      <c r="Z18" s="45"/>
+      <c r="Z18" s="101">
+        <v>1</v>
+      </c>
       <c r="AA18" s="45"/>
-    </row>
-    <row r="19" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB18" s="45"/>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
       <c r="C19" s="10"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="45"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="45"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="D20" s="50" t="s">
@@ -12327,9 +12460,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="114"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="114"/>
-      <c r="J20" s="26"/>
+      <c r="J20" s="114"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -12345,10 +12478,11 @@
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
-      <c r="Z20" s="45"/>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="45"/>
-    </row>
-    <row r="21" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB20" s="45"/>
+    </row>
+    <row r="21" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
       <c r="C21" s="10"/>
       <c r="D21" s="27"/>
@@ -12356,11 +12490,11 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
-      <c r="P21" s="45"/>
+      <c r="O21" s="27"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -12372,8 +12506,9 @@
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
-    </row>
-    <row r="22" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB21" s="45"/>
+    </row>
+    <row r="22" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
@@ -12383,70 +12518,53 @@
       <c r="E22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
+      <c r="F22" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4">
         <v>1</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4">
         <v>1</v>
       </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="4"/>
       <c r="R22" s="4">
         <v>1</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="4">
-        <v>1</v>
-      </c>
+      <c r="T22" s="4"/>
       <c r="U22" s="4">
         <v>1</v>
       </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="4">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="45"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
       <c r="AA22" s="45"/>
-    </row>
-    <row r="23" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB22" s="45"/>
+    </row>
+    <row r="23" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
@@ -12456,56 +12574,59 @@
       <c r="E23" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="101">
-        <v>1</v>
-      </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101">
-        <v>1</v>
-      </c>
+      <c r="F23" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="101">
+        <v>1</v>
+      </c>
+      <c r="H23" s="101"/>
       <c r="I23" s="101">
         <v>1</v>
       </c>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101">
-        <v>1</v>
-      </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101">
-        <v>1</v>
-      </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101">
-        <v>1</v>
-      </c>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101">
-        <v>1</v>
-      </c>
+      <c r="J23" s="101">
+        <v>1</v>
+      </c>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101">
+        <v>1</v>
+      </c>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101">
+        <v>1</v>
+      </c>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="101"/>
       <c r="R23" s="101">
         <v>1</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101">
-        <v>1</v>
-      </c>
+      <c r="S23" s="101">
+        <v>1</v>
+      </c>
+      <c r="T23" s="101"/>
       <c r="U23" s="101">
         <v>1</v>
       </c>
       <c r="V23" s="101">
         <v>1</v>
       </c>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101">
-        <v>1</v>
-      </c>
+      <c r="W23" s="101">
+        <v>1</v>
+      </c>
+      <c r="X23" s="101"/>
       <c r="Y23" s="101">
         <v>1</v>
       </c>
-      <c r="Z23" s="45"/>
+      <c r="Z23" s="101">
+        <v>1</v>
+      </c>
       <c r="AA23" s="45"/>
-    </row>
-    <row r="24" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB23" s="45"/>
+    </row>
+    <row r="24" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="31"/>
       <c r="C24" s="27"/>
@@ -12513,8 +12634,8 @@
       <c r="E24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
+      <c r="F24" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -12573,10 +12694,13 @@
       <c r="Y24" s="4">
         <v>1</v>
       </c>
-      <c r="Z24" s="45"/>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
       <c r="AA24" s="45"/>
-    </row>
-    <row r="25" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB24" s="45"/>
+    </row>
+    <row r="25" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="31"/>
       <c r="C25" s="27"/>
@@ -12586,8 +12710,8 @@
       <c r="E25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="101">
-        <v>1</v>
+      <c r="F25" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="G25" s="101">
         <v>1</v>
@@ -12646,24 +12770,28 @@
       <c r="Y25" s="101">
         <v>1</v>
       </c>
-      <c r="Z25" s="45"/>
+      <c r="Z25" s="101">
+        <v>1</v>
+      </c>
       <c r="AA25" s="45"/>
-    </row>
-    <row r="26" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB25" s="45"/>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="31"/>
       <c r="C26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="7"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="32"/>
       <c r="C27" s="10"/>
@@ -12673,9 +12801,9 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="110"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="110"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="110"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -12691,20 +12819,21 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="45"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="45"/>
-    </row>
-    <row r="28" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB27" s="45"/>
+    </row>
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="22"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="42"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -12719,10 +12848,11 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="45"/>
+      <c r="Z28" s="11"/>
       <c r="AA28" s="45"/>
-    </row>
-    <row r="29" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB28" s="45"/>
+    </row>
+    <row r="29" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32"/>
       <c r="C29" s="10"/>
       <c r="D29" s="51" t="s">
@@ -12731,9 +12861,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="114"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="114"/>
-      <c r="J29" s="26"/>
+      <c r="J29" s="114"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
@@ -12749,24 +12879,25 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="45"/>
+      <c r="Z29" s="26"/>
       <c r="AA29" s="45"/>
-    </row>
-    <row r="30" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB29" s="45"/>
+    </row>
+    <row r="30" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="45"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
@@ -12778,8 +12909,9 @@
       <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
-    </row>
-    <row r="31" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB30" s="45"/>
+    </row>
+    <row r="31" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27"/>
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
@@ -12789,50 +12921,53 @@
       <c r="E31" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="101">
-        <v>1</v>
-      </c>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101">
-        <v>1</v>
-      </c>
+      <c r="F31" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="101">
+        <v>1</v>
+      </c>
+      <c r="H31" s="101"/>
       <c r="I31" s="101">
         <v>1</v>
       </c>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101">
-        <v>1</v>
-      </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101">
-        <v>1</v>
-      </c>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101">
-        <v>1</v>
-      </c>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101">
-        <v>1</v>
-      </c>
+      <c r="J31" s="101">
+        <v>1</v>
+      </c>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101">
+        <v>1</v>
+      </c>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101">
+        <v>1</v>
+      </c>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="101"/>
       <c r="R31" s="101">
         <v>1</v>
       </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101">
-        <v>1</v>
-      </c>
+      <c r="S31" s="101">
+        <v>1</v>
+      </c>
+      <c r="T31" s="101"/>
       <c r="U31" s="101">
         <v>1</v>
       </c>
-      <c r="V31" s="101"/>
+      <c r="V31" s="101">
+        <v>1</v>
+      </c>
       <c r="W31" s="101"/>
       <c r="X31" s="101"/>
       <c r="Y31" s="101"/>
-      <c r="Z31" s="45"/>
+      <c r="Z31" s="101"/>
       <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB31" s="45"/>
+    </row>
+    <row r="32" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -12840,8 +12975,8 @@
       <c r="E32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
+      <c r="F32" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -12888,14 +13023,17 @@
       <c r="U32" s="4">
         <v>1</v>
       </c>
-      <c r="V32" s="4"/>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="45"/>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="45"/>
-    </row>
-    <row r="33" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB32" s="45"/>
+    </row>
+    <row r="33" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27"/>
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
@@ -12905,56 +13043,59 @@
       <c r="E33" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="101">
-        <v>1</v>
-      </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101">
-        <v>1</v>
-      </c>
+      <c r="F33" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="101">
+        <v>1</v>
+      </c>
+      <c r="H33" s="101"/>
       <c r="I33" s="101">
         <v>1</v>
       </c>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101">
-        <v>1</v>
-      </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101">
-        <v>1</v>
-      </c>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101">
-        <v>1</v>
-      </c>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101">
-        <v>1</v>
-      </c>
+      <c r="J33" s="101">
+        <v>1</v>
+      </c>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101">
+        <v>1</v>
+      </c>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101">
+        <v>1</v>
+      </c>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="101"/>
       <c r="R33" s="101">
         <v>1</v>
       </c>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101">
-        <v>1</v>
-      </c>
+      <c r="S33" s="101">
+        <v>1</v>
+      </c>
+      <c r="T33" s="101"/>
       <c r="U33" s="101">
         <v>1</v>
       </c>
       <c r="V33" s="101">
         <v>1</v>
       </c>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101">
-        <v>1</v>
-      </c>
+      <c r="W33" s="101">
+        <v>1</v>
+      </c>
+      <c r="X33" s="101"/>
       <c r="Y33" s="101">
         <v>1</v>
       </c>
-      <c r="Z33" s="45"/>
+      <c r="Z33" s="101">
+        <v>1</v>
+      </c>
       <c r="AA33" s="45"/>
-    </row>
-    <row r="34" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB33" s="45"/>
+    </row>
+    <row r="34" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="27"/>
       <c r="B34" s="32"/>
       <c r="C34" s="27"/>
@@ -12962,8 +13103,8 @@
       <c r="E34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="4">
-        <v>1</v>
+      <c r="F34" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -13022,10 +13163,13 @@
       <c r="Y34" s="4">
         <v>1</v>
       </c>
-      <c r="Z34" s="45"/>
+      <c r="Z34" s="4">
+        <v>1</v>
+      </c>
       <c r="AA34" s="45"/>
-    </row>
-    <row r="35" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB34" s="45"/>
+    </row>
+    <row r="35" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="27"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -13035,8 +13179,8 @@
       <c r="E35" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="101">
-        <v>1</v>
+      <c r="F35" s="99" t="s">
+        <v>212</v>
       </c>
       <c r="G35" s="101">
         <v>1</v>
@@ -13095,20 +13239,24 @@
       <c r="Y35" s="101">
         <v>1</v>
       </c>
-      <c r="Z35" s="45"/>
+      <c r="Z35" s="101">
+        <v>1</v>
+      </c>
       <c r="AA35" s="45"/>
-    </row>
-    <row r="36" spans="1:27" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB35" s="45"/>
+    </row>
+    <row r="36" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="32"/>
       <c r="C36" s="2"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="45"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="8"/>
+      <c r="J36" s="45"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34"/>
       <c r="C37" s="10"/>
       <c r="D37" s="51" t="s">
@@ -13117,9 +13265,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
-      <c r="H37" s="114"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="114"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="114"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
@@ -13135,24 +13283,25 @@
       <c r="W37" s="26"/>
       <c r="X37" s="26"/>
       <c r="Y37" s="26"/>
-      <c r="Z37" s="45"/>
+      <c r="Z37" s="26"/>
       <c r="AA37" s="45"/>
-    </row>
-    <row r="38" spans="1:27" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB37" s="45"/>
+    </row>
+    <row r="38" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="45"/>
       <c r="B38" s="23"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="45"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="2"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
       <c r="R38" s="45"/>
@@ -13165,8 +13314,9 @@
       <c r="Y38" s="45"/>
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
-    </row>
-    <row r="39" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB38" s="45"/>
+    </row>
+    <row r="39" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27"/>
       <c r="B39" s="23"/>
       <c r="C39" s="27"/>
@@ -13176,50 +13326,53 @@
       <c r="E39" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="101">
-        <v>1</v>
-      </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101">
-        <v>1</v>
-      </c>
+      <c r="F39" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="101">
+        <v>1</v>
+      </c>
+      <c r="H39" s="101"/>
       <c r="I39" s="101">
         <v>1</v>
       </c>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101">
-        <v>1</v>
-      </c>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101">
-        <v>1</v>
-      </c>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101">
-        <v>1</v>
-      </c>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101">
-        <v>1</v>
-      </c>
+      <c r="J39" s="101">
+        <v>1</v>
+      </c>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101">
+        <v>1</v>
+      </c>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101">
+        <v>1</v>
+      </c>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="101"/>
       <c r="R39" s="101">
         <v>1</v>
       </c>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101">
-        <v>1</v>
-      </c>
+      <c r="S39" s="101">
+        <v>1</v>
+      </c>
+      <c r="T39" s="101"/>
       <c r="U39" s="101">
         <v>1</v>
       </c>
-      <c r="V39" s="101"/>
+      <c r="V39" s="101">
+        <v>1</v>
+      </c>
       <c r="W39" s="101"/>
       <c r="X39" s="101"/>
       <c r="Y39" s="101"/>
-      <c r="Z39" s="45"/>
+      <c r="Z39" s="101"/>
       <c r="AA39" s="45"/>
-    </row>
-    <row r="40" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB39" s="45"/>
+    </row>
+    <row r="40" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
       <c r="B40" s="23"/>
       <c r="C40" s="27"/>
@@ -13227,8 +13380,8 @@
       <c r="E40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="4">
-        <v>1</v>
+      <c r="F40" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -13275,14 +13428,17 @@
       <c r="U40" s="4">
         <v>1</v>
       </c>
-      <c r="V40" s="4"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="45"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="45"/>
-    </row>
-    <row r="41" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB40" s="45"/>
+    </row>
+    <row r="41" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27"/>
       <c r="B41" s="23"/>
       <c r="C41" s="27"/>
@@ -13292,56 +13448,59 @@
       <c r="E41" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="101">
-        <v>1</v>
-      </c>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101">
-        <v>1</v>
-      </c>
+      <c r="F41" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="101">
+        <v>1</v>
+      </c>
+      <c r="H41" s="101"/>
       <c r="I41" s="101">
         <v>1</v>
       </c>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101">
-        <v>1</v>
-      </c>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101">
-        <v>1</v>
-      </c>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101">
-        <v>1</v>
-      </c>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101">
-        <v>1</v>
-      </c>
+      <c r="J41" s="101">
+        <v>1</v>
+      </c>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101">
+        <v>1</v>
+      </c>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101">
+        <v>1</v>
+      </c>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="101"/>
       <c r="R41" s="101">
         <v>1</v>
       </c>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101">
-        <v>1</v>
-      </c>
+      <c r="S41" s="101">
+        <v>1</v>
+      </c>
+      <c r="T41" s="101"/>
       <c r="U41" s="101">
         <v>1</v>
       </c>
       <c r="V41" s="101">
         <v>1</v>
       </c>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101">
-        <v>1</v>
-      </c>
+      <c r="W41" s="101">
+        <v>1</v>
+      </c>
+      <c r="X41" s="101"/>
       <c r="Y41" s="101">
         <v>1</v>
       </c>
-      <c r="Z41" s="45"/>
+      <c r="Z41" s="101">
+        <v>1</v>
+      </c>
       <c r="AA41" s="45"/>
-    </row>
-    <row r="42" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB41" s="45"/>
+    </row>
+    <row r="42" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
       <c r="B42" s="23"/>
       <c r="C42" s="27"/>
@@ -13349,8 +13508,8 @@
       <c r="E42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
+      <c r="F42" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -13409,10 +13568,13 @@
       <c r="Y42" s="4">
         <v>1</v>
       </c>
-      <c r="Z42" s="45"/>
+      <c r="Z42" s="4">
+        <v>1</v>
+      </c>
       <c r="AA42" s="45"/>
-    </row>
-    <row r="43" spans="1:27" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB42" s="45"/>
+    </row>
+    <row r="43" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27"/>
@@ -13422,8 +13584,8 @@
       <c r="E43" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="101">
-        <v>1</v>
+      <c r="F43" s="99" t="s">
+        <v>212</v>
       </c>
       <c r="G43" s="101">
         <v>1</v>
@@ -13482,16 +13644,19 @@
       <c r="Y43" s="101">
         <v>1</v>
       </c>
-      <c r="Z43" s="45"/>
+      <c r="Z43" s="101">
+        <v>1</v>
+      </c>
       <c r="AA43" s="45"/>
-    </row>
-    <row r="44" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB43" s="45"/>
+    </row>
+    <row r="44" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="27"/>
       <c r="B44" s="23"/>
       <c r="C44" s="27"/>
       <c r="D44" s="100"/>
       <c r="E44" s="99"/>
-      <c r="F44" s="101"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="101"/>
       <c r="H44" s="101"/>
       <c r="I44" s="101"/>
@@ -13511,15 +13676,15 @@
       <c r="W44" s="101"/>
       <c r="X44" s="101"/>
       <c r="Y44" s="101"/>
-      <c r="Z44" s="45"/>
+      <c r="Z44" s="101"/>
       <c r="AA44" s="45"/>
-    </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB44" s="45"/>
+    </row>
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="C45" s="42"/>
-      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -13531,18 +13696,19 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="42"/>
+      <c r="T45" s="3"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42"/>
       <c r="W45" s="42"/>
       <c r="X45" s="42"/>
       <c r="Y45" s="42"/>
-      <c r="AA45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AB45" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="F8:Y11 F15:Y18 F22:Y25 F31:Y35 F39:Y44">
+  <conditionalFormatting sqref="G8:Z11 G15:Z18 G22:Z25 G31:Z35 G39:Z44">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -13552,13 +13718,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:Y11 F15:Y18 F22:Y25 F39:Y44 F31:Y35" xr:uid="{279AA12E-1668-4B71-BA43-0A2F724B785C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:Z11 G15:Z18 G22:Z25 G39:Z44 G31:Z35" xr:uid="{279AA12E-1668-4B71-BA43-0A2F724B785C}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"页 &amp;P | &amp;N</oddFooter>
   </headerFooter>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1907" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0B1364-2721-4945-BA0D-0E59BC20536E}"/>
+  <xr:revisionPtr revIDLastSave="2071" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2CE793-CC22-418C-90D6-124DE4313EC3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Image content'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">封装事件!$D$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">映像内容!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Encapsulated Events'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Image content'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">封装事件!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">映像内容!$1:$2</definedName>
     <definedName name="RowTitleRegion1..E2" localSheetId="0">'Encapsulated Events'!#REF!</definedName>
     <definedName name="RowTitleRegion1..E2" localSheetId="1">'Image content'!#REF!</definedName>
     <definedName name="RowTitleRegion1..E2" localSheetId="2">封装事件!#REF!</definedName>
@@ -54,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="226">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -797,21 +793,29 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">集成了 </t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>arm64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个已知语言，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">已知映像版本有 </t>
     </r>
     <r>
       <rPr>
@@ -820,15 +824,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>x64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随机生成的 </t>
     </r>
     <r>
       <rPr>
@@ -837,20 +846,23 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>x86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 架构</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">集成了 </t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位字符</t>
+    </r>
+  </si>
+  <si>
+    <t>1 月</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发行时间 </t>
     </r>
     <r>
       <rPr>
@@ -859,6 +871,28 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -867,151 +901,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 个已知语言，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">已知映像版本有 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 个，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">随机生成的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位字符</t>
-    </r>
-  </si>
-  <si>
-    <t>1 月</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发行时间 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integrated with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> known languages, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arm64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>x86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = architecture</t>
     </r>
   </si>
   <si>
@@ -2516,180 +2406,191 @@
     </r>
   </si>
   <si>
-    <t>2. Hone N</t>
-  </si>
-  <si>
-    <t>1. Home</t>
-  </si>
-  <si>
-    <t>3. Home Single Language</t>
-  </si>
-  <si>
-    <t>4. Education</t>
-  </si>
-  <si>
-    <t>5. Education N</t>
-  </si>
-  <si>
-    <t>6. Pro</t>
-  </si>
-  <si>
-    <t>7. Pro N</t>
-  </si>
-  <si>
-    <t>8. Pro Education</t>
-  </si>
-  <si>
-    <t>9. Pro Education N</t>
-  </si>
-  <si>
-    <t>10. Pro for Workstations</t>
-  </si>
-  <si>
-    <t>11. Pro N for Workstations</t>
-  </si>
-  <si>
-    <t>12. Enterprise</t>
-  </si>
-  <si>
-    <t>13. Enterprise multi-session</t>
-  </si>
-  <si>
-    <t>14. Enterprise N</t>
-  </si>
-  <si>
-    <t>15. IoT Enterprise</t>
-  </si>
-  <si>
-    <t>16. IoT Enterprise Subscription</t>
-  </si>
-  <si>
-    <t>17. Enterprise LTSC</t>
-  </si>
-  <si>
-    <t>18. Enterprise N LTSC</t>
-  </si>
-  <si>
-    <t>19. IoT Enterprise LTSC</t>
-  </si>
-  <si>
-    <t>20. IoT Enterprise Subscription LTSC</t>
-  </si>
-  <si>
-    <t>1. 家庭版</t>
-  </si>
-  <si>
-    <t>3. 家庭
-单语言版</t>
-  </si>
-  <si>
-    <t>4. 教育版</t>
-  </si>
-  <si>
-    <t>6. 专业版</t>
-  </si>
-  <si>
-    <t>10. 专业
-工作站版</t>
-  </si>
-  <si>
-    <t>12. 企业版</t>
-  </si>
-  <si>
-    <t>14. 企业版 N</t>
-  </si>
-  <si>
-    <t>15. IoT 企业版</t>
-  </si>
-  <si>
-    <t>16. IoT 企业版
+    <t>2 项</t>
+  </si>
+  <si>
+    <t>1 项</t>
+  </si>
+  <si>
+    <t>20 项</t>
+  </si>
+  <si>
+    <t>13 项</t>
+  </si>
+  <si>
+    <t>10 项</t>
+  </si>
+  <si>
+    <t>16 项</t>
+  </si>
+  <si>
+    <t>1 item</t>
+  </si>
+  <si>
+    <t>2 item</t>
+  </si>
+  <si>
+    <t>20 item</t>
+  </si>
+  <si>
+    <t>13 item</t>
+  </si>
+  <si>
+    <t>10 item</t>
+  </si>
+  <si>
+    <t>16 item</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>arm64</t>
+  </si>
+  <si>
+    <t>arm64, x64, x86 = architecture</t>
+  </si>
+  <si>
+    <t>arm64, x64, x86 = 架构</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 家庭版</t>
+  </si>
+  <si>
+    <t>家庭单语言版</t>
+  </si>
+  <si>
+    <t>教育版</t>
+  </si>
+  <si>
+    <t>教育版 
+N</t>
+  </si>
+  <si>
+    <t>专业版</t>
+  </si>
+  <si>
+    <t>专业版 
+N</t>
+  </si>
+  <si>
+    <t>专业
+教育版</t>
+  </si>
+  <si>
+    <t>专业
+工作站版 N</t>
+  </si>
+  <si>
+    <t>企业版</t>
+  </si>
+  <si>
+    <t>企业
+多会话</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IoT 企业版</t>
+  </si>
+  <si>
+    <t>IoT 企业版
 订阅</t>
   </si>
   <si>
-    <t>17. 企业版 LTSC</t>
-  </si>
-  <si>
-    <t>18. 企业版  
+    <t>企业版 LTSC</t>
+  </si>
+  <si>
+    <t>企业版  
 N LTSC</t>
   </si>
   <si>
-    <t>19. IoT 企业版</t>
-  </si>
-  <si>
-    <t>20. IoT 企业版
-订阅</t>
-  </si>
-  <si>
-    <t>13. 企业
-多会话</t>
-  </si>
-  <si>
-    <t>8. 专业
-教育版</t>
-  </si>
-  <si>
-    <t>2. 家庭版 
+    <t>IoT 企业版</t>
+  </si>
+  <si>
+    <t>家庭版 
 N</t>
   </si>
   <si>
-    <t>5. 教育版 
-N</t>
-  </si>
-  <si>
-    <t>7. 专业版 
-N</t>
-  </si>
-  <si>
-    <t>9. 专业
+    <t>专业
 教育版 
 N</t>
   </si>
   <si>
-    <t>2 项</t>
-  </si>
-  <si>
-    <t>1 项</t>
-  </si>
-  <si>
-    <t>20 项</t>
-  </si>
-  <si>
-    <t>13 项</t>
-  </si>
-  <si>
-    <t>10 项</t>
-  </si>
-  <si>
-    <t>16 项</t>
-  </si>
-  <si>
-    <t>1 item</t>
-  </si>
-  <si>
-    <t>2 item</t>
-  </si>
-  <si>
-    <t>20 item</t>
-  </si>
-  <si>
-    <t>13 item</t>
-  </si>
-  <si>
-    <t>10 item</t>
-  </si>
-  <si>
-    <t>16 item</t>
-  </si>
-  <si>
-    <t>11. 专业
-工作站版 N</t>
-  </si>
-  <si>
-    <t>映像
-内容有</t>
-  </si>
-  <si>
-    <t>The image content includes</t>
+    <t>专业
+工作站版</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Hone N</t>
+  </si>
+  <si>
+    <t>Home Single Language</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education N</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Pro N</t>
+  </si>
+  <si>
+    <t>Pro Education</t>
+  </si>
+  <si>
+    <t>Pro for Workstations</t>
+  </si>
+  <si>
+    <t>Pro N for Workstations</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Enterprise multi-session</t>
+  </si>
+  <si>
+    <t>IoT Enterprise</t>
+  </si>
+  <si>
+    <t>IoT Enterprise Subscription</t>
+  </si>
+  <si>
+    <t>Enterprise LTSC</t>
+  </si>
+  <si>
+    <t>Enterprise N LTSC</t>
+  </si>
+  <si>
+    <t>IoT Enterprise LTSC</t>
+  </si>
+  <si>
+    <t>IoT Enterprise Subscription LTSC</t>
+  </si>
+  <si>
+    <t>Pro Education
+N</t>
+  </si>
+  <si>
+    <t>企业版 
+N</t>
+  </si>
+  <si>
+    <t>Enterprise
+N</t>
+  </si>
+  <si>
+    <t>Windows version
+/ Includes</t>
+  </si>
+  <si>
+    <t>Windows 版本
+/ 包含</t>
   </si>
 </sst>
 </file>
@@ -2945,7 +2846,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3048,6 +2949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3588,8 +3495,8 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4533,7 +4440,8 @@
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="24.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
@@ -4591,22 +4499,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4618,7 +4526,7 @@
         <v>60</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -4668,10 +4576,10 @@
     <row r="8" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4680,10 +4588,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4699,22 +4607,22 @@
     <row r="9" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="D9" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="101">
         <v>1</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H9" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -4731,7 +4639,7 @@
       <c r="B10" s="17"/>
       <c r="D10" s="14"/>
       <c r="E10" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -4740,10 +4648,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -4759,10 +4667,10 @@
     <row r="11" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="D11" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" s="101">
         <v>1</v>
@@ -4771,10 +4679,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I11" s="101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="101">
         <v>1</v>
@@ -4801,7 +4709,7 @@
       <c r="A13" s="45"/>
       <c r="B13" s="19"/>
       <c r="D13" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -4833,10 +4741,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -4845,10 +4753,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -4866,22 +4774,22 @@
       <c r="B16" s="18"/>
       <c r="C16" s="2"/>
       <c r="D16" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="101">
         <v>1</v>
       </c>
       <c r="G16" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H16" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="101">
         <v>1</v>
@@ -4900,7 +4808,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -4909,10 +4817,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -4929,10 +4837,10 @@
     <row r="18" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
       <c r="D18" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="101">
         <v>1</v>
@@ -4941,10 +4849,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I18" s="101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J18" s="101">
         <v>1</v>
@@ -4970,7 +4878,7 @@
     <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="D20" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5000,10 +4908,10 @@
     <row r="22" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20"/>
       <c r="D22" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -5012,10 +4920,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -5031,22 +4939,22 @@
     <row r="23" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="D23" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="101">
         <v>1</v>
       </c>
       <c r="G23" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H23" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J23" s="101">
         <v>1</v>
@@ -5063,7 +4971,7 @@
       <c r="B24" s="20"/>
       <c r="D24" s="14"/>
       <c r="E24" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -5072,10 +4980,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -5091,10 +4999,10 @@
     <row r="25" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20"/>
       <c r="D25" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="101">
         <v>1</v>
@@ -5103,10 +5011,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J25" s="101">
         <v>1</v>
@@ -5133,7 +5041,7 @@
       <c r="A27" s="45"/>
       <c r="B27" s="21"/>
       <c r="D27" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -5164,7 +5072,7 @@
     <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21"/>
       <c r="D29" s="48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -5194,22 +5102,22 @@
     <row r="31" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="21"/>
       <c r="D31" s="100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F31" s="101">
         <v>1</v>
       </c>
       <c r="G31" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H31" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J31" s="101">
         <v>1</v>
@@ -5226,7 +5134,7 @@
       <c r="B32" s="21"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -5235,10 +5143,10 @@
         <v>13</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
@@ -5254,22 +5162,22 @@
     <row r="33" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="21"/>
       <c r="D33" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33" s="101">
         <v>1</v>
       </c>
       <c r="G33" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H33" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I33" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J33" s="101">
         <v>1</v>
@@ -5286,7 +5194,7 @@
       <c r="B34" s="21"/>
       <c r="D34" s="14"/>
       <c r="E34" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -5295,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -5314,10 +5222,10 @@
     <row r="35" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="21"/>
       <c r="D35" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="101">
         <v>1</v>
@@ -5326,10 +5234,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I35" s="101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J35" s="101">
         <v>1</v>
@@ -5356,7 +5264,7 @@
     <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="D37" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5387,22 +5295,22 @@
     <row r="39" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="23"/>
       <c r="D39" s="100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F39" s="101">
         <v>1</v>
       </c>
       <c r="G39" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H39" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J39" s="101">
         <v>1</v>
@@ -5419,7 +5327,7 @@
       <c r="B40" s="23"/>
       <c r="D40" s="14"/>
       <c r="E40" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -5428,10 +5336,10 @@
         <v>13</v>
       </c>
       <c r="H40" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -5447,22 +5355,22 @@
     <row r="41" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="23"/>
       <c r="D41" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" s="98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F41" s="101">
         <v>1</v>
       </c>
       <c r="G41" s="101" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H41" s="121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J41" s="101">
         <v>1</v>
@@ -5479,7 +5387,7 @@
       <c r="B42" s="23"/>
       <c r="D42" s="14"/>
       <c r="E42" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -5488,10 +5396,10 @@
         <v>13</v>
       </c>
       <c r="H42" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -5508,10 +5416,10 @@
       <c r="A43" s="45"/>
       <c r="B43" s="23"/>
       <c r="D43" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43" s="101">
         <v>1</v>
@@ -5520,10 +5428,10 @@
         <v>13</v>
       </c>
       <c r="H43" s="121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J43" s="101">
         <v>1</v>
@@ -5652,7 +5560,7 @@
       <c r="B51" s="57"/>
       <c r="C51" s="42"/>
       <c r="D51" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
@@ -5666,7 +5574,7 @@
       <c r="B52" s="57"/>
       <c r="C52" s="42"/>
       <c r="D52" s="53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
@@ -5680,7 +5588,7 @@
       <c r="B53" s="57"/>
       <c r="C53" s="42"/>
       <c r="D53" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
@@ -5694,7 +5602,7 @@
       <c r="B54" s="57"/>
       <c r="C54" s="42"/>
       <c r="D54" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
@@ -5788,7 +5696,7 @@
     <row r="61" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="85"/>
       <c r="D61" s="80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
@@ -5851,7 +5759,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="83" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="F66" s="83"/>
     </row>
@@ -5861,7 +5769,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" s="83"/>
     </row>
@@ -5871,7 +5779,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="83"/>
     </row>
@@ -5881,14 +5789,14 @@
         <v>68</v>
       </c>
       <c r="E69" s="83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="83"/>
     </row>
     <row r="70" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="85"/>
       <c r="D70" s="88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E70" s="83">
         <v>1</v>
@@ -5901,7 +5809,7 @@
         <v>2026</v>
       </c>
       <c r="E71" s="83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="83"/>
     </row>
@@ -5910,7 +5818,7 @@
       <c r="B72" s="86"/>
       <c r="C72" s="78"/>
       <c r="D72" s="89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E72" s="87" t="s">
         <v>71</v>
@@ -5979,10 +5887,10 @@
     <row r="73" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="85"/>
       <c r="D73" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" s="91"/>
     </row>
@@ -6187,7 +6095,7 @@
       <c r="B88" s="24"/>
       <c r="C88" s="42"/>
       <c r="D88" s="129" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -6203,7 +6111,7 @@
       <c r="B89" s="24"/>
       <c r="C89" s="42"/>
       <c r="D89" s="143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E89" s="143"/>
       <c r="F89" s="143"/>
@@ -6219,7 +6127,7 @@
       <c r="B90" s="24"/>
       <c r="C90" s="42"/>
       <c r="D90" s="128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -6250,7 +6158,7 @@
       <c r="B92" s="77"/>
       <c r="C92" s="76"/>
       <c r="D92" s="93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E92" s="76"/>
       <c r="F92" s="76"/>
@@ -6319,7 +6227,7 @@
       <c r="B93" s="77"/>
       <c r="C93" s="76"/>
       <c r="D93" s="93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E93" s="76"/>
       <c r="F93" s="76"/>
@@ -6387,7 +6295,7 @@
       <c r="B94" s="24"/>
       <c r="C94" s="42"/>
       <c r="D94" s="138" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E94" s="138"/>
       <c r="F94" s="138"/>
@@ -6835,7 +6743,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="8" scale="53" fitToHeight="0" orientation="portrait" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -6849,11 +6757,11 @@
     <tabColor rgb="FF22798E"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CL45"/>
+  <dimension ref="A1:CL44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -6862,22 +6770,20 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="11.6328125" style="10" customWidth="1"/>
-    <col min="15" max="16" width="12.6328125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="10" customWidth="1"/>
+    <col min="9" max="11" width="12.6328125" style="10" customWidth="1"/>
+    <col min="12" max="13" width="10.6328125" style="10" customWidth="1"/>
+    <col min="14" max="15" width="12.6328125" style="10" customWidth="1"/>
+    <col min="16" max="17" width="15.6328125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6328125" style="10" customWidth="1"/>
     <col min="21" max="21" width="10.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.6328125" style="2" customWidth="1"/>
-    <col min="23" max="25" width="10.6328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.6328125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="12.6328125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="14.6328125" style="2" customWidth="1"/>
     <col min="27" max="27" width="0.81640625" style="2" customWidth="1"/>
     <col min="28" max="28" width="2.6328125" style="42" customWidth="1"/>
     <col min="29" max="84" width="9.1796875" style="45" hidden="1" customWidth="1"/>
@@ -6905,7 +6811,7 @@
       <c r="B2" s="130"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -6932,430 +6838,457 @@
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
     </row>
-    <row r="3" spans="1:28" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="130"/>
+    <row r="3" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="44"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
+      <c r="D3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="O3" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q3" s="136" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="136" t="s">
+        <v>214</v>
+      </c>
+      <c r="T3" s="136" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="V3" s="136" t="s">
+        <v>216</v>
+      </c>
+      <c r="W3" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="X3" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y3" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z3" s="136" t="s">
+        <v>220</v>
+      </c>
       <c r="AA3" s="44"/>
-      <c r="AB3" s="45"/>
-    </row>
-    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="136" t="s">
-        <v>178</v>
-      </c>
-      <c r="O4" s="136" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="136" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="136" t="s">
-        <v>181</v>
-      </c>
-      <c r="R4" s="136" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="136" t="s">
-        <v>183</v>
-      </c>
-      <c r="T4" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="U4" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="V4" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="W4" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y4" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z4" s="136" t="s">
-        <v>190</v>
-      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
       <c r="AA4" s="44"/>
     </row>
-    <row r="5" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="44"/>
-    </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
+      <c r="D5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+    </row>
+    <row r="6" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
     </row>
-    <row r="7" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="45"/>
       <c r="AB7" s="45"/>
     </row>
     <row r="8" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="D8" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101">
+        <v>1</v>
+      </c>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
       <c r="AA8" s="45"/>
       <c r="AB8" s="45"/>
     </row>
     <row r="9" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101">
-        <v>1</v>
-      </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="45"/>
     </row>
     <row r="10" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="F10" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101">
+        <v>1</v>
+      </c>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101">
+        <v>1</v>
+      </c>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
       <c r="AA10" s="45"/>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101">
-        <v>1</v>
-      </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101">
-        <v>1</v>
-      </c>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-    </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="10"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+    </row>
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="19"/>
+      <c r="D12" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+    </row>
+    <row r="13" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
-      <c r="B13" s="19"/>
-      <c r="D13" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="B13" s="30"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
     </row>
-    <row r="14" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
       <c r="B14" s="30"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="45"/>
       <c r="AB14" s="45"/>
     </row>
@@ -7363,55 +7296,61 @@
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <v>1</v>
-      </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="D15" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="101">
+        <v>1</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101">
+        <v>1</v>
+      </c>
+      <c r="J15" s="101">
+        <v>1</v>
+      </c>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101">
+        <v>1</v>
+      </c>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101">
+        <v>1</v>
+      </c>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101">
+        <v>1</v>
+      </c>
+      <c r="S15" s="101">
+        <v>1</v>
+      </c>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101">
+        <v>1</v>
+      </c>
+      <c r="V15" s="101">
+        <v>1</v>
+      </c>
+      <c r="W15" s="101">
+        <v>1</v>
+      </c>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="101">
+        <v>1</v>
+      </c>
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
     </row>
@@ -7419,59 +7358,71 @@
       <c r="A16" s="27"/>
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="101">
-        <v>1</v>
-      </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101">
-        <v>1</v>
-      </c>
-      <c r="J16" s="101">
-        <v>1</v>
-      </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101">
-        <v>1</v>
-      </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101">
-        <v>1</v>
-      </c>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101">
-        <v>1</v>
-      </c>
-      <c r="S16" s="101">
-        <v>1</v>
-      </c>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101">
-        <v>1</v>
-      </c>
-      <c r="V16" s="101">
-        <v>1</v>
-      </c>
-      <c r="W16" s="101">
-        <v>1</v>
-      </c>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="101">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
         <v>1</v>
       </c>
       <c r="AA16" s="45"/>
@@ -7481,216 +7432,198 @@
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <v>1</v>
-      </c>
-      <c r="X17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="F17" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="101">
+        <v>1</v>
+      </c>
+      <c r="H17" s="101">
+        <v>1</v>
+      </c>
+      <c r="I17" s="101">
+        <v>1</v>
+      </c>
+      <c r="J17" s="101">
+        <v>1</v>
+      </c>
+      <c r="K17" s="101">
+        <v>1</v>
+      </c>
+      <c r="L17" s="101">
+        <v>1</v>
+      </c>
+      <c r="M17" s="101">
+        <v>1</v>
+      </c>
+      <c r="N17" s="101">
+        <v>1</v>
+      </c>
+      <c r="O17" s="101">
+        <v>1</v>
+      </c>
+      <c r="P17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>1</v>
+      </c>
+      <c r="R17" s="101">
+        <v>1</v>
+      </c>
+      <c r="S17" s="101">
+        <v>1</v>
+      </c>
+      <c r="T17" s="101">
+        <v>1</v>
+      </c>
+      <c r="U17" s="101">
+        <v>1</v>
+      </c>
+      <c r="V17" s="101">
+        <v>1</v>
+      </c>
+      <c r="W17" s="101">
+        <v>1</v>
+      </c>
+      <c r="X17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="101">
         <v>1</v>
       </c>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
     </row>
-    <row r="18" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="101">
-        <v>1</v>
-      </c>
-      <c r="H18" s="101">
-        <v>1</v>
-      </c>
-      <c r="I18" s="101">
-        <v>1</v>
-      </c>
-      <c r="J18" s="101">
-        <v>1</v>
-      </c>
-      <c r="K18" s="101">
-        <v>1</v>
-      </c>
-      <c r="L18" s="101">
-        <v>1</v>
-      </c>
-      <c r="M18" s="101">
-        <v>1</v>
-      </c>
-      <c r="N18" s="101">
-        <v>1</v>
-      </c>
-      <c r="O18" s="101">
-        <v>1</v>
-      </c>
-      <c r="P18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="101">
-        <v>1</v>
-      </c>
-      <c r="R18" s="101">
-        <v>1</v>
-      </c>
-      <c r="S18" s="101">
-        <v>1</v>
-      </c>
-      <c r="T18" s="101">
-        <v>1</v>
-      </c>
-      <c r="U18" s="101">
-        <v>1</v>
-      </c>
-      <c r="V18" s="101">
-        <v>1</v>
-      </c>
-      <c r="W18" s="101">
-        <v>1</v>
-      </c>
-      <c r="X18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="45"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="20"/>
-      <c r="D20" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="45"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="D19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+    </row>
+    <row r="20" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
     </row>
-    <row r="21" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
     </row>
@@ -7698,55 +7631,61 @@
       <c r="A22" s="27"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="D22" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="101">
+        <v>1</v>
+      </c>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101">
+        <v>1</v>
+      </c>
+      <c r="J22" s="101">
+        <v>1</v>
+      </c>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101">
+        <v>1</v>
+      </c>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101">
+        <v>1</v>
+      </c>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101">
+        <v>1</v>
+      </c>
+      <c r="S22" s="101">
+        <v>1</v>
+      </c>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101">
+        <v>1</v>
+      </c>
+      <c r="V22" s="101">
+        <v>1</v>
+      </c>
+      <c r="W22" s="101">
+        <v>1</v>
+      </c>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>1</v>
+      </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
     </row>
@@ -7754,59 +7693,71 @@
       <c r="A23" s="27"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="101">
-        <v>1</v>
-      </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101">
-        <v>1</v>
-      </c>
-      <c r="J23" s="101">
-        <v>1</v>
-      </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101">
-        <v>1</v>
-      </c>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101">
-        <v>1</v>
-      </c>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101">
-        <v>1</v>
-      </c>
-      <c r="S23" s="101">
-        <v>1</v>
-      </c>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101">
-        <v>1</v>
-      </c>
-      <c r="V23" s="101">
-        <v>1</v>
-      </c>
-      <c r="W23" s="101">
-        <v>1</v>
-      </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="101">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
         <v>1</v>
       </c>
       <c r="AA23" s="45"/>
@@ -7816,282 +7767,264 @@
       <c r="A24" s="27"/>
       <c r="B24" s="31"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
-        <v>1</v>
-      </c>
-      <c r="V24" s="4">
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="4">
+      <c r="F24" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="101">
+        <v>1</v>
+      </c>
+      <c r="H24" s="101">
+        <v>1</v>
+      </c>
+      <c r="I24" s="101">
+        <v>1</v>
+      </c>
+      <c r="J24" s="101">
+        <v>1</v>
+      </c>
+      <c r="K24" s="101">
+        <v>1</v>
+      </c>
+      <c r="L24" s="101">
+        <v>1</v>
+      </c>
+      <c r="M24" s="101">
+        <v>1</v>
+      </c>
+      <c r="N24" s="101">
+        <v>1</v>
+      </c>
+      <c r="O24" s="101">
+        <v>1</v>
+      </c>
+      <c r="P24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="101">
+        <v>1</v>
+      </c>
+      <c r="R24" s="101">
+        <v>1</v>
+      </c>
+      <c r="S24" s="101">
+        <v>1</v>
+      </c>
+      <c r="T24" s="101">
+        <v>1</v>
+      </c>
+      <c r="U24" s="101">
+        <v>1</v>
+      </c>
+      <c r="V24" s="101">
+        <v>1</v>
+      </c>
+      <c r="W24" s="101">
+        <v>1</v>
+      </c>
+      <c r="X24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="101">
         <v>1</v>
       </c>
       <c r="AA24" s="45"/>
       <c r="AB24" s="45"/>
     </row>
-    <row r="25" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="101">
-        <v>1</v>
-      </c>
-      <c r="H25" s="101">
-        <v>1</v>
-      </c>
-      <c r="I25" s="101">
-        <v>1</v>
-      </c>
-      <c r="J25" s="101">
-        <v>1</v>
-      </c>
-      <c r="K25" s="101">
-        <v>1</v>
-      </c>
-      <c r="L25" s="101">
-        <v>1</v>
-      </c>
-      <c r="M25" s="101">
-        <v>1</v>
-      </c>
-      <c r="N25" s="101">
-        <v>1</v>
-      </c>
-      <c r="O25" s="101">
-        <v>1</v>
-      </c>
-      <c r="P25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="101">
-        <v>1</v>
-      </c>
-      <c r="R25" s="101">
-        <v>1</v>
-      </c>
-      <c r="S25" s="101">
-        <v>1</v>
-      </c>
-      <c r="T25" s="101">
-        <v>1</v>
-      </c>
-      <c r="U25" s="101">
-        <v>1</v>
-      </c>
-      <c r="V25" s="101">
-        <v>1</v>
-      </c>
-      <c r="W25" s="101">
-        <v>1</v>
-      </c>
-      <c r="X25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="31"/>
-      <c r="C26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="45"/>
+      <c r="B26" s="21"/>
+      <c r="D26" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+    </row>
+    <row r="27" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
-      <c r="B27" s="21"/>
-      <c r="D27" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+    <row r="28" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="D28" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
     </row>
-    <row r="29" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21"/>
-      <c r="D29" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="32"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
       <c r="B30" s="32"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="101">
+        <v>1</v>
+      </c>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101">
+        <v>1</v>
+      </c>
+      <c r="J30" s="101">
+        <v>1</v>
+      </c>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101">
+        <v>1</v>
+      </c>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101">
+        <v>1</v>
+      </c>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101">
+        <v>1</v>
+      </c>
+      <c r="S30" s="101">
+        <v>1</v>
+      </c>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101">
+        <v>1</v>
+      </c>
+      <c r="V30" s="101">
+        <v>1</v>
+      </c>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="45"/>
     </row>
@@ -8099,55 +8032,65 @@
       <c r="A31" s="27"/>
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="101">
-        <v>1</v>
-      </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101">
-        <v>1</v>
-      </c>
-      <c r="J31" s="101">
-        <v>1</v>
-      </c>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101">
-        <v>1</v>
-      </c>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101">
-        <v>1</v>
-      </c>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101">
-        <v>1</v>
-      </c>
-      <c r="S31" s="101">
-        <v>1</v>
-      </c>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101">
-        <v>1</v>
-      </c>
-      <c r="V31" s="101">
-        <v>1</v>
-      </c>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="45"/>
       <c r="AB31" s="45"/>
     </row>
@@ -8155,65 +8098,61 @@
       <c r="A32" s="27"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <v>1</v>
-      </c>
-      <c r="U32" s="4">
-        <v>1</v>
-      </c>
-      <c r="V32" s="4">
-        <v>1</v>
-      </c>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="D32" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="101">
+        <v>1</v>
+      </c>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101">
+        <v>1</v>
+      </c>
+      <c r="J32" s="101">
+        <v>1</v>
+      </c>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101">
+        <v>1</v>
+      </c>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101">
+        <v>1</v>
+      </c>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101">
+        <v>1</v>
+      </c>
+      <c r="S32" s="101">
+        <v>1</v>
+      </c>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101">
+        <v>1</v>
+      </c>
+      <c r="V32" s="101">
+        <v>1</v>
+      </c>
+      <c r="W32" s="101">
+        <v>1</v>
+      </c>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="101">
+        <v>1</v>
+      </c>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
     </row>
@@ -8221,59 +8160,71 @@
       <c r="A33" s="27"/>
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G33" s="101">
-        <v>1</v>
-      </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101">
-        <v>1</v>
-      </c>
-      <c r="J33" s="101">
-        <v>1</v>
-      </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101">
-        <v>1</v>
-      </c>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101">
-        <v>1</v>
-      </c>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101">
-        <v>1</v>
-      </c>
-      <c r="S33" s="101">
-        <v>1</v>
-      </c>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101">
-        <v>1</v>
-      </c>
-      <c r="V33" s="101">
-        <v>1</v>
-      </c>
-      <c r="W33" s="101">
-        <v>1</v>
-      </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="101">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4">
         <v>1</v>
       </c>
       <c r="AA33" s="45"/>
@@ -8283,219 +8234,201 @@
       <c r="A34" s="27"/>
       <c r="B34" s="32"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1</v>
-      </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
-      <c r="V34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <v>1</v>
-      </c>
-      <c r="X34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="4">
+      <c r="F34" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="101">
+        <v>1</v>
+      </c>
+      <c r="H34" s="101">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101">
+        <v>1</v>
+      </c>
+      <c r="J34" s="101">
+        <v>1</v>
+      </c>
+      <c r="K34" s="101">
+        <v>1</v>
+      </c>
+      <c r="L34" s="101">
+        <v>1</v>
+      </c>
+      <c r="M34" s="101">
+        <v>1</v>
+      </c>
+      <c r="N34" s="101">
+        <v>1</v>
+      </c>
+      <c r="O34" s="101">
+        <v>1</v>
+      </c>
+      <c r="P34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="101">
+        <v>1</v>
+      </c>
+      <c r="R34" s="101">
+        <v>1</v>
+      </c>
+      <c r="S34" s="101">
+        <v>1</v>
+      </c>
+      <c r="T34" s="101">
+        <v>1</v>
+      </c>
+      <c r="U34" s="101">
+        <v>1</v>
+      </c>
+      <c r="V34" s="101">
+        <v>1</v>
+      </c>
+      <c r="W34" s="101">
+        <v>1</v>
+      </c>
+      <c r="X34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="101">
         <v>1</v>
       </c>
       <c r="AA34" s="45"/>
       <c r="AB34" s="45"/>
     </row>
-    <row r="35" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="32"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="101">
-        <v>1</v>
-      </c>
-      <c r="H35" s="101">
-        <v>1</v>
-      </c>
-      <c r="I35" s="101">
-        <v>1</v>
-      </c>
-      <c r="J35" s="101">
-        <v>1</v>
-      </c>
-      <c r="K35" s="101">
-        <v>1</v>
-      </c>
-      <c r="L35" s="101">
-        <v>1</v>
-      </c>
-      <c r="M35" s="101">
-        <v>1</v>
-      </c>
-      <c r="N35" s="101">
-        <v>1</v>
-      </c>
-      <c r="O35" s="101">
-        <v>1</v>
-      </c>
-      <c r="P35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="101">
-        <v>1</v>
-      </c>
-      <c r="R35" s="101">
-        <v>1</v>
-      </c>
-      <c r="S35" s="101">
-        <v>1</v>
-      </c>
-      <c r="T35" s="101">
-        <v>1</v>
-      </c>
-      <c r="U35" s="101">
-        <v>1</v>
-      </c>
-      <c r="V35" s="101">
-        <v>1</v>
-      </c>
-      <c r="W35" s="101">
-        <v>1</v>
-      </c>
-      <c r="X35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-    </row>
-    <row r="36" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="45"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="45"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23"/>
+      <c r="D36" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+    </row>
+    <row r="37" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="45"/>
       <c r="B37" s="23"/>
-      <c r="D37" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
       <c r="AB37" s="45"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
       <c r="B38" s="23"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="101">
+        <v>1</v>
+      </c>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101">
+        <v>1</v>
+      </c>
+      <c r="J38" s="101">
+        <v>1</v>
+      </c>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101">
+        <v>1</v>
+      </c>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101">
+        <v>1</v>
+      </c>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101">
+        <v>1</v>
+      </c>
+      <c r="S38" s="101">
+        <v>1</v>
+      </c>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101">
+        <v>1</v>
+      </c>
+      <c r="V38" s="101">
+        <v>1</v>
+      </c>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
       <c r="AA38" s="45"/>
       <c r="AB38" s="45"/>
     </row>
@@ -8503,55 +8436,65 @@
       <c r="A39" s="27"/>
       <c r="B39" s="23"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="101">
-        <v>1</v>
-      </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101">
-        <v>1</v>
-      </c>
-      <c r="J39" s="101">
-        <v>1</v>
-      </c>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101">
-        <v>1</v>
-      </c>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101">
-        <v>1</v>
-      </c>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101">
-        <v>1</v>
-      </c>
-      <c r="S39" s="101">
-        <v>1</v>
-      </c>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101">
-        <v>1</v>
-      </c>
-      <c r="V39" s="101">
-        <v>1</v>
-      </c>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
       <c r="AA39" s="45"/>
       <c r="AB39" s="45"/>
     </row>
@@ -8559,65 +8502,61 @@
       <c r="A40" s="27"/>
       <c r="B40" s="23"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <v>1</v>
-      </c>
-      <c r="V40" s="4">
-        <v>1</v>
-      </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
+      <c r="D40" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="101">
+        <v>1</v>
+      </c>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101">
+        <v>1</v>
+      </c>
+      <c r="J40" s="101">
+        <v>1</v>
+      </c>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101">
+        <v>1</v>
+      </c>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101">
+        <v>1</v>
+      </c>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101">
+        <v>1</v>
+      </c>
+      <c r="S40" s="101">
+        <v>1</v>
+      </c>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101">
+        <v>1</v>
+      </c>
+      <c r="V40" s="101">
+        <v>1</v>
+      </c>
+      <c r="W40" s="101">
+        <v>1</v>
+      </c>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="101">
+        <v>1</v>
+      </c>
       <c r="AA40" s="45"/>
       <c r="AB40" s="45"/>
     </row>
@@ -8625,59 +8564,71 @@
       <c r="A41" s="27"/>
       <c r="B41" s="23"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G41" s="101">
-        <v>1</v>
-      </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101">
-        <v>1</v>
-      </c>
-      <c r="J41" s="101">
-        <v>1</v>
-      </c>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101">
-        <v>1</v>
-      </c>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101">
-        <v>1</v>
-      </c>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101">
-        <v>1</v>
-      </c>
-      <c r="S41" s="101">
-        <v>1</v>
-      </c>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101">
-        <v>1</v>
-      </c>
-      <c r="V41" s="101">
-        <v>1</v>
-      </c>
-      <c r="W41" s="101">
-        <v>1</v>
-      </c>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="101">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
         <v>1</v>
       </c>
       <c r="AA41" s="45"/>
@@ -8687,211 +8638,137 @@
       <c r="A42" s="27"/>
       <c r="B42" s="23"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-      <c r="T42" s="4">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
-        <v>1</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1</v>
-      </c>
-      <c r="X42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="4">
+      <c r="F42" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="101">
+        <v>1</v>
+      </c>
+      <c r="H42" s="101">
+        <v>1</v>
+      </c>
+      <c r="I42" s="101">
+        <v>1</v>
+      </c>
+      <c r="J42" s="101">
+        <v>1</v>
+      </c>
+      <c r="K42" s="101">
+        <v>1</v>
+      </c>
+      <c r="L42" s="101">
+        <v>1</v>
+      </c>
+      <c r="M42" s="101">
+        <v>1</v>
+      </c>
+      <c r="N42" s="101">
+        <v>1</v>
+      </c>
+      <c r="O42" s="101">
+        <v>1</v>
+      </c>
+      <c r="P42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>1</v>
+      </c>
+      <c r="R42" s="101">
+        <v>1</v>
+      </c>
+      <c r="S42" s="101">
+        <v>1</v>
+      </c>
+      <c r="T42" s="101">
+        <v>1</v>
+      </c>
+      <c r="U42" s="101">
+        <v>1</v>
+      </c>
+      <c r="V42" s="101">
+        <v>1</v>
+      </c>
+      <c r="W42" s="101">
+        <v>1</v>
+      </c>
+      <c r="X42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="101">
         <v>1</v>
       </c>
       <c r="AA42" s="45"/>
       <c r="AB42" s="45"/>
     </row>
-    <row r="43" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="101">
-        <v>1</v>
-      </c>
-      <c r="H43" s="101">
-        <v>1</v>
-      </c>
-      <c r="I43" s="101">
-        <v>1</v>
-      </c>
-      <c r="J43" s="101">
-        <v>1</v>
-      </c>
-      <c r="K43" s="101">
-        <v>1</v>
-      </c>
-      <c r="L43" s="101">
-        <v>1</v>
-      </c>
-      <c r="M43" s="101">
-        <v>1</v>
-      </c>
-      <c r="N43" s="101">
-        <v>1</v>
-      </c>
-      <c r="O43" s="101">
-        <v>1</v>
-      </c>
-      <c r="P43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="101">
-        <v>1</v>
-      </c>
-      <c r="R43" s="101">
-        <v>1</v>
-      </c>
-      <c r="S43" s="101">
-        <v>1</v>
-      </c>
-      <c r="T43" s="101">
-        <v>1</v>
-      </c>
-      <c r="U43" s="101">
-        <v>1</v>
-      </c>
-      <c r="V43" s="101">
-        <v>1</v>
-      </c>
-      <c r="W43" s="101">
-        <v>1</v>
-      </c>
-      <c r="X43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="101">
-        <v>1</v>
-      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
       <c r="AA43" s="45"/>
       <c r="AB43" s="45"/>
     </row>
-    <row r="44" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-    </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AB45" s="42"/>
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AB44" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="G31:Z35 G39:Z44 G15:Z18 G22:Z25 G8:Z11">
+  <conditionalFormatting sqref="G30:Z34 G38:Z43 G14:Z17 G21:Z24 G7:Z10">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8901,13 +8778,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:Z25 G31:Z35 G15:Z18 G39:Z44 G8:Z11" xr:uid="{26278E9C-21A9-4BC5-AB8C-1D03363B5971}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21:Z24 G30:Z34 G14:Z17 G38:Z43 G7:Z10" xr:uid="{26278E9C-21A9-4BC5-AB8C-1D03363B5971}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="41" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -8934,7 +8811,8 @@
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="24.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
@@ -8992,22 +8870,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -9019,7 +8897,7 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -9076,10 +8954,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -9088,10 +8966,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -9110,22 +8988,22 @@
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="99">
         <v>1</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J9" s="99">
         <v>1</v>
@@ -9145,7 +9023,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="28"/>
       <c r="E10" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -9154,10 +9032,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J10" s="10">
         <v>1</v>
@@ -9176,10 +9054,10 @@
       <c r="B11" s="25"/>
       <c r="C11" s="10"/>
       <c r="D11" s="97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" s="99">
         <v>1</v>
@@ -9188,10 +9066,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I11" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J11" s="99">
         <v>1</v>
@@ -9220,7 +9098,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
       <c r="D13" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -9253,10 +9131,10 @@
       <c r="B15" s="30"/>
       <c r="C15" s="10"/>
       <c r="D15" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -9265,10 +9143,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
@@ -9287,22 +9165,22 @@
       <c r="B16" s="30"/>
       <c r="C16" s="10"/>
       <c r="D16" s="97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="99">
         <v>1</v>
       </c>
       <c r="G16" s="99" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H16" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J16" s="99">
         <v>1</v>
@@ -9322,7 +9200,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -9331,10 +9209,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
@@ -9353,10 +9231,10 @@
       <c r="B18" s="30"/>
       <c r="C18" s="10"/>
       <c r="D18" s="97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="99">
         <v>1</v>
@@ -9365,10 +9243,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J18" s="99">
         <v>1</v>
@@ -9397,7 +9275,7 @@
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="D20" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -9430,10 +9308,10 @@
       <c r="B22" s="31"/>
       <c r="C22" s="10"/>
       <c r="D22" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -9442,10 +9320,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J22" s="10">
         <v>1</v>
@@ -9464,22 +9342,22 @@
       <c r="B23" s="31"/>
       <c r="C23" s="10"/>
       <c r="D23" s="97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="99">
         <v>1</v>
       </c>
       <c r="G23" s="99" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H23" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J23" s="99">
         <v>1</v>
@@ -9499,7 +9377,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -9508,10 +9386,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -9530,10 +9408,10 @@
       <c r="B25" s="31"/>
       <c r="C25" s="10"/>
       <c r="D25" s="97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="99">
         <v>1</v>
@@ -9542,10 +9420,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I25" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J25" s="99">
         <v>1</v>
@@ -9579,7 +9457,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="10"/>
       <c r="D27" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -9614,7 +9492,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="10"/>
       <c r="D29" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -9648,22 +9526,22 @@
       <c r="B31" s="32"/>
       <c r="C31" s="10"/>
       <c r="D31" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="99">
+        <v>1</v>
+      </c>
+      <c r="G31" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="99" t="s">
         <v>117</v>
-      </c>
-      <c r="E31" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="99">
-        <v>1</v>
-      </c>
-      <c r="G31" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="99" t="s">
-        <v>119</v>
       </c>
       <c r="J31" s="99">
         <v>1</v>
@@ -9683,7 +9561,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -9692,10 +9570,10 @@
         <v>13</v>
       </c>
       <c r="H32" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J32" s="10">
         <v>1</v>
@@ -9714,22 +9592,22 @@
       <c r="B33" s="32"/>
       <c r="C33" s="10"/>
       <c r="D33" s="99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="124" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33" s="99">
         <v>1</v>
       </c>
       <c r="G33" s="99" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H33" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I33" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J33" s="99">
         <v>1</v>
@@ -9749,7 +9627,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
@@ -9758,10 +9636,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J34" s="10">
         <v>1</v>
@@ -9780,10 +9658,10 @@
       <c r="B35" s="32"/>
       <c r="C35" s="10"/>
       <c r="D35" s="97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="99">
         <v>1</v>
@@ -9792,10 +9670,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I35" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J35" s="99">
         <v>1</v>
@@ -9824,7 +9702,7 @@
       <c r="B37" s="34"/>
       <c r="C37" s="10"/>
       <c r="D37" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -9858,22 +9736,22 @@
       <c r="B39" s="34"/>
       <c r="C39" s="10"/>
       <c r="D39" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="99">
+        <v>1</v>
+      </c>
+      <c r="G39" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="99" t="s">
         <v>117</v>
-      </c>
-      <c r="E39" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="F39" s="99">
-        <v>1</v>
-      </c>
-      <c r="G39" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="99" t="s">
-        <v>119</v>
       </c>
       <c r="J39" s="99">
         <v>1</v>
@@ -9893,7 +9771,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="28"/>
       <c r="E40" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
@@ -9902,10 +9780,10 @@
         <v>13</v>
       </c>
       <c r="H40" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J40" s="10">
         <v>1</v>
@@ -9924,22 +9802,22 @@
       <c r="B41" s="34"/>
       <c r="C41" s="10"/>
       <c r="D41" s="97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F41" s="99">
         <v>1</v>
       </c>
       <c r="G41" s="99" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="H41" s="123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I41" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J41" s="99">
         <v>1</v>
@@ -9959,7 +9837,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="28"/>
       <c r="E42" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
@@ -9968,10 +9846,10 @@
         <v>13</v>
       </c>
       <c r="H42" s="122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J42" s="10">
         <v>1</v>
@@ -9990,10 +9868,10 @@
       <c r="B43" s="34"/>
       <c r="C43" s="10"/>
       <c r="D43" s="97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43" s="99">
         <v>1</v>
@@ -10002,10 +9880,10 @@
         <v>13</v>
       </c>
       <c r="H43" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I43" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J43" s="99">
         <v>1</v>
@@ -10133,7 +10011,7 @@
       <c r="B51" s="57"/>
       <c r="C51" s="2"/>
       <c r="D51" s="109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="78"/>
       <c r="F51" s="78"/>
@@ -10143,7 +10021,7 @@
       <c r="B52" s="57"/>
       <c r="C52" s="2"/>
       <c r="D52" s="53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" s="78"/>
       <c r="F52" s="78"/>
@@ -10153,7 +10031,7 @@
       <c r="B53" s="57"/>
       <c r="C53" s="2"/>
       <c r="D53" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E53" s="78"/>
       <c r="F53" s="78"/>
@@ -10163,7 +10041,7 @@
       <c r="B54" s="57"/>
       <c r="C54" s="2"/>
       <c r="D54" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E54" s="78"/>
       <c r="F54" s="78"/>
@@ -10220,7 +10098,7 @@
       <c r="B61" s="85"/>
       <c r="C61" s="8"/>
       <c r="D61" s="80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
@@ -10576,7 +10454,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="83" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="F66" s="83"/>
       <c r="G66" s="8"/>
@@ -10647,7 +10525,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67" s="83"/>
       <c r="G67" s="8"/>
@@ -10718,7 +10596,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" s="83"/>
       <c r="G68" s="8"/>
@@ -10789,7 +10667,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69" s="83"/>
       <c r="G69" s="8"/>
@@ -10857,10 +10735,10 @@
       <c r="B70" s="85"/>
       <c r="C70" s="8"/>
       <c r="D70" s="88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" s="83"/>
       <c r="G70" s="8"/>
@@ -10931,7 +10809,7 @@
         <v>2026</v>
       </c>
       <c r="E71" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" s="83"/>
       <c r="G71" s="8"/>
@@ -10999,7 +10877,7 @@
       <c r="B72" s="85"/>
       <c r="C72" s="8"/>
       <c r="D72" s="88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" s="83" t="s">
         <v>69</v>
@@ -11070,10 +10948,10 @@
       <c r="B73" s="85"/>
       <c r="C73" s="8"/>
       <c r="D73" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="91"/>
       <c r="G73" s="8"/>
@@ -11339,7 +11217,7 @@
       <c r="B88" s="24"/>
       <c r="C88" s="2"/>
       <c r="D88" s="125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -11354,7 +11232,7 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
@@ -11369,7 +11247,7 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -11397,7 +11275,7 @@
       <c r="B92" s="77"/>
       <c r="C92" s="76"/>
       <c r="D92" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -11466,7 +11344,7 @@
       <c r="B93" s="77"/>
       <c r="C93" s="76"/>
       <c r="D93" s="92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -11535,7 +11413,7 @@
       <c r="B94" s="24"/>
       <c r="C94" s="2"/>
       <c r="D94" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" s="145"/>
       <c r="F94" s="145"/>
@@ -11663,7 +11541,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="53" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;C&amp;"Aptos Narrow,Regular"页 &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -11677,11 +11555,11 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CL45"/>
+  <dimension ref="A1:CL44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -11690,22 +11568,19 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="11.6328125" style="10" customWidth="1"/>
-    <col min="15" max="16" width="12.6328125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="10" customWidth="1"/>
+    <col min="10" max="15" width="10.6328125" style="10" customWidth="1"/>
+    <col min="16" max="17" width="15.6328125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6328125" style="10" customWidth="1"/>
     <col min="21" max="21" width="10.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.6328125" style="2" customWidth="1"/>
-    <col min="23" max="25" width="10.6328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.6328125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="10.6328125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="14.6328125" style="2" customWidth="1"/>
     <col min="27" max="27" width="0.81640625" style="2" customWidth="1"/>
     <col min="28" max="28" width="2.6328125" style="42" customWidth="1"/>
     <col min="29" max="84" width="9.1796875" style="45" hidden="1" customWidth="1"/>
@@ -11733,7 +11608,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -11760,415 +11635,441 @@
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
     </row>
-    <row r="3" spans="1:28" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+    <row r="3" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="45"/>
-    </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="136" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q3" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="S3" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="V3" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="W3" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="X3" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="136" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA3" s="44"/>
+    </row>
+    <row r="4" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="J4" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="N4" s="136" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="136" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q4" s="136" t="s">
-        <v>222</v>
-      </c>
-      <c r="R4" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="S4" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="T4" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="U4" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="V4" s="136" t="s">
-        <v>199</v>
-      </c>
-      <c r="W4" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="X4" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y4" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z4" s="136" t="s">
-        <v>203</v>
-      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135"/>
       <c r="AA4" s="44"/>
     </row>
-    <row r="5" spans="1:28" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="25"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="44"/>
-    </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+    </row>
+    <row r="6" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
     </row>
-    <row r="7" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="45"/>
       <c r="AB7" s="45"/>
     </row>
     <row r="8" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="D8" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101">
+        <v>1</v>
+      </c>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
       <c r="AA8" s="45"/>
       <c r="AB8" s="45"/>
     </row>
     <row r="9" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101">
-        <v>1</v>
-      </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="45"/>
     </row>
     <row r="10" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="F10" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101">
+        <v>1</v>
+      </c>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101">
+        <v>1</v>
+      </c>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
       <c r="AA10" s="45"/>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101">
-        <v>1</v>
-      </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101">
-        <v>1</v>
-      </c>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="45"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="30"/>
       <c r="C12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="45"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+    </row>
+    <row r="13" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
     </row>
-    <row r="14" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
       <c r="B14" s="30"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="45"/>
       <c r="AB14" s="45"/>
     </row>
@@ -12176,55 +12077,61 @@
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <v>1</v>
-      </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="D15" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="101">
+        <v>1</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101">
+        <v>1</v>
+      </c>
+      <c r="J15" s="101">
+        <v>1</v>
+      </c>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101">
+        <v>1</v>
+      </c>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101">
+        <v>1</v>
+      </c>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101">
+        <v>1</v>
+      </c>
+      <c r="S15" s="101">
+        <v>1</v>
+      </c>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101">
+        <v>1</v>
+      </c>
+      <c r="V15" s="101">
+        <v>1</v>
+      </c>
+      <c r="W15" s="101">
+        <v>1</v>
+      </c>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="101">
+        <v>1</v>
+      </c>
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
     </row>
@@ -12232,279 +12139,273 @@
       <c r="A16" s="27"/>
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="101">
-        <v>1</v>
-      </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101">
-        <v>1</v>
-      </c>
-      <c r="J16" s="101">
-        <v>1</v>
-      </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101">
-        <v>1</v>
-      </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101">
-        <v>1</v>
-      </c>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101">
-        <v>1</v>
-      </c>
-      <c r="S16" s="101">
-        <v>1</v>
-      </c>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101">
-        <v>1</v>
-      </c>
-      <c r="V16" s="101">
-        <v>1</v>
-      </c>
-      <c r="W16" s="101">
-        <v>1</v>
-      </c>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
     </row>
     <row r="17" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <v>1</v>
-      </c>
-      <c r="X17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="F17" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="101">
+        <v>1</v>
+      </c>
+      <c r="H17" s="101">
+        <v>1</v>
+      </c>
+      <c r="I17" s="101">
+        <v>1</v>
+      </c>
+      <c r="J17" s="101">
+        <v>1</v>
+      </c>
+      <c r="K17" s="101">
+        <v>1</v>
+      </c>
+      <c r="L17" s="101">
+        <v>1</v>
+      </c>
+      <c r="M17" s="101">
+        <v>1</v>
+      </c>
+      <c r="N17" s="101">
+        <v>1</v>
+      </c>
+      <c r="O17" s="101">
+        <v>1</v>
+      </c>
+      <c r="P17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>1</v>
+      </c>
+      <c r="R17" s="101">
+        <v>1</v>
+      </c>
+      <c r="S17" s="101">
+        <v>1</v>
+      </c>
+      <c r="T17" s="101">
+        <v>1</v>
+      </c>
+      <c r="U17" s="101">
+        <v>1</v>
+      </c>
+      <c r="V17" s="101">
+        <v>1</v>
+      </c>
+      <c r="W17" s="101">
+        <v>1</v>
+      </c>
+      <c r="X17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="101">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+    </row>
+    <row r="18" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="101">
-        <v>1</v>
-      </c>
-      <c r="H18" s="101">
-        <v>1</v>
-      </c>
-      <c r="I18" s="101">
-        <v>1</v>
-      </c>
-      <c r="J18" s="101">
-        <v>1</v>
-      </c>
-      <c r="K18" s="101">
-        <v>1</v>
-      </c>
-      <c r="L18" s="101">
-        <v>1</v>
-      </c>
-      <c r="M18" s="101">
-        <v>1</v>
-      </c>
-      <c r="N18" s="101">
-        <v>1</v>
-      </c>
-      <c r="O18" s="101">
-        <v>1</v>
-      </c>
-      <c r="P18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="101">
-        <v>1</v>
-      </c>
-      <c r="R18" s="101">
-        <v>1</v>
-      </c>
-      <c r="S18" s="101">
-        <v>1</v>
-      </c>
-      <c r="T18" s="101">
-        <v>1</v>
-      </c>
-      <c r="U18" s="101">
-        <v>1</v>
-      </c>
-      <c r="V18" s="101">
-        <v>1</v>
-      </c>
-      <c r="W18" s="101">
-        <v>1</v>
-      </c>
-      <c r="X18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="45"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="31"/>
       <c r="C19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="45"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+    </row>
+    <row r="20" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
     </row>
-    <row r="21" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
     </row>
@@ -12512,55 +12413,61 @@
       <c r="A22" s="27"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="D22" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="101">
+        <v>1</v>
+      </c>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101">
+        <v>1</v>
+      </c>
+      <c r="J22" s="101">
+        <v>1</v>
+      </c>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101">
+        <v>1</v>
+      </c>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101">
+        <v>1</v>
+      </c>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101">
+        <v>1</v>
+      </c>
+      <c r="S22" s="101">
+        <v>1</v>
+      </c>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101">
+        <v>1</v>
+      </c>
+      <c r="V22" s="101">
+        <v>1</v>
+      </c>
+      <c r="W22" s="101">
+        <v>1</v>
+      </c>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>1</v>
+      </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
     </row>
@@ -12568,59 +12475,71 @@
       <c r="A23" s="27"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="101">
-        <v>1</v>
-      </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101">
-        <v>1</v>
-      </c>
-      <c r="J23" s="101">
-        <v>1</v>
-      </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101">
-        <v>1</v>
-      </c>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101">
-        <v>1</v>
-      </c>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101">
-        <v>1</v>
-      </c>
-      <c r="S23" s="101">
-        <v>1</v>
-      </c>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101">
-        <v>1</v>
-      </c>
-      <c r="V23" s="101">
-        <v>1</v>
-      </c>
-      <c r="W23" s="101">
-        <v>1</v>
-      </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="101">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
         <v>1</v>
       </c>
       <c r="AA23" s="45"/>
@@ -12630,284 +12549,266 @@
       <c r="A24" s="27"/>
       <c r="B24" s="31"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
-        <v>1</v>
-      </c>
-      <c r="V24" s="4">
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="4">
+      <c r="F24" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="101">
+        <v>1</v>
+      </c>
+      <c r="H24" s="101">
+        <v>1</v>
+      </c>
+      <c r="I24" s="101">
+        <v>1</v>
+      </c>
+      <c r="J24" s="101">
+        <v>1</v>
+      </c>
+      <c r="K24" s="101">
+        <v>1</v>
+      </c>
+      <c r="L24" s="101">
+        <v>1</v>
+      </c>
+      <c r="M24" s="101">
+        <v>1</v>
+      </c>
+      <c r="N24" s="101">
+        <v>1</v>
+      </c>
+      <c r="O24" s="101">
+        <v>1</v>
+      </c>
+      <c r="P24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="101">
+        <v>1</v>
+      </c>
+      <c r="R24" s="101">
+        <v>1</v>
+      </c>
+      <c r="S24" s="101">
+        <v>1</v>
+      </c>
+      <c r="T24" s="101">
+        <v>1</v>
+      </c>
+      <c r="U24" s="101">
+        <v>1</v>
+      </c>
+      <c r="V24" s="101">
+        <v>1</v>
+      </c>
+      <c r="W24" s="101">
+        <v>1</v>
+      </c>
+      <c r="X24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="101">
         <v>1</v>
       </c>
       <c r="AA24" s="45"/>
       <c r="AB24" s="45"/>
     </row>
-    <row r="25" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="101">
-        <v>1</v>
-      </c>
-      <c r="H25" s="101">
-        <v>1</v>
-      </c>
-      <c r="I25" s="101">
-        <v>1</v>
-      </c>
-      <c r="J25" s="101">
-        <v>1</v>
-      </c>
-      <c r="K25" s="101">
-        <v>1</v>
-      </c>
-      <c r="L25" s="101">
-        <v>1</v>
-      </c>
-      <c r="M25" s="101">
-        <v>1</v>
-      </c>
-      <c r="N25" s="101">
-        <v>1</v>
-      </c>
-      <c r="O25" s="101">
-        <v>1</v>
-      </c>
-      <c r="P25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="101">
-        <v>1</v>
-      </c>
-      <c r="R25" s="101">
-        <v>1</v>
-      </c>
-      <c r="S25" s="101">
-        <v>1</v>
-      </c>
-      <c r="T25" s="101">
-        <v>1</v>
-      </c>
-      <c r="U25" s="101">
-        <v>1</v>
-      </c>
-      <c r="V25" s="101">
-        <v>1</v>
-      </c>
-      <c r="W25" s="101">
-        <v>1</v>
-      </c>
-      <c r="X25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="31"/>
+      <c r="C25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="45"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+    </row>
+    <row r="27" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+    <row r="28" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="32"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
     </row>
-    <row r="29" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
       <c r="B30" s="32"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="101">
+        <v>1</v>
+      </c>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101">
+        <v>1</v>
+      </c>
+      <c r="J30" s="101">
+        <v>1</v>
+      </c>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101">
+        <v>1</v>
+      </c>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101">
+        <v>1</v>
+      </c>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101">
+        <v>1</v>
+      </c>
+      <c r="S30" s="101">
+        <v>1</v>
+      </c>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101">
+        <v>1</v>
+      </c>
+      <c r="V30" s="101">
+        <v>1</v>
+      </c>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="45"/>
     </row>
@@ -12915,55 +12816,65 @@
       <c r="A31" s="27"/>
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="101">
-        <v>1</v>
-      </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101">
-        <v>1</v>
-      </c>
-      <c r="J31" s="101">
-        <v>1</v>
-      </c>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101">
-        <v>1</v>
-      </c>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101">
-        <v>1</v>
-      </c>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101">
-        <v>1</v>
-      </c>
-      <c r="S31" s="101">
-        <v>1</v>
-      </c>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101">
-        <v>1</v>
-      </c>
-      <c r="V31" s="101">
-        <v>1</v>
-      </c>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="45"/>
       <c r="AB31" s="45"/>
     </row>
@@ -12971,65 +12882,61 @@
       <c r="A32" s="27"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <v>1</v>
-      </c>
-      <c r="U32" s="4">
-        <v>1</v>
-      </c>
-      <c r="V32" s="4">
-        <v>1</v>
-      </c>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="D32" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="101">
+        <v>1</v>
+      </c>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101">
+        <v>1</v>
+      </c>
+      <c r="J32" s="101">
+        <v>1</v>
+      </c>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101">
+        <v>1</v>
+      </c>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101">
+        <v>1</v>
+      </c>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101">
+        <v>1</v>
+      </c>
+      <c r="S32" s="101">
+        <v>1</v>
+      </c>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101">
+        <v>1</v>
+      </c>
+      <c r="V32" s="101">
+        <v>1</v>
+      </c>
+      <c r="W32" s="101">
+        <v>1</v>
+      </c>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="101">
+        <v>1</v>
+      </c>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
     </row>
@@ -13037,59 +12944,71 @@
       <c r="A33" s="27"/>
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="101">
-        <v>1</v>
-      </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101">
-        <v>1</v>
-      </c>
-      <c r="J33" s="101">
-        <v>1</v>
-      </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101">
-        <v>1</v>
-      </c>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101">
-        <v>1</v>
-      </c>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101">
-        <v>1</v>
-      </c>
-      <c r="S33" s="101">
-        <v>1</v>
-      </c>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101">
-        <v>1</v>
-      </c>
-      <c r="V33" s="101">
-        <v>1</v>
-      </c>
-      <c r="W33" s="101">
-        <v>1</v>
-      </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="101">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4">
         <v>1</v>
       </c>
       <c r="AA33" s="45"/>
@@ -13099,220 +13018,202 @@
       <c r="A34" s="27"/>
       <c r="B34" s="32"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1</v>
-      </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
-      <c r="V34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <v>1</v>
-      </c>
-      <c r="X34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="4">
+      <c r="F34" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="101">
+        <v>1</v>
+      </c>
+      <c r="H34" s="101">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101">
+        <v>1</v>
+      </c>
+      <c r="J34" s="101">
+        <v>1</v>
+      </c>
+      <c r="K34" s="101">
+        <v>1</v>
+      </c>
+      <c r="L34" s="101">
+        <v>1</v>
+      </c>
+      <c r="M34" s="101">
+        <v>1</v>
+      </c>
+      <c r="N34" s="101">
+        <v>1</v>
+      </c>
+      <c r="O34" s="101">
+        <v>1</v>
+      </c>
+      <c r="P34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="101">
+        <v>1</v>
+      </c>
+      <c r="R34" s="101">
+        <v>1</v>
+      </c>
+      <c r="S34" s="101">
+        <v>1</v>
+      </c>
+      <c r="T34" s="101">
+        <v>1</v>
+      </c>
+      <c r="U34" s="101">
+        <v>1</v>
+      </c>
+      <c r="V34" s="101">
+        <v>1</v>
+      </c>
+      <c r="W34" s="101">
+        <v>1</v>
+      </c>
+      <c r="X34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="101">
         <v>1</v>
       </c>
       <c r="AA34" s="45"/>
       <c r="AB34" s="45"/>
     </row>
-    <row r="35" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="32"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="101">
-        <v>1</v>
-      </c>
-      <c r="H35" s="101">
-        <v>1</v>
-      </c>
-      <c r="I35" s="101">
-        <v>1</v>
-      </c>
-      <c r="J35" s="101">
-        <v>1</v>
-      </c>
-      <c r="K35" s="101">
-        <v>1</v>
-      </c>
-      <c r="L35" s="101">
-        <v>1</v>
-      </c>
-      <c r="M35" s="101">
-        <v>1</v>
-      </c>
-      <c r="N35" s="101">
-        <v>1</v>
-      </c>
-      <c r="O35" s="101">
-        <v>1</v>
-      </c>
-      <c r="P35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="101">
-        <v>1</v>
-      </c>
-      <c r="R35" s="101">
-        <v>1</v>
-      </c>
-      <c r="S35" s="101">
-        <v>1</v>
-      </c>
-      <c r="T35" s="101">
-        <v>1</v>
-      </c>
-      <c r="U35" s="101">
-        <v>1</v>
-      </c>
-      <c r="V35" s="101">
-        <v>1</v>
-      </c>
-      <c r="W35" s="101">
-        <v>1</v>
-      </c>
-      <c r="X35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-    </row>
-    <row r="36" spans="1:28" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="45"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="34"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="45"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="34"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+    </row>
+    <row r="37" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="45"/>
+      <c r="B37" s="23"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
       <c r="AB37" s="45"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
       <c r="B38" s="23"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="101">
+        <v>1</v>
+      </c>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101">
+        <v>1</v>
+      </c>
+      <c r="J38" s="101">
+        <v>1</v>
+      </c>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101">
+        <v>1</v>
+      </c>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101">
+        <v>1</v>
+      </c>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101">
+        <v>1</v>
+      </c>
+      <c r="S38" s="101">
+        <v>1</v>
+      </c>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101">
+        <v>1</v>
+      </c>
+      <c r="V38" s="101">
+        <v>1</v>
+      </c>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
       <c r="AA38" s="45"/>
       <c r="AB38" s="45"/>
     </row>
@@ -13320,55 +13221,65 @@
       <c r="A39" s="27"/>
       <c r="B39" s="23"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="G39" s="101">
-        <v>1</v>
-      </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101">
-        <v>1</v>
-      </c>
-      <c r="J39" s="101">
-        <v>1</v>
-      </c>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101">
-        <v>1</v>
-      </c>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101">
-        <v>1</v>
-      </c>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101">
-        <v>1</v>
-      </c>
-      <c r="S39" s="101">
-        <v>1</v>
-      </c>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101">
-        <v>1</v>
-      </c>
-      <c r="V39" s="101">
-        <v>1</v>
-      </c>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
       <c r="AA39" s="45"/>
       <c r="AB39" s="45"/>
     </row>
@@ -13376,65 +13287,61 @@
       <c r="A40" s="27"/>
       <c r="B40" s="23"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <v>1</v>
-      </c>
-      <c r="V40" s="4">
-        <v>1</v>
-      </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
+      <c r="D40" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="101">
+        <v>1</v>
+      </c>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101">
+        <v>1</v>
+      </c>
+      <c r="J40" s="101">
+        <v>1</v>
+      </c>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101">
+        <v>1</v>
+      </c>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101">
+        <v>1</v>
+      </c>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101">
+        <v>1</v>
+      </c>
+      <c r="S40" s="101">
+        <v>1</v>
+      </c>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101">
+        <v>1</v>
+      </c>
+      <c r="V40" s="101">
+        <v>1</v>
+      </c>
+      <c r="W40" s="101">
+        <v>1</v>
+      </c>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="101">
+        <v>1</v>
+      </c>
       <c r="AA40" s="45"/>
       <c r="AB40" s="45"/>
     </row>
@@ -13442,59 +13349,71 @@
       <c r="A41" s="27"/>
       <c r="B41" s="23"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="101">
-        <v>1</v>
-      </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101">
-        <v>1</v>
-      </c>
-      <c r="J41" s="101">
-        <v>1</v>
-      </c>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101">
-        <v>1</v>
-      </c>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101">
-        <v>1</v>
-      </c>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101">
-        <v>1</v>
-      </c>
-      <c r="S41" s="101">
-        <v>1</v>
-      </c>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101">
-        <v>1</v>
-      </c>
-      <c r="V41" s="101">
-        <v>1</v>
-      </c>
-      <c r="W41" s="101">
-        <v>1</v>
-      </c>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="101">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
         <v>1</v>
       </c>
       <c r="AA41" s="45"/>
@@ -13504,211 +13423,137 @@
       <c r="A42" s="27"/>
       <c r="B42" s="23"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-      <c r="T42" s="4">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
-        <v>1</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1</v>
-      </c>
-      <c r="X42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="4">
+      <c r="F42" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="101">
+        <v>1</v>
+      </c>
+      <c r="H42" s="101">
+        <v>1</v>
+      </c>
+      <c r="I42" s="101">
+        <v>1</v>
+      </c>
+      <c r="J42" s="101">
+        <v>1</v>
+      </c>
+      <c r="K42" s="101">
+        <v>1</v>
+      </c>
+      <c r="L42" s="101">
+        <v>1</v>
+      </c>
+      <c r="M42" s="101">
+        <v>1</v>
+      </c>
+      <c r="N42" s="101">
+        <v>1</v>
+      </c>
+      <c r="O42" s="101">
+        <v>1</v>
+      </c>
+      <c r="P42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>1</v>
+      </c>
+      <c r="R42" s="101">
+        <v>1</v>
+      </c>
+      <c r="S42" s="101">
+        <v>1</v>
+      </c>
+      <c r="T42" s="101">
+        <v>1</v>
+      </c>
+      <c r="U42" s="101">
+        <v>1</v>
+      </c>
+      <c r="V42" s="101">
+        <v>1</v>
+      </c>
+      <c r="W42" s="101">
+        <v>1</v>
+      </c>
+      <c r="X42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="101">
         <v>1</v>
       </c>
       <c r="AA42" s="45"/>
       <c r="AB42" s="45"/>
     </row>
-    <row r="43" spans="1:28" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="101">
-        <v>1</v>
-      </c>
-      <c r="H43" s="101">
-        <v>1</v>
-      </c>
-      <c r="I43" s="101">
-        <v>1</v>
-      </c>
-      <c r="J43" s="101">
-        <v>1</v>
-      </c>
-      <c r="K43" s="101">
-        <v>1</v>
-      </c>
-      <c r="L43" s="101">
-        <v>1</v>
-      </c>
-      <c r="M43" s="101">
-        <v>1</v>
-      </c>
-      <c r="N43" s="101">
-        <v>1</v>
-      </c>
-      <c r="O43" s="101">
-        <v>1</v>
-      </c>
-      <c r="P43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="101">
-        <v>1</v>
-      </c>
-      <c r="R43" s="101">
-        <v>1</v>
-      </c>
-      <c r="S43" s="101">
-        <v>1</v>
-      </c>
-      <c r="T43" s="101">
-        <v>1</v>
-      </c>
-      <c r="U43" s="101">
-        <v>1</v>
-      </c>
-      <c r="V43" s="101">
-        <v>1</v>
-      </c>
-      <c r="W43" s="101">
-        <v>1</v>
-      </c>
-      <c r="X43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="101">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="101">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="45"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
       <c r="AB43" s="45"/>
     </row>
-    <row r="44" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-    </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AB45" s="42"/>
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AB44" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="G8:Z11 G15:Z18 G22:Z25 G31:Z35 G39:Z44">
+  <conditionalFormatting sqref="G7:Z10 G14:Z17 G21:Z24 G30:Z34 G38:Z42">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -13718,7 +13563,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:Z11 G15:Z18 G22:Z25 G39:Z44 G31:Z35" xr:uid="{279AA12E-1668-4B71-BA43-0A2F724B785C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:Z10 G14:Z17 G21:Z24 G30:Z34 G38:Z42" xr:uid="{279AA12E-1668-4B71-BA43-0A2F724B785C}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2071" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2CE793-CC22-418C-90D6-124DE4313EC3}"/>
+  <xr:revisionPtr revIDLastSave="2079" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5CAB68-C275-4FE7-A627-BAAED887CA2C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2098" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1549533-6A5F-4F86-BA3A-F13AD51A35D3}"/>
+  <xr:revisionPtr revIDLastSave="2119" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DD8878-D36B-4B3B-A8BD-45C601D48157}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="229">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -722,18 +722,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = multilingual, the prefix indicates a known version language is monolingual</t>
-    </r>
-  </si>
-  <si>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 11，</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -741,18 +739,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 多语，前缀是已知版本区域是指单语</t>
-    </r>
-  </si>
-  <si>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">集成了 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -760,15 +761,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 11，</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个已知语言，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">已知映像版本有 </t>
     </r>
     <r>
       <rPr>
@@ -777,20 +783,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">集成了 </t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随机生成的 </t>
     </r>
     <r>
       <rPr>
@@ -799,6 +805,53 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位字符</t>
+    </r>
+  </si>
+  <si>
+    <t>1 月</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发行时间 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -807,12 +860,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 个已知语言，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">已知映像版本有 </t>
+      <t xml:space="preserve"> known languages, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are </t>
     </r>
     <r>
       <rPr>
@@ -829,12 +882,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 个，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">随机生成的 </t>
+      <t xml:space="preserve"> known image versions, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Randomly generated </t>
     </r>
     <r>
       <rPr>
@@ -851,15 +904,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 位字符</t>
-    </r>
-  </si>
-  <si>
-    <t>1 月</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发行时间 </t>
+      <t>-character string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Release date </t>
     </r>
     <r>
       <rPr>
@@ -870,19 +920,8 @@
       </rPr>
       <t>2026</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integrated with </t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -890,20 +929,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known languages, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are </t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
     </r>
     <r>
       <rPr>
@@ -912,21 +946,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known image versions, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Randomly generated </t>
-    </r>
+      <t xml:space="preserve"> SHA-256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 字串</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -934,20 +965,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>-character string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Release date </t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-bit </t>
     </r>
     <r>
       <rPr>
@@ -956,73 +982,6 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>2026</t>
-    </r>
-  </si>
-  <si>
-    <t>.ISO .ASC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SHA-256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 字串</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
       <t>SHA-256</t>
     </r>
     <r>
@@ -1032,96 +991,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO file; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/pgp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO 文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/pgp</t>
     </r>
   </si>
   <si>
@@ -2594,6 +2463,211 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO file; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/pgp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO 文件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/pgp</t>
+    </r>
+  </si>
+  <si>
+    <t>.ISO .Sig</t>
+  </si>
+  <si>
+    <t>Windows 操作系统版本，以此版本为主要</t>
+  </si>
+  <si>
+    <t>Windows operating system version, this version is the primary one.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 多语，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>en-US</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>zh-CN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 或其它已知匹域标记指的是单语</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = multilingual, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>en-US</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> zh-CN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or other known domain markers refer to monolingual</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3066,7 +3140,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3535,6 +3609,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4427,7 +4510,7 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -4500,22 +4583,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>23</v>
@@ -4527,7 +4610,7 @@
         <v>59</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -4577,10 +4660,10 @@
     <row r="8" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4589,10 +4672,10 @@
         <v>12</v>
       </c>
       <c r="H8" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4608,22 +4691,22 @@
     <row r="9" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="D9" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F9" s="101">
         <v>1</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H9" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -4640,7 +4723,7 @@
       <c r="B10" s="17"/>
       <c r="D10" s="14"/>
       <c r="E10" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -4649,10 +4732,10 @@
         <v>12</v>
       </c>
       <c r="H10" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -4668,10 +4751,10 @@
     <row r="11" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="D11" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F11" s="101">
         <v>1</v>
@@ -4680,10 +4763,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I11" s="101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J11" s="101">
         <v>1</v>
@@ -4700,7 +4783,7 @@
       <c r="A12" s="45"/>
       <c r="B12" s="19"/>
       <c r="D12" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -4732,10 +4815,10 @@
       <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -4744,10 +4827,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -4765,22 +4848,22 @@
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H15" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I15" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J15" s="101">
         <v>1</v>
@@ -4799,7 +4882,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="14"/>
       <c r="E16" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -4808,10 +4891,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
@@ -4828,10 +4911,10 @@
     <row r="17" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="D17" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="101">
         <v>1</v>
@@ -4840,10 +4923,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J17" s="101">
         <v>1</v>
@@ -4859,7 +4942,7 @@
     <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="D18" s="47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4889,10 +4972,10 @@
     <row r="20" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="D20" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -4901,10 +4984,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -4920,22 +5003,22 @@
     <row r="21" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="20"/>
       <c r="D21" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E21" s="98" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F21" s="101">
         <v>1</v>
       </c>
       <c r="G21" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H21" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I21" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J21" s="101">
         <v>1</v>
@@ -4952,7 +5035,7 @@
       <c r="B22" s="20"/>
       <c r="D22" s="14"/>
       <c r="E22" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -4961,10 +5044,10 @@
         <v>12</v>
       </c>
       <c r="H22" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -4980,10 +5063,10 @@
     <row r="23" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="D23" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="101">
         <v>1</v>
@@ -4992,10 +5075,10 @@
         <v>12</v>
       </c>
       <c r="H23" s="121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J23" s="101">
         <v>1</v>
@@ -5012,7 +5095,7 @@
       <c r="A24" s="45"/>
       <c r="B24" s="21"/>
       <c r="D24" s="46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5043,7 +5126,7 @@
     <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="D26" s="48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -5073,22 +5156,22 @@
     <row r="28" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21"/>
       <c r="D28" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F28" s="101">
         <v>1</v>
       </c>
       <c r="G28" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H28" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J28" s="101">
         <v>1</v>
@@ -5105,7 +5188,7 @@
       <c r="B29" s="21"/>
       <c r="D29" s="14"/>
       <c r="E29" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -5114,10 +5197,10 @@
         <v>12</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -5133,22 +5216,22 @@
     <row r="30" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
       <c r="D30" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E30" s="98" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F30" s="101">
         <v>1</v>
       </c>
       <c r="G30" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H30" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J30" s="101">
         <v>1</v>
@@ -5165,7 +5248,7 @@
       <c r="B31" s="21"/>
       <c r="D31" s="14"/>
       <c r="E31" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -5174,10 +5257,10 @@
         <v>12</v>
       </c>
       <c r="H31" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -5193,10 +5276,10 @@
     <row r="32" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="D32" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F32" s="101">
         <v>1</v>
@@ -5205,10 +5288,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J32" s="101">
         <v>1</v>
@@ -5225,7 +5308,7 @@
     <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="23"/>
       <c r="D33" s="48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -5256,22 +5339,22 @@
     <row r="35" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="23"/>
       <c r="D35" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E35" s="98" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F35" s="101">
         <v>1</v>
       </c>
       <c r="G35" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H35" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I35" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J35" s="101">
         <v>1</v>
@@ -5288,7 +5371,7 @@
       <c r="B36" s="23"/>
       <c r="D36" s="14"/>
       <c r="E36" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -5297,10 +5380,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -5316,22 +5399,22 @@
     <row r="37" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="D37" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E37" s="98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F37" s="101">
         <v>1</v>
       </c>
       <c r="G37" s="101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H37" s="121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I37" s="101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J37" s="101">
         <v>1</v>
@@ -5348,7 +5431,7 @@
       <c r="B38" s="23"/>
       <c r="D38" s="14"/>
       <c r="E38" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -5357,10 +5440,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J38" s="4">
         <v>1</v>
@@ -5377,10 +5460,10 @@
       <c r="A39" s="45"/>
       <c r="B39" s="23"/>
       <c r="D39" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F39" s="101">
         <v>1</v>
@@ -5389,10 +5472,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J39" s="101">
         <v>1</v>
@@ -5521,7 +5604,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="108" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -5535,7 +5618,7 @@
       <c r="B48" s="57"/>
       <c r="C48" s="42"/>
       <c r="D48" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
@@ -5549,7 +5632,7 @@
       <c r="B49" s="57"/>
       <c r="C49" s="42"/>
       <c r="D49" s="53" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
@@ -5563,7 +5646,7 @@
       <c r="B50" s="57"/>
       <c r="C50" s="42"/>
       <c r="D50" s="53" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
@@ -5657,7 +5740,7 @@
     <row r="57" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="85"/>
       <c r="D57" s="80" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
@@ -5671,226 +5754,229 @@
     </row>
     <row r="58" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="85"/>
-      <c r="D58" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="83"/>
+      <c r="D58" s="150">
+        <v>28000.157500000001</v>
+      </c>
+      <c r="E58" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
     </row>
     <row r="59" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="85"/>
       <c r="D59" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="83" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="F59" s="83"/>
     </row>
     <row r="60" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="85"/>
-      <c r="D60" s="88" t="s">
-        <v>63</v>
+      <c r="D60" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="83"/>
-      <c r="G60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
     </row>
     <row r="61" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="85"/>
       <c r="D61" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61" s="83"/>
+      <c r="G61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
     </row>
     <row r="62" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="85"/>
-      <c r="D62" s="84" t="s">
-        <v>12</v>
+      <c r="D62" s="88" t="s">
+        <v>64</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="F62" s="83"/>
     </row>
     <row r="63" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="85"/>
       <c r="D63" s="84" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="F63" s="83"/>
     </row>
     <row r="64" spans="2:13" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="85"/>
-      <c r="D64" s="88" t="s">
-        <v>66</v>
+      <c r="D64" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="E64" s="83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F64" s="83"/>
     </row>
     <row r="65" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="85"/>
       <c r="D65" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F65" s="83"/>
     </row>
     <row r="66" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="85"/>
       <c r="D66" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="83">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="E66" s="83" t="s">
+        <v>81</v>
       </c>
       <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="85"/>
-      <c r="D67" s="88">
+      <c r="D67" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="83">
+        <v>1</v>
+      </c>
+      <c r="F67" s="83"/>
+    </row>
+    <row r="68" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="85"/>
+      <c r="D68" s="88">
         <v>2026</v>
       </c>
-      <c r="E67" s="83" t="s">
+      <c r="E68" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="83"/>
+    </row>
+    <row r="69" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="78"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="83"/>
-    </row>
-    <row r="68" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="78"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="87" t="s">
+      <c r="E69" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="78"/>
-      <c r="V68" s="78"/>
-      <c r="W68" s="78"/>
-      <c r="X68" s="78"/>
-      <c r="Y68" s="78"/>
-      <c r="Z68" s="78"/>
-      <c r="AA68" s="78"/>
-      <c r="AB68" s="78"/>
-      <c r="AC68" s="78"/>
-      <c r="AD68" s="78"/>
-      <c r="AE68" s="78"/>
-      <c r="AF68" s="78"/>
-      <c r="AG68" s="78"/>
-      <c r="AH68" s="78"/>
-      <c r="AI68" s="78"/>
-      <c r="AJ68" s="78"/>
-      <c r="AK68" s="78"/>
-      <c r="AL68" s="78"/>
-      <c r="AM68" s="78"/>
-      <c r="AN68" s="78"/>
-      <c r="AO68" s="78"/>
-      <c r="AP68" s="78"/>
-      <c r="AQ68" s="78"/>
-      <c r="AR68" s="78"/>
-      <c r="AS68" s="78"/>
-      <c r="AT68" s="78"/>
-      <c r="AU68" s="78"/>
-      <c r="AV68" s="78"/>
-      <c r="AW68" s="78"/>
-      <c r="AX68" s="78"/>
-      <c r="AY68" s="78"/>
-      <c r="AZ68" s="78"/>
-      <c r="BA68" s="78"/>
-      <c r="BB68" s="78"/>
-      <c r="BC68" s="78"/>
-      <c r="BD68" s="78"/>
-      <c r="BE68" s="78"/>
-      <c r="BF68" s="78"/>
-      <c r="BG68" s="78"/>
-      <c r="BH68" s="78"/>
-      <c r="BI68" s="78"/>
-      <c r="BJ68" s="78"/>
-      <c r="BK68" s="78"/>
-      <c r="BL68" s="78"/>
-      <c r="BM68" s="78"/>
-    </row>
-    <row r="69" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="85"/>
-      <c r="D69" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" s="91"/>
-    </row>
-    <row r="70" spans="1:65" s="78" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="57"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-    </row>
+      <c r="F69" s="87"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="78"/>
+      <c r="R69" s="78"/>
+      <c r="S69" s="78"/>
+      <c r="T69" s="78"/>
+      <c r="U69" s="78"/>
+      <c r="V69" s="78"/>
+      <c r="W69" s="78"/>
+      <c r="X69" s="78"/>
+      <c r="Y69" s="78"/>
+      <c r="Z69" s="78"/>
+      <c r="AA69" s="78"/>
+      <c r="AB69" s="78"/>
+      <c r="AC69" s="78"/>
+      <c r="AD69" s="78"/>
+      <c r="AE69" s="78"/>
+      <c r="AF69" s="78"/>
+      <c r="AG69" s="78"/>
+      <c r="AH69" s="78"/>
+      <c r="AI69" s="78"/>
+      <c r="AJ69" s="78"/>
+      <c r="AK69" s="78"/>
+      <c r="AL69" s="78"/>
+      <c r="AM69" s="78"/>
+      <c r="AN69" s="78"/>
+      <c r="AO69" s="78"/>
+      <c r="AP69" s="78"/>
+      <c r="AQ69" s="78"/>
+      <c r="AR69" s="78"/>
+      <c r="AS69" s="78"/>
+      <c r="AT69" s="78"/>
+      <c r="AU69" s="78"/>
+      <c r="AV69" s="78"/>
+      <c r="AW69" s="78"/>
+      <c r="AX69" s="78"/>
+      <c r="AY69" s="78"/>
+      <c r="AZ69" s="78"/>
+      <c r="BA69" s="78"/>
+      <c r="BB69" s="78"/>
+      <c r="BC69" s="78"/>
+      <c r="BD69" s="78"/>
+      <c r="BE69" s="78"/>
+      <c r="BF69" s="78"/>
+      <c r="BG69" s="78"/>
+      <c r="BH69" s="78"/>
+      <c r="BI69" s="78"/>
+      <c r="BJ69" s="78"/>
+      <c r="BK69" s="78"/>
+      <c r="BL69" s="78"/>
+      <c r="BM69" s="78"/>
+    </row>
+    <row r="70" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="85"/>
+      <c r="D70" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="91"/>
+    </row>
+    <row r="71" spans="1:65" s="78" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="57"/>
       <c r="C72" s="42"/>
-      <c r="D72" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="M72" s="42"/>
+      <c r="D72" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
     </row>
     <row r="73" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="57"/>
       <c r="C73" s="42"/>
-      <c r="D73" s="64" t="s">
-        <v>43</v>
+      <c r="D73" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
@@ -5903,38 +5989,38 @@
     <row r="74" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="57"/>
       <c r="C74" s="42"/>
-      <c r="D74" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="D74" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="J74" s="42"/>
+      <c r="M74" s="42"/>
     </row>
     <row r="75" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="57"/>
       <c r="C75" s="42"/>
-      <c r="D75" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
+      <c r="D75" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="M75" s="42"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="57"/>
       <c r="C76" s="42"/>
-      <c r="D76" s="55" t="s">
-        <v>52</v>
+      <c r="D76" s="67" t="s">
+        <v>36</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
@@ -5948,7 +6034,7 @@
       <c r="B77" s="57"/>
       <c r="C77" s="42"/>
       <c r="D77" s="55" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
@@ -5961,8 +6047,8 @@
     <row r="78" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="57"/>
       <c r="C78" s="42"/>
-      <c r="D78" s="68" t="s">
-        <v>32</v>
+      <c r="D78" s="55" t="s">
+        <v>38</v>
       </c>
       <c r="E78" s="42"/>
       <c r="F78" s="42"/>
@@ -5972,30 +6058,25 @@
       <c r="J78" s="42"/>
       <c r="M78" s="42"/>
     </row>
-    <row r="79" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="3"/>
+    <row r="79" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="57"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="M79" s="42"/>
     </row>
     <row r="80" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="31"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="70" t="s">
-        <v>44</v>
-      </c>
+      <c r="D80" s="69"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -6008,55 +6089,58 @@
       <c r="N80" s="10"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="M81" s="42"/>
-    </row>
-    <row r="82" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="24"/>
+    <row r="81" spans="1:65" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="42"/>
       <c r="C82" s="42"/>
-      <c r="D82" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="M82" s="42"/>
     </row>
     <row r="83" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="24"/>
       <c r="C83" s="42"/>
-      <c r="D83" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
+      <c r="D83" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="110"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
     </row>
     <row r="84" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="24"/>
       <c r="C84" s="42"/>
-      <c r="D84" s="129" t="s">
-        <v>147</v>
+      <c r="D84" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -6068,42 +6152,44 @@
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:65" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
       <c r="C85" s="42"/>
-      <c r="D85" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="141"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
-      <c r="J85" s="141"/>
-      <c r="K85" s="141"/>
-      <c r="L85" s="141"/>
-      <c r="M85" s="141"/>
-    </row>
-    <row r="86" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D85" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="1:65" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="24"/>
       <c r="C86" s="42"/>
-      <c r="D86" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
+      <c r="D86" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="141"/>
+      <c r="F86" s="141"/>
+      <c r="G86" s="141"/>
+      <c r="H86" s="141"/>
+      <c r="I86" s="141"/>
+      <c r="J86" s="141"/>
+      <c r="K86" s="141"/>
+      <c r="L86" s="141"/>
+      <c r="M86" s="141"/>
     </row>
     <row r="87" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="24"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="71"/>
+      <c r="D87" s="128" t="s">
+        <v>143</v>
+      </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -6115,80 +6201,25 @@
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="76"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="76"/>
-      <c r="M88" s="76"/>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="76"/>
-      <c r="Q88" s="76"/>
-      <c r="R88" s="76"/>
-      <c r="S88" s="76"/>
-      <c r="T88" s="76"/>
-      <c r="U88" s="76"/>
-      <c r="V88" s="76"/>
-      <c r="W88" s="76"/>
-      <c r="X88" s="76"/>
-      <c r="Y88" s="76"/>
-      <c r="Z88" s="76"/>
-      <c r="AA88" s="76"/>
-      <c r="AB88" s="76"/>
-      <c r="AC88" s="76"/>
-      <c r="AD88" s="76"/>
-      <c r="AE88" s="76"/>
-      <c r="AF88" s="76"/>
-      <c r="AG88" s="76"/>
-      <c r="AH88" s="76"/>
-      <c r="AI88" s="76"/>
-      <c r="AJ88" s="76"/>
-      <c r="AK88" s="76"/>
-      <c r="AL88" s="76"/>
-      <c r="AM88" s="76"/>
-      <c r="AN88" s="76"/>
-      <c r="AO88" s="76"/>
-      <c r="AP88" s="76"/>
-      <c r="AQ88" s="76"/>
-      <c r="AR88" s="76"/>
-      <c r="AS88" s="76"/>
-      <c r="AT88" s="76"/>
-      <c r="AU88" s="76"/>
-      <c r="AV88" s="76"/>
-      <c r="AW88" s="76"/>
-      <c r="AX88" s="76"/>
-      <c r="AY88" s="76"/>
-      <c r="AZ88" s="76"/>
-      <c r="BA88" s="76"/>
-      <c r="BB88" s="76"/>
-      <c r="BC88" s="76"/>
-      <c r="BD88" s="76"/>
-      <c r="BE88" s="76"/>
-      <c r="BF88" s="76"/>
-      <c r="BG88" s="76"/>
-      <c r="BH88" s="76"/>
-      <c r="BI88" s="76"/>
-      <c r="BJ88" s="76"/>
-      <c r="BK88" s="76"/>
-      <c r="BL88" s="76"/>
-      <c r="BM88" s="76"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="76"/>
       <c r="B89" s="77"/>
       <c r="C89" s="76"/>
       <c r="D89" s="93" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E89" s="76"/>
       <c r="F89" s="76"/>
@@ -6252,47 +6283,101 @@
       <c r="BL89" s="76"/>
       <c r="BM89" s="76"/>
     </row>
-    <row r="90" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="24"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="136"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="136"/>
-      <c r="H90" s="136"/>
-      <c r="I90" s="136"/>
-      <c r="J90" s="136"/>
-      <c r="K90" s="136"/>
-      <c r="L90" s="136"/>
-      <c r="M90" s="136"/>
-    </row>
-    <row r="91" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:65" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="76"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="76"/>
+      <c r="M90" s="76"/>
+      <c r="N90" s="76"/>
+      <c r="O90" s="76"/>
+      <c r="P90" s="76"/>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="76"/>
+      <c r="S90" s="76"/>
+      <c r="T90" s="76"/>
+      <c r="U90" s="76"/>
+      <c r="V90" s="76"/>
+      <c r="W90" s="76"/>
+      <c r="X90" s="76"/>
+      <c r="Y90" s="76"/>
+      <c r="Z90" s="76"/>
+      <c r="AA90" s="76"/>
+      <c r="AB90" s="76"/>
+      <c r="AC90" s="76"/>
+      <c r="AD90" s="76"/>
+      <c r="AE90" s="76"/>
+      <c r="AF90" s="76"/>
+      <c r="AG90" s="76"/>
+      <c r="AH90" s="76"/>
+      <c r="AI90" s="76"/>
+      <c r="AJ90" s="76"/>
+      <c r="AK90" s="76"/>
+      <c r="AL90" s="76"/>
+      <c r="AM90" s="76"/>
+      <c r="AN90" s="76"/>
+      <c r="AO90" s="76"/>
+      <c r="AP90" s="76"/>
+      <c r="AQ90" s="76"/>
+      <c r="AR90" s="76"/>
+      <c r="AS90" s="76"/>
+      <c r="AT90" s="76"/>
+      <c r="AU90" s="76"/>
+      <c r="AV90" s="76"/>
+      <c r="AW90" s="76"/>
+      <c r="AX90" s="76"/>
+      <c r="AY90" s="76"/>
+      <c r="AZ90" s="76"/>
+      <c r="BA90" s="76"/>
+      <c r="BB90" s="76"/>
+      <c r="BC90" s="76"/>
+      <c r="BD90" s="76"/>
+      <c r="BE90" s="76"/>
+      <c r="BF90" s="76"/>
+      <c r="BG90" s="76"/>
+      <c r="BH90" s="76"/>
+      <c r="BI90" s="76"/>
+      <c r="BJ90" s="76"/>
+      <c r="BK90" s="76"/>
+      <c r="BL90" s="76"/>
+      <c r="BM90" s="76"/>
+    </row>
+    <row r="91" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="24"/>
       <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="M91" s="42"/>
-    </row>
-    <row r="93" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="D91" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="136"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="136"/>
+      <c r="H91" s="136"/>
+      <c r="I91" s="136"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="136"/>
+      <c r="L91" s="136"/>
+      <c r="M91" s="136"/>
+    </row>
+    <row r="92" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="M92" s="42"/>
     </row>
     <row r="94" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
@@ -6594,12 +6679,27 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
+    <row r="114" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="10">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D91:M91"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="I41:L41"/>
@@ -6607,7 +6707,7 @@
     <mergeCell ref="I43:L43"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D86:M86"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F39 F28:F32 F20:F23 F8:F11 F14:F17">
     <cfRule type="iconSet" priority="7">
@@ -6690,17 +6790,17 @@
     <hyperlink ref="I40" r:id="rId1" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{835EB78C-226C-49EA-A62A-94B842F8E249}"/>
     <hyperlink ref="E43" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
     <hyperlink ref="E42" r:id="rId3" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
-    <hyperlink ref="D83" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
-    <hyperlink ref="D74" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
+    <hyperlink ref="D84" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
+    <hyperlink ref="D75" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
     <hyperlink ref="E44" r:id="rId6" xr:uid="{04227A1E-803F-49E4-A483-BEDBB0C9649E}"/>
-    <hyperlink ref="D78" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
-    <hyperlink ref="D75" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
-    <hyperlink ref="D80" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
+    <hyperlink ref="D79" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
+    <hyperlink ref="D76" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
+    <hyperlink ref="D81" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
     <hyperlink ref="D47" r:id="rId10" display="After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
-    <hyperlink ref="D90:K90" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
-    <hyperlink ref="E69" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
-    <hyperlink ref="D86" r:id="rId13" xr:uid="{671D7273-4D11-4DB1-879B-F45E2A4C4321}"/>
-    <hyperlink ref="D85:K85" r:id="rId14" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{36C4110C-F336-47A6-9C41-14D818ECB54A}"/>
+    <hyperlink ref="D91:K91" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
+    <hyperlink ref="E70" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
+    <hyperlink ref="D87" r:id="rId13" xr:uid="{671D7273-4D11-4DB1-879B-F45E2A4C4321}"/>
+    <hyperlink ref="D86:K86" r:id="rId14" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{36C4110C-F336-47A6-9C41-14D818ECB54A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
@@ -6772,7 +6872,7 @@
       <c r="B2" s="130"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -6803,73 +6903,73 @@
       <c r="B3" s="44"/>
       <c r="C3" s="42"/>
       <c r="D3" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G3" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="134" t="s">
+      <c r="M3" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="134" t="s">
+      <c r="N3" s="134" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="O3" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="134" t="s">
+      <c r="Q3" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="134" t="s">
+      <c r="R3" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="134" t="s">
+      <c r="S3" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="T3" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="U3" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="O3" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="P3" s="134" t="s">
+      <c r="V3" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="134" t="s">
+      <c r="W3" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="X3" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="S3" s="134" t="s">
+      <c r="Y3" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="T3" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="134" t="s">
+      <c r="Z3" s="134" t="s">
         <v>214</v>
-      </c>
-      <c r="V3" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="W3" s="134" t="s">
-        <v>216</v>
-      </c>
-      <c r="X3" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y3" s="134" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z3" s="134" t="s">
-        <v>219</v>
       </c>
       <c r="AA3" s="44"/>
     </row>
@@ -6962,13 +7062,13 @@
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
       <c r="D7" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -7001,13 +7101,13 @@
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
       <c r="D8" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
@@ -7042,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -7075,13 +7175,13 @@
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
       <c r="D10" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
@@ -7114,7 +7214,7 @@
       <c r="A11" s="45"/>
       <c r="B11" s="19"/>
       <c r="D11" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -7175,13 +7275,13 @@
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -7231,13 +7331,13 @@
       <c r="B14" s="30"/>
       <c r="C14" s="27"/>
       <c r="D14" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G14" s="101">
         <v>1</v>
@@ -7297,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -7367,13 +7467,13 @@
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
       <c r="D16" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E16" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G16" s="101">
         <v>1</v>
@@ -7441,7 +7541,7 @@
     <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="D17" s="47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7499,13 +7599,13 @@
       <c r="B19" s="31"/>
       <c r="C19" s="27"/>
       <c r="D19" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -7555,13 +7655,13 @@
       <c r="B20" s="31"/>
       <c r="C20" s="27"/>
       <c r="D20" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E20" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G20" s="101">
         <v>1</v>
@@ -7621,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -7691,13 +7791,13 @@
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
       <c r="D22" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G22" s="101">
         <v>1</v>
@@ -7766,7 +7866,7 @@
       <c r="A23" s="45"/>
       <c r="B23" s="21"/>
       <c r="D23" s="46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -7825,7 +7925,7 @@
     <row r="25" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21"/>
       <c r="D25" s="48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7885,13 +7985,13 @@
       <c r="B27" s="32"/>
       <c r="C27" s="27"/>
       <c r="D27" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G27" s="101">
         <v>1</v>
@@ -7945,7 +8045,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -8007,13 +8107,13 @@
       <c r="B29" s="32"/>
       <c r="C29" s="27"/>
       <c r="D29" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E29" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F29" s="100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G29" s="101">
         <v>1</v>
@@ -8073,7 +8173,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -8143,13 +8243,13 @@
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
       <c r="D31" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" s="99" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G31" s="101">
         <v>1</v>
@@ -8217,7 +8317,7 @@
     <row r="32" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="D32" s="48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -8278,13 +8378,13 @@
       <c r="B34" s="23"/>
       <c r="C34" s="27"/>
       <c r="D34" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G34" s="101">
         <v>1</v>
@@ -8338,7 +8438,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -8400,13 +8500,13 @@
       <c r="B36" s="23"/>
       <c r="C36" s="27"/>
       <c r="D36" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G36" s="101">
         <v>1</v>
@@ -8466,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -8536,13 +8636,13 @@
       <c r="B38" s="23"/>
       <c r="C38" s="27"/>
       <c r="D38" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E38" s="99" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="99" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G38" s="101">
         <v>1</v>
@@ -8694,7 +8794,7 @@
     <tabColor rgb="FFFF0066"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO91"/>
+  <dimension ref="A1:BO92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -8767,22 +8867,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>21</v>
@@ -8794,7 +8894,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -8851,10 +8951,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -8863,10 +8963,10 @@
         <v>12</v>
       </c>
       <c r="H8" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -8885,22 +8985,22 @@
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F9" s="99">
         <v>1</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J9" s="99">
         <v>1</v>
@@ -8920,7 +9020,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="28"/>
       <c r="E10" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -8929,10 +9029,10 @@
         <v>12</v>
       </c>
       <c r="H10" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J10" s="10">
         <v>1</v>
@@ -8951,10 +9051,10 @@
       <c r="B11" s="25"/>
       <c r="C11" s="10"/>
       <c r="D11" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F11" s="99">
         <v>1</v>
@@ -8963,10 +9063,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I11" s="99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J11" s="99">
         <v>1</v>
@@ -8985,7 +9085,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="10"/>
       <c r="D12" s="50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -9018,10 +9118,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -9030,10 +9130,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -9052,22 +9152,22 @@
       <c r="B15" s="30"/>
       <c r="C15" s="10"/>
       <c r="D15" s="97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E15" s="124" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F15" s="99">
         <v>1</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H15" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J15" s="99">
         <v>1</v>
@@ -9087,7 +9187,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -9096,10 +9196,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J16" s="10">
         <v>1</v>
@@ -9118,10 +9218,10 @@
       <c r="B17" s="30"/>
       <c r="C17" s="10"/>
       <c r="D17" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="99">
         <v>1</v>
@@ -9130,10 +9230,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J17" s="99">
         <v>1</v>
@@ -9152,7 +9252,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -9185,10 +9285,10 @@
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="D20" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -9197,10 +9297,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J20" s="10">
         <v>1</v>
@@ -9219,22 +9319,22 @@
       <c r="B21" s="31"/>
       <c r="C21" s="10"/>
       <c r="D21" s="97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E21" s="124" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F21" s="99">
         <v>1</v>
       </c>
       <c r="G21" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H21" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I21" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J21" s="99">
         <v>1</v>
@@ -9254,7 +9354,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -9263,10 +9363,10 @@
         <v>12</v>
       </c>
       <c r="H22" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J22" s="10">
         <v>1</v>
@@ -9285,10 +9385,10 @@
       <c r="B23" s="31"/>
       <c r="C23" s="10"/>
       <c r="D23" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="99">
         <v>1</v>
@@ -9297,10 +9397,10 @@
         <v>12</v>
       </c>
       <c r="H23" s="123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J23" s="99">
         <v>1</v>
@@ -9320,7 +9420,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="10"/>
       <c r="D24" s="46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -9355,7 +9455,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -9389,22 +9489,22 @@
       <c r="B28" s="32"/>
       <c r="C28" s="10"/>
       <c r="D28" s="99" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F28" s="99">
         <v>1</v>
       </c>
       <c r="G28" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H28" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I28" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J28" s="99">
         <v>1</v>
@@ -9424,7 +9524,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -9433,10 +9533,10 @@
         <v>12</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -9455,22 +9555,22 @@
       <c r="B30" s="32"/>
       <c r="C30" s="10"/>
       <c r="D30" s="99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E30" s="124" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F30" s="99">
         <v>1</v>
       </c>
       <c r="G30" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H30" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I30" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J30" s="99">
         <v>1</v>
@@ -9490,7 +9590,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -9499,10 +9599,10 @@
         <v>12</v>
       </c>
       <c r="H31" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J31" s="10">
         <v>1</v>
@@ -9521,10 +9621,10 @@
       <c r="B32" s="32"/>
       <c r="C32" s="10"/>
       <c r="D32" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F32" s="99">
         <v>1</v>
@@ -9533,10 +9633,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I32" s="99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J32" s="99">
         <v>1</v>
@@ -9555,7 +9655,7 @@
       <c r="B33" s="34"/>
       <c r="C33" s="10"/>
       <c r="D33" s="51" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -9589,22 +9689,22 @@
       <c r="B35" s="34"/>
       <c r="C35" s="10"/>
       <c r="D35" s="97" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E35" s="124" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F35" s="99">
         <v>1</v>
       </c>
       <c r="G35" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H35" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I35" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J35" s="99">
         <v>1</v>
@@ -9624,7 +9724,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="28"/>
       <c r="E36" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -9633,10 +9733,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J36" s="10">
         <v>1</v>
@@ -9655,22 +9755,22 @@
       <c r="B37" s="34"/>
       <c r="C37" s="10"/>
       <c r="D37" s="97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E37" s="124" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F37" s="99">
         <v>1</v>
       </c>
       <c r="G37" s="99" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H37" s="123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I37" s="99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J37" s="99">
         <v>1</v>
@@ -9690,7 +9790,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="28"/>
       <c r="E38" s="29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
@@ -9699,10 +9799,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="122" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J38" s="10">
         <v>1</v>
@@ -9721,10 +9821,10 @@
       <c r="B39" s="34"/>
       <c r="C39" s="10"/>
       <c r="D39" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F39" s="99">
         <v>1</v>
@@ -9733,10 +9833,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I39" s="99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J39" s="99">
         <v>1</v>
@@ -9764,7 +9864,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="138" t="s">
@@ -9772,7 +9872,7 @@
       </c>
       <c r="H41" s="138"/>
       <c r="I41" s="138" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J41" s="138"/>
       <c r="K41" s="138"/>
@@ -9866,7 +9966,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="2"/>
       <c r="D47" s="109" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E47" s="78"/>
       <c r="F47" s="78"/>
@@ -9876,7 +9976,7 @@
       <c r="B48" s="57"/>
       <c r="C48" s="2"/>
       <c r="D48" s="53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E48" s="78"/>
       <c r="F48" s="78"/>
@@ -9886,7 +9986,7 @@
       <c r="B49" s="57"/>
       <c r="C49" s="2"/>
       <c r="D49" s="53" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E49" s="78"/>
       <c r="F49" s="78"/>
@@ -9896,7 +9996,7 @@
       <c r="B50" s="57"/>
       <c r="C50" s="2"/>
       <c r="D50" s="53" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E50" s="78"/>
       <c r="F50" s="78"/>
@@ -9953,7 +10053,7 @@
       <c r="B57" s="85"/>
       <c r="C57" s="8"/>
       <c r="D57" s="80" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
@@ -10021,20 +10121,20 @@
       <c r="A58" s="8"/>
       <c r="B58" s="85"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="83"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="D58" s="150">
+        <v>28000.157500000001</v>
+      </c>
+      <c r="E58" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
@@ -10093,10 +10193,10 @@
       <c r="B59" s="85"/>
       <c r="C59" s="8"/>
       <c r="D59" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="83" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="F59" s="83"/>
       <c r="G59" s="8"/>
@@ -10163,20 +10263,20 @@
       <c r="A60" s="8"/>
       <c r="B60" s="85"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="88" t="s">
-        <v>63</v>
+      <c r="D60" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F60" s="83"/>
-      <c r="G60" s="82"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -10235,19 +10335,19 @@
       <c r="B61" s="85"/>
       <c r="C61" s="8"/>
       <c r="D61" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F61" s="83"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="82"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -10305,11 +10405,11 @@
       <c r="A62" s="8"/>
       <c r="B62" s="85"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="84" t="s">
-        <v>12</v>
+      <c r="D62" s="88" t="s">
+        <v>64</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="F62" s="83"/>
       <c r="G62" s="8"/>
@@ -10377,10 +10477,10 @@
       <c r="B63" s="85"/>
       <c r="C63" s="8"/>
       <c r="D63" s="84" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="F63" s="83"/>
       <c r="G63" s="8"/>
@@ -10447,11 +10547,11 @@
       <c r="A64" s="8"/>
       <c r="B64" s="85"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="88" t="s">
-        <v>66</v>
+      <c r="D64" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="E64" s="83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F64" s="83"/>
       <c r="G64" s="8"/>
@@ -10519,10 +10619,10 @@
       <c r="B65" s="85"/>
       <c r="C65" s="8"/>
       <c r="D65" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F65" s="83"/>
       <c r="G65" s="8"/>
@@ -10590,10 +10690,10 @@
       <c r="B66" s="85"/>
       <c r="C66" s="8"/>
       <c r="D66" s="88" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E66" s="83" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F66" s="83"/>
       <c r="G66" s="8"/>
@@ -10660,11 +10760,11 @@
       <c r="A67" s="8"/>
       <c r="B67" s="85"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="88">
-        <v>2026</v>
+      <c r="D67" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F67" s="83"/>
       <c r="G67" s="8"/>
@@ -10731,11 +10831,11 @@
       <c r="A68" s="8"/>
       <c r="B68" s="85"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="88" t="s">
-        <v>86</v>
+      <c r="D68" s="88">
+        <v>2026</v>
       </c>
       <c r="E68" s="83" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F68" s="83"/>
       <c r="G68" s="8"/>
@@ -10802,13 +10902,13 @@
       <c r="A69" s="8"/>
       <c r="B69" s="85"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="91"/>
+      <c r="D69" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="83"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -10869,13 +10969,17 @@
       <c r="BL69" s="8"/>
       <c r="BM69" s="8"/>
     </row>
-    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="D70" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="91"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -10936,68 +11040,127 @@
       <c r="BL70" s="8"/>
       <c r="BM70" s="8"/>
     </row>
-    <row r="71" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="42"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
+    <row r="71" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="8"/>
+      <c r="AR71" s="8"/>
+      <c r="AS71" s="8"/>
+      <c r="AT71" s="8"/>
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="8"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="8"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="8"/>
+      <c r="BB71" s="8"/>
+      <c r="BC71" s="8"/>
+      <c r="BD71" s="8"/>
+      <c r="BE71" s="8"/>
+      <c r="BF71" s="8"/>
+      <c r="BG71" s="8"/>
+      <c r="BH71" s="8"/>
+      <c r="BI71" s="8"/>
+      <c r="BJ71" s="8"/>
+      <c r="BK71" s="8"/>
+      <c r="BL71" s="8"/>
+      <c r="BM71" s="8"/>
     </row>
     <row r="72" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42"/>
       <c r="B72" s="57"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="53" t="s">
-        <v>30</v>
-      </c>
+      <c r="D72" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
     </row>
     <row r="73" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42"/>
       <c r="B73" s="57"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="65" t="s">
-        <v>41</v>
+      <c r="D73" s="53" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42"/>
       <c r="B74" s="57"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
+      <c r="D74" s="65" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="75" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42"/>
       <c r="B75" s="57"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="72" t="s">
-        <v>35</v>
-      </c>
+      <c r="D75" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
     </row>
     <row r="76" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42"/>
       <c r="B76" s="57"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="54" t="s">
-        <v>51</v>
+      <c r="D76" s="72" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
@@ -11005,74 +11168,67 @@
       <c r="B77" s="57"/>
       <c r="C77" s="2"/>
       <c r="D77" s="54" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42"/>
       <c r="B78" s="57"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="73" t="s">
-        <v>31</v>
+      <c r="D78" s="54" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42"/>
       <c r="B79" s="57"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="72"/>
+      <c r="D79" s="73" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="80" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="B80" s="31"/>
-      <c r="D80" s="74" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="72"/>
+    </row>
+    <row r="81" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="31"/>
+      <c r="D81" s="74" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-    </row>
-    <row r="82" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42"/>
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
+      <c r="D83" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42"/>
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="125" t="s">
-        <v>143</v>
+      <c r="D84" s="75" t="s">
+        <v>49</v>
       </c>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
@@ -11086,8 +11242,8 @@
       <c r="A85" s="42"/>
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="126" t="s">
-        <v>145</v>
+      <c r="D85" s="125" t="s">
+        <v>138</v>
       </c>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
@@ -11101,8 +11257,8 @@
       <c r="A86" s="42"/>
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="127" t="s">
-        <v>144</v>
+      <c r="D86" s="126" t="s">
+        <v>140</v>
       </c>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
@@ -11116,7 +11272,9 @@
       <c r="A87" s="42"/>
       <c r="B87" s="24"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="127"/>
+      <c r="D87" s="127" t="s">
+        <v>139</v>
+      </c>
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
@@ -11126,80 +11284,24 @@
       <c r="M87" s="36"/>
     </row>
     <row r="88" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="76"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="78"/>
-      <c r="J88" s="78"/>
-      <c r="K88" s="78"/>
-      <c r="L88" s="78"/>
-      <c r="M88" s="78"/>
-      <c r="N88" s="78"/>
-      <c r="O88" s="78"/>
-      <c r="P88" s="78"/>
-      <c r="Q88" s="78"/>
-      <c r="R88" s="78"/>
-      <c r="S88" s="78"/>
-      <c r="T88" s="78"/>
-      <c r="U88" s="78"/>
-      <c r="V88" s="78"/>
-      <c r="W88" s="78"/>
-      <c r="X88" s="78"/>
-      <c r="Y88" s="78"/>
-      <c r="Z88" s="78"/>
-      <c r="AA88" s="78"/>
-      <c r="AB88" s="78"/>
-      <c r="AC88" s="78"/>
-      <c r="AD88" s="78"/>
-      <c r="AE88" s="78"/>
-      <c r="AF88" s="78"/>
-      <c r="AG88" s="78"/>
-      <c r="AH88" s="78"/>
-      <c r="AI88" s="78"/>
-      <c r="AJ88" s="78"/>
-      <c r="AK88" s="78"/>
-      <c r="AL88" s="78"/>
-      <c r="AM88" s="78"/>
-      <c r="AN88" s="78"/>
-      <c r="AO88" s="78"/>
-      <c r="AP88" s="78"/>
-      <c r="AQ88" s="78"/>
-      <c r="AR88" s="78"/>
-      <c r="AS88" s="78"/>
-      <c r="AT88" s="78"/>
-      <c r="AU88" s="78"/>
-      <c r="AV88" s="78"/>
-      <c r="AW88" s="78"/>
-      <c r="AX88" s="78"/>
-      <c r="AY88" s="78"/>
-      <c r="AZ88" s="78"/>
-      <c r="BA88" s="78"/>
-      <c r="BB88" s="78"/>
-      <c r="BC88" s="78"/>
-      <c r="BD88" s="78"/>
-      <c r="BE88" s="78"/>
-      <c r="BF88" s="78"/>
-      <c r="BG88" s="78"/>
-      <c r="BH88" s="78"/>
-      <c r="BI88" s="78"/>
-      <c r="BJ88" s="78"/>
-      <c r="BK88" s="78"/>
-      <c r="BL88" s="78"/>
-      <c r="BM88" s="78"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
     </row>
     <row r="89" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="76"/>
       <c r="B89" s="77"/>
       <c r="C89" s="76"/>
       <c r="D89" s="92" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E89" s="78"/>
       <c r="F89" s="78"/>
@@ -11263,37 +11365,106 @@
       <c r="BL89" s="78"/>
       <c r="BM89" s="78"/>
     </row>
-    <row r="90" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="42"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="143"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="143"/>
-      <c r="J90" s="143"/>
-      <c r="K90" s="143"/>
-      <c r="L90" s="143"/>
-      <c r="M90" s="143"/>
-    </row>
-    <row r="91" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D91" s="42"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="M91" s="42"/>
+    <row r="90" spans="1:65" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="76"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="78"/>
+      <c r="S90" s="78"/>
+      <c r="T90" s="78"/>
+      <c r="U90" s="78"/>
+      <c r="V90" s="78"/>
+      <c r="W90" s="78"/>
+      <c r="X90" s="78"/>
+      <c r="Y90" s="78"/>
+      <c r="Z90" s="78"/>
+      <c r="AA90" s="78"/>
+      <c r="AB90" s="78"/>
+      <c r="AC90" s="78"/>
+      <c r="AD90" s="78"/>
+      <c r="AE90" s="78"/>
+      <c r="AF90" s="78"/>
+      <c r="AG90" s="78"/>
+      <c r="AH90" s="78"/>
+      <c r="AI90" s="78"/>
+      <c r="AJ90" s="78"/>
+      <c r="AK90" s="78"/>
+      <c r="AL90" s="78"/>
+      <c r="AM90" s="78"/>
+      <c r="AN90" s="78"/>
+      <c r="AO90" s="78"/>
+      <c r="AP90" s="78"/>
+      <c r="AQ90" s="78"/>
+      <c r="AR90" s="78"/>
+      <c r="AS90" s="78"/>
+      <c r="AT90" s="78"/>
+      <c r="AU90" s="78"/>
+      <c r="AV90" s="78"/>
+      <c r="AW90" s="78"/>
+      <c r="AX90" s="78"/>
+      <c r="AY90" s="78"/>
+      <c r="AZ90" s="78"/>
+      <c r="BA90" s="78"/>
+      <c r="BB90" s="78"/>
+      <c r="BC90" s="78"/>
+      <c r="BD90" s="78"/>
+      <c r="BE90" s="78"/>
+      <c r="BF90" s="78"/>
+      <c r="BG90" s="78"/>
+      <c r="BH90" s="78"/>
+      <c r="BI90" s="78"/>
+      <c r="BJ90" s="78"/>
+      <c r="BK90" s="78"/>
+      <c r="BL90" s="78"/>
+      <c r="BM90" s="78"/>
+    </row>
+    <row r="91" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="42"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91" s="143"/>
+      <c r="F91" s="143"/>
+      <c r="G91" s="143"/>
+      <c r="H91" s="143"/>
+      <c r="I91" s="143"/>
+      <c r="J91" s="143"/>
+      <c r="K91" s="143"/>
+      <c r="L91" s="143"/>
+      <c r="M91" s="143"/>
+    </row>
+    <row r="92" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D92" s="42"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="M92" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="9">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D91:M91"/>
     <mergeCell ref="I41:L41"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="I43:L43"/>
@@ -11381,18 +11552,18 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D74" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
+    <hyperlink ref="D75" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
     <hyperlink ref="E43" r:id="rId2" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
     <hyperlink ref="E42" r:id="rId3" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
-    <hyperlink ref="D83" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
+    <hyperlink ref="D84" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
     <hyperlink ref="E44" r:id="rId5" xr:uid="{9906D963-5C09-437F-A43D-E9CA4489C59F}"/>
-    <hyperlink ref="D78" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
-    <hyperlink ref="D75" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
-    <hyperlink ref="D80" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
+    <hyperlink ref="D79" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
+    <hyperlink ref="D76" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
+    <hyperlink ref="D81" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
     <hyperlink ref="D47" r:id="rId9" display="下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
-    <hyperlink ref="D90:K90" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
-    <hyperlink ref="E69" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
-    <hyperlink ref="D86" r:id="rId12" xr:uid="{ED7CB471-E4E8-4BAE-8291-F3DAB18853FD}"/>
+    <hyperlink ref="D91:K91" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
+    <hyperlink ref="E70" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
+    <hyperlink ref="D87" r:id="rId12" xr:uid="{ED7CB471-E4E8-4BAE-8291-F3DAB18853FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
@@ -11463,7 +11634,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="42"/>
       <c r="D2" s="131" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -11494,73 +11665,73 @@
       <c r="B3" s="44"/>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G3" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="134" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="134" t="s">
+      <c r="N3" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="O3" s="134" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="134" t="s">
+      <c r="R3" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="134" t="s">
+      <c r="S3" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="134" t="s">
+      <c r="T3" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="V3" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="P3" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q3" s="134" t="s">
+      <c r="W3" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="X3" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="S3" s="134" t="s">
+      <c r="Y3" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="T3" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="U3" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="V3" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="W3" s="134" t="s">
-        <v>196</v>
-      </c>
-      <c r="X3" s="134" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y3" s="134" t="s">
-        <v>198</v>
-      </c>
       <c r="Z3" s="134" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AA3" s="44"/>
     </row>
@@ -11653,13 +11824,13 @@
       <c r="B7" s="25"/>
       <c r="C7" s="42"/>
       <c r="D7" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -11692,13 +11863,13 @@
       <c r="B8" s="25"/>
       <c r="C8" s="42"/>
       <c r="D8" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
@@ -11733,7 +11904,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -11766,13 +11937,13 @@
       <c r="B10" s="25"/>
       <c r="C10" s="42"/>
       <c r="D10" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
@@ -11805,7 +11976,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="10"/>
       <c r="D11" s="50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -11866,13 +12037,13 @@
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -11922,13 +12093,13 @@
       <c r="B14" s="30"/>
       <c r="C14" s="27"/>
       <c r="D14" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G14" s="101">
         <v>1</v>
@@ -11988,7 +12159,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -12058,13 +12229,13 @@
       <c r="B16" s="30"/>
       <c r="C16" s="27"/>
       <c r="D16" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E16" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G16" s="101">
         <v>1</v>
@@ -12133,7 +12304,7 @@
       <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -12191,13 +12362,13 @@
       <c r="B19" s="31"/>
       <c r="C19" s="27"/>
       <c r="D19" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -12247,13 +12418,13 @@
       <c r="B20" s="31"/>
       <c r="C20" s="27"/>
       <c r="D20" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E20" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G20" s="101">
         <v>1</v>
@@ -12313,7 +12484,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -12383,13 +12554,13 @@
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
       <c r="D22" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E22" s="100" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G22" s="101">
         <v>1</v>
@@ -12459,7 +12630,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="10"/>
       <c r="D23" s="46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -12519,7 +12690,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="10"/>
       <c r="D25" s="51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -12579,13 +12750,13 @@
       <c r="B27" s="32"/>
       <c r="C27" s="27"/>
       <c r="D27" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G27" s="101">
         <v>1</v>
@@ -12639,7 +12810,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -12701,13 +12872,13 @@
       <c r="B29" s="32"/>
       <c r="C29" s="27"/>
       <c r="D29" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E29" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F29" s="100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" s="101">
         <v>1</v>
@@ -12767,7 +12938,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -12837,13 +13008,13 @@
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
       <c r="D31" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" s="99" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G31" s="101">
         <v>1</v>
@@ -12912,7 +13083,7 @@
       <c r="B32" s="34"/>
       <c r="C32" s="10"/>
       <c r="D32" s="51" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -12973,13 +13144,13 @@
       <c r="B34" s="23"/>
       <c r="C34" s="27"/>
       <c r="D34" s="100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G34" s="101">
         <v>1</v>
@@ -13033,7 +13204,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -13095,13 +13266,13 @@
       <c r="B36" s="23"/>
       <c r="C36" s="27"/>
       <c r="D36" s="100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G36" s="101">
         <v>1</v>
@@ -13161,7 +13332,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -13231,13 +13402,13 @@
       <c r="B38" s="23"/>
       <c r="C38" s="27"/>
       <c r="D38" s="100" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E38" s="99" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="99" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G38" s="101">
         <v>1</v>
